--- a/src/assets/templates/maxidyn/PV Maxidyn Demo FR.xlsx
+++ b/src/assets/templates/maxidyn/PV Maxidyn Demo FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b21a0883c8b69009/Documents/Git/rapportxls/Template Mapview 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{455CFE87-D67D-493F-800B-0562AB01F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1197DC-4B64-464F-B471-3A3E53D41D76}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{455CFE87-D67D-493F-800B-0562AB01F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9953A6-E422-4DC6-964B-1B58B760F11C}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="550" windowWidth="26320" windowHeight="19760" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14230" yWindow="2700" windowWidth="21650" windowHeight="16620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" state="hidden" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="179">
   <si>
     <t>Client :</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Module sous chargement dynamique (Dynaplaque 2)</t>
-  </si>
-  <si>
-    <t>Réseau de Laboratoires d'Essais et d'Analyses</t>
   </si>
   <si>
     <t>www.rincent.fr</t>
@@ -529,9 +526,6 @@
     <t>Le Responsable,</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>Rapport de chantier</t>
   </si>
   <si>
@@ -617,6 +611,24 @@
   </si>
   <si>
     <t>Pi_Chainage</t>
+  </si>
+  <si>
+    <t>Agence de Aix</t>
+  </si>
+  <si>
+    <t>Agence de Lille</t>
+  </si>
+  <si>
+    <t>Agence de Dijon</t>
+  </si>
+  <si>
+    <t>Agence de Bordeaux</t>
+  </si>
+  <si>
+    <t>Agence de Strasbourg</t>
+  </si>
+  <si>
+    <t>Agence de Lyon</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1989,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2509,6 +2521,93 @@
     <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2524,9 +2623,6 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2555,110 +2651,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2671,29 +2703,165 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2751,165 +2919,78 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2925,86 +3006,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3024,24 +3054,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3051,132 +3063,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3186,8 +3073,136 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7967,15 +7982,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -7983,7 +7998,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -8000,7 +8015,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -8033,15 +8048,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
+      <c r="D2" s="247" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -8074,51 +8089,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="245" t="s">
+      <c r="A6" s="409"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="245" t="s">
+      <c r="A7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="409"/>
+      <c r="B8" s="409"/>
+      <c r="C8" s="409"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -8129,9 +8144,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="409"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -8143,35 +8158,35 @@
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="411"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="412"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="16" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="272" t="e">
+        <v>27</v>
+      </c>
+      <c r="D11" s="244" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="72" t="e" cm="1">
         <f t="array" ref="J11">Zi_Name</f>
@@ -8183,18 +8198,18 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="261" t="e">
+        <v>29</v>
+      </c>
+      <c r="D12" s="256" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="261"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="138" t="e">
         <f>IF(AVERAGE(Zi_Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Zi_Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Zi_Pi_Modulus)))</f>
@@ -8208,16 +8223,16 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="268" t="e">
+      <c r="D13" s="259" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="139" t="e" cm="1">
         <f t="array" ref="J13">COUNTIF(Zi_Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
@@ -8240,17 +8255,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="412"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -8284,42 +8299,42 @@
         <v>8</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="407" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="408"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="413" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="414"/>
+      <c r="J17" s="415"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="E18" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="151" t="s">
+      <c r="F18" s="90" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="91" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="410"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="412"/>
+      <c r="H18" s="416"/>
+      <c r="I18" s="417"/>
+      <c r="J18" s="418"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -8333,9 +8348,9 @@
         <f t="array" ref="G19">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H19" s="404"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="404"/>
+      <c r="J19" s="405"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -8349,9 +8364,9 @@
         <f t="array" ref="G20">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H20" s="404"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="404"/>
+      <c r="J20" s="405"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -8365,9 +8380,9 @@
         <f t="array" ref="G21">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H21" s="404"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -8381,9 +8396,9 @@
         <f t="array" ref="G22">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H22" s="404"/>
-      <c r="I22" s="405"/>
-      <c r="J22" s="406"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="404"/>
+      <c r="J22" s="405"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -8397,9 +8412,9 @@
         <f t="array" ref="G23">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H23" s="404"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="406"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="404"/>
+      <c r="J23" s="405"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -8413,9 +8428,9 @@
         <f t="array" ref="G24">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H24" s="404"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="406"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="404"/>
+      <c r="J24" s="405"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -8429,9 +8444,9 @@
         <f t="array" ref="G25">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H25" s="404"/>
-      <c r="I25" s="405"/>
-      <c r="J25" s="406"/>
+      <c r="H25" s="403"/>
+      <c r="I25" s="404"/>
+      <c r="J25" s="405"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -8445,9 +8460,9 @@
         <f t="array" ref="G26">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H26" s="404"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="406"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="404"/>
+      <c r="J26" s="405"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -8493,9 +8508,9 @@
         <f t="array" ref="G29">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H29" s="404"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="406"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="404"/>
+      <c r="J29" s="405"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -8509,9 +8524,9 @@
         <f t="array" ref="G30">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H30" s="404"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
+      <c r="H30" s="403"/>
+      <c r="I30" s="404"/>
+      <c r="J30" s="405"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -8525,9 +8540,9 @@
         <f t="array" ref="G31">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H31" s="404"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="406"/>
+      <c r="H31" s="403"/>
+      <c r="I31" s="404"/>
+      <c r="J31" s="405"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -8541,9 +8556,9 @@
         <f t="array" ref="G32">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H32" s="404"/>
-      <c r="I32" s="405"/>
-      <c r="J32" s="406"/>
+      <c r="H32" s="403"/>
+      <c r="I32" s="404"/>
+      <c r="J32" s="405"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -8557,9 +8572,9 @@
         <f t="array" ref="G33">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H33" s="404"/>
-      <c r="I33" s="405"/>
-      <c r="J33" s="406"/>
+      <c r="H33" s="403"/>
+      <c r="I33" s="404"/>
+      <c r="J33" s="405"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -8573,9 +8588,9 @@
         <f t="array" ref="G34">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H34" s="404"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="406"/>
+      <c r="H34" s="403"/>
+      <c r="I34" s="404"/>
+      <c r="J34" s="405"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -8589,9 +8604,9 @@
         <f t="array" ref="G35">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H35" s="404"/>
-      <c r="I35" s="405"/>
-      <c r="J35" s="406"/>
+      <c r="H35" s="403"/>
+      <c r="I35" s="404"/>
+      <c r="J35" s="405"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -8605,9 +8620,9 @@
         <f t="array" ref="G36">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H36" s="404"/>
-      <c r="I36" s="405"/>
-      <c r="J36" s="406"/>
+      <c r="H36" s="403"/>
+      <c r="I36" s="404"/>
+      <c r="J36" s="405"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -8621,9 +8636,9 @@
         <f t="array" ref="G37">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H37" s="404"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="406"/>
+      <c r="H37" s="403"/>
+      <c r="I37" s="404"/>
+      <c r="J37" s="405"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -8637,9 +8652,9 @@
         <f t="array" ref="G38">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H38" s="404"/>
-      <c r="I38" s="405"/>
-      <c r="J38" s="406"/>
+      <c r="H38" s="403"/>
+      <c r="I38" s="404"/>
+      <c r="J38" s="405"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -8653,9 +8668,9 @@
         <f t="array" ref="G39">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H39" s="404"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="406"/>
+      <c r="H39" s="403"/>
+      <c r="I39" s="404"/>
+      <c r="J39" s="405"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -8669,9 +8684,9 @@
         <f t="array" ref="G40">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="406"/>
+      <c r="H40" s="403"/>
+      <c r="I40" s="404"/>
+      <c r="J40" s="405"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -8685,9 +8700,9 @@
         <f t="array" ref="G41">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="406"/>
+      <c r="H41" s="403"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="405"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -8701,9 +8716,9 @@
         <f t="array" ref="G42">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="406"/>
+      <c r="H42" s="403"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -8717,9 +8732,9 @@
         <f t="array" ref="G43">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H43" s="404"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="406"/>
+      <c r="H43" s="403"/>
+      <c r="I43" s="404"/>
+      <c r="J43" s="405"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -8733,9 +8748,9 @@
         <f t="array" ref="G44">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H44" s="404"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="406"/>
+      <c r="H44" s="403"/>
+      <c r="I44" s="404"/>
+      <c r="J44" s="405"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -8749,9 +8764,9 @@
         <f t="array" ref="G45">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H45" s="404"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="406"/>
+      <c r="H45" s="403"/>
+      <c r="I45" s="404"/>
+      <c r="J45" s="405"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -8765,9 +8780,9 @@
         <f t="array" ref="G46">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H46" s="404"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="406"/>
+      <c r="H46" s="403"/>
+      <c r="I46" s="404"/>
+      <c r="J46" s="405"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -8781,9 +8796,9 @@
         <f t="array" ref="G47">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H47" s="404"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="406"/>
+      <c r="H47" s="403"/>
+      <c r="I47" s="404"/>
+      <c r="J47" s="405"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -8797,9 +8812,9 @@
         <f t="array" ref="G48">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H48" s="416"/>
-      <c r="I48" s="417"/>
-      <c r="J48" s="418"/>
+      <c r="H48" s="406"/>
+      <c r="I48" s="407"/>
+      <c r="J48" s="408"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -8835,6 +8850,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D5:K5"/>
@@ -8847,37 +8893,6 @@
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8894,7 +8909,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -8924,7 +8939,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="469" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="E2" s="469"/>
       <c r="F2" s="469"/>
@@ -8961,48 +8976,48 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="245" t="s">
+      <c r="A6" s="409"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="245" t="s">
+      <c r="A7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="409"/>
+      <c r="B8" s="409"/>
+      <c r="C8" s="409"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -9012,9 +9027,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="409"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -9025,23 +9040,23 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="415"/>
+      <c r="B10" s="410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="411"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="412"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="128"/>
       <c r="C11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="129" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -9051,11 +9066,11 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="22">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44969</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -9063,7 +9078,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="130"/>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="131" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -9095,7 +9110,7 @@
       <c r="F13" s="136"/>
       <c r="G13" s="136"/>
       <c r="H13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="137" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -9117,16 +9132,16 @@
     </row>
     <row r="15" spans="1:16" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="415"/>
+      <c r="B15" s="410" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="412"/>
       <c r="J15" s="15"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -9596,8 +9611,8 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -9636,20 +9651,20 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
-      <c r="O2" s="281"/>
-      <c r="P2" s="281"/>
+      <c r="E2" s="247" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
@@ -9659,15 +9674,15 @@
       <c r="D3" s="2"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -9692,9 +9707,9 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
+      <c r="B5" s="250"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -9711,11 +9726,11 @@
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="283" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="B6" s="251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -9731,12 +9746,12 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
+      <c r="A7" s="253"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -9750,20 +9765,20 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.65" customHeight="1">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
+      <c r="A8" s="254"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="286"/>
-      <c r="N8" s="286"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="255"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -9771,104 +9786,104 @@
     <row r="9" spans="1:17" ht="21" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="244" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
+      <c r="C9" s="273" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="273"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="273"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="273"/>
+      <c r="O9" s="273"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="245" t="s">
+      <c r="C10" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="245"/>
-      <c r="H10" s="245"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="245"/>
-      <c r="N10" s="245"/>
-      <c r="O10" s="245"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
+      <c r="M10" s="249"/>
+      <c r="N10" s="249"/>
+      <c r="O10" s="249"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="245" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="245"/>
-      <c r="N11" s="245"/>
-      <c r="O11" s="245"/>
+      <c r="C11" s="249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="249"/>
+      <c r="M11" s="249"/>
+      <c r="N11" s="249"/>
+      <c r="O11" s="249"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="23.5" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="278"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="278"/>
-      <c r="J12" s="278"/>
-      <c r="K12" s="278"/>
-      <c r="L12" s="278"/>
-      <c r="M12" s="278"/>
-      <c r="N12" s="278"/>
-      <c r="O12" s="278"/>
-      <c r="P12" s="278"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="240"/>
+      <c r="N12" s="240"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1">
       <c r="A13" s="31"/>
-      <c r="B13" s="264" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="265"/>
-      <c r="D13" s="265"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="265"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="265"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="265"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="265"/>
-      <c r="O13" s="265"/>
-      <c r="P13" s="266"/>
+      <c r="B13" s="241" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
+      <c r="M13" s="242"/>
+      <c r="N13" s="242"/>
+      <c r="O13" s="242"/>
+      <c r="P13" s="243"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" customHeight="1">
@@ -9876,28 +9891,28 @@
       <c r="B14" s="104"/>
       <c r="C14" s="105"/>
       <c r="D14" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="272" t="e">
+        <v>27</v>
+      </c>
+      <c r="E14" s="244" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="272"/>
-      <c r="G14" s="272"/>
-      <c r="H14" s="272"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
       <c r="I14" s="105"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
       <c r="L14" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="258">
+        <v>28</v>
+      </c>
+      <c r="M14" s="245">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
-      </c>
-      <c r="N14" s="258"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="279"/>
+        <v>44969</v>
+      </c>
+      <c r="N14" s="245"/>
+      <c r="O14" s="245"/>
+      <c r="P14" s="246"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="15.5" customHeight="1">
@@ -9905,28 +9920,28 @@
       <c r="B15" s="102"/>
       <c r="C15" s="103"/>
       <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="261" t="e">
+        <v>29</v>
+      </c>
+      <c r="E15" s="256" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
       <c r="I15" s="103"/>
       <c r="J15" s="103"/>
       <c r="K15" s="73"/>
       <c r="L15" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="273" t="e">
+      <c r="M15" s="257" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N15" s="273"/>
-      <c r="O15" s="273"/>
-      <c r="P15" s="274"/>
+      <c r="N15" s="257"/>
+      <c r="O15" s="257"/>
+      <c r="P15" s="258"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="15.5" customHeight="1">
@@ -9936,26 +9951,26 @@
       <c r="D16" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="268" t="e">
+      <c r="E16" s="259" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
       <c r="I16" s="109"/>
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
       <c r="L16" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="270" t="e">
+        <v>30</v>
+      </c>
+      <c r="M16" s="260" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N16" s="270"/>
-      <c r="O16" s="270"/>
-      <c r="P16" s="271"/>
+      <c r="N16" s="260"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="261"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="23.5" customHeight="1">
@@ -9979,23 +9994,23 @@
     </row>
     <row r="18" spans="1:17" ht="15.5">
       <c r="A18" s="36"/>
-      <c r="B18" s="264" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="265"/>
-      <c r="D18" s="265"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="265"/>
-      <c r="G18" s="265"/>
-      <c r="H18" s="265"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="265"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="265"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="265"/>
-      <c r="O18" s="265"/>
-      <c r="P18" s="266"/>
+      <c r="B18" s="241" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="242"/>
+      <c r="M18" s="242"/>
+      <c r="N18" s="242"/>
+      <c r="O18" s="242"/>
+      <c r="P18" s="243"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="15.5" customHeight="1">
@@ -10003,23 +10018,23 @@
       <c r="B19" s="121"/>
       <c r="C19" s="105"/>
       <c r="D19" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="272" t="e">
+        <v>32</v>
+      </c>
+      <c r="E19" s="244" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
       <c r="I19" s="105"/>
       <c r="J19" s="105"/>
       <c r="K19" s="105"/>
       <c r="L19" s="69"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="272"/>
-      <c r="P19" s="275"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="244"/>
+      <c r="O19" s="244"/>
+      <c r="P19" s="262"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="15.5" customHeight="1">
@@ -10027,28 +10042,28 @@
       <c r="B20" s="122"/>
       <c r="C20" s="103"/>
       <c r="D20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="261" t="e">
+        <v>33</v>
+      </c>
+      <c r="E20" s="256" t="e">
         <f>IF(Report_Lane="","",Report_Lane)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F20" s="261"/>
-      <c r="G20" s="261"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
       <c r="L20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="276" t="e" cm="1">
+        <v>34</v>
+      </c>
+      <c r="M20" s="263" t="e" cm="1">
         <f t="array" ref="M20">IF(Report_Part="","",Report_Part)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N20" s="267"/>
-      <c r="O20" s="267"/>
-      <c r="P20" s="277"/>
+      <c r="N20" s="264"/>
+      <c r="O20" s="264"/>
+      <c r="P20" s="265"/>
       <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" customHeight="1">
@@ -10056,23 +10071,23 @@
       <c r="B21" s="123"/>
       <c r="C21" s="108"/>
       <c r="D21" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="268" t="e">
+        <v>35</v>
+      </c>
+      <c r="E21" s="259" t="e">
         <f>IF(Report_Direction="","",Report_Direction)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F21" s="268"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="268"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
       <c r="I21" s="109"/>
       <c r="J21" s="109"/>
       <c r="K21" s="109"/>
       <c r="L21" s="70"/>
-      <c r="M21" s="270"/>
-      <c r="N21" s="270"/>
-      <c r="O21" s="270"/>
-      <c r="P21" s="271"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="260"/>
+      <c r="O21" s="260"/>
+      <c r="P21" s="261"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="23.5" customHeight="1">
@@ -10096,23 +10111,23 @@
     </row>
     <row r="23" spans="1:17" ht="15.5">
       <c r="A23" s="36"/>
-      <c r="B23" s="264" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="265"/>
-      <c r="I23" s="265"/>
-      <c r="J23" s="265"/>
-      <c r="K23" s="265"/>
-      <c r="L23" s="265"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="265"/>
-      <c r="O23" s="265"/>
-      <c r="P23" s="266"/>
+      <c r="B23" s="241" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="243"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="15.5" customHeight="1">
@@ -10120,28 +10135,28 @@
       <c r="B24" s="104"/>
       <c r="C24" s="105"/>
       <c r="D24" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="272" t="e">
+        <v>23</v>
+      </c>
+      <c r="E24" s="244" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F24" s="272"/>
-      <c r="G24" s="272"/>
-      <c r="H24" s="272"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
       <c r="I24" s="105"/>
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
       <c r="L24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="246" t="e">
+        <v>24</v>
+      </c>
+      <c r="M24" s="274" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="247"/>
+      <c r="N24" s="274"/>
+      <c r="O24" s="274"/>
+      <c r="P24" s="275"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="15.5" customHeight="1">
@@ -10149,28 +10164,28 @@
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
       <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="267" t="e">
+        <v>25</v>
+      </c>
+      <c r="E25" s="264" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F25" s="267"/>
-      <c r="G25" s="267"/>
-      <c r="H25" s="267"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="264"/>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
       <c r="K25" s="106"/>
       <c r="L25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="261" t="e">
+        <v>37</v>
+      </c>
+      <c r="M25" s="256" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="263"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="267"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
@@ -10180,26 +10195,26 @@
       <c r="D26" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="268" t="e">
+      <c r="E26" s="259" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F26" s="269"/>
-      <c r="G26" s="269"/>
-      <c r="H26" s="269"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="268"/>
+      <c r="H26" s="268"/>
       <c r="I26" s="109"/>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
       <c r="L26" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="270" t="e">
+        <v>49</v>
+      </c>
+      <c r="M26" s="260" t="e">
         <f>IF(Report_Temperature="","",Report_Temperature)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N26" s="270"/>
-      <c r="O26" s="270"/>
-      <c r="P26" s="271"/>
+      <c r="N26" s="260"/>
+      <c r="O26" s="260"/>
+      <c r="P26" s="261"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="23.5" customHeight="1">
@@ -10223,23 +10238,23 @@
     </row>
     <row r="28" spans="1:17" ht="15.5" customHeight="1">
       <c r="A28" s="36"/>
-      <c r="B28" s="264" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="265"/>
-      <c r="D28" s="265"/>
-      <c r="E28" s="265"/>
-      <c r="F28" s="265"/>
-      <c r="G28" s="265"/>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265"/>
-      <c r="J28" s="265"/>
-      <c r="K28" s="265"/>
-      <c r="L28" s="265"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="265"/>
-      <c r="O28" s="265"/>
-      <c r="P28" s="266"/>
+      <c r="B28" s="241" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="242"/>
+      <c r="L28" s="242"/>
+      <c r="M28" s="242"/>
+      <c r="N28" s="242"/>
+      <c r="O28" s="242"/>
+      <c r="P28" s="243"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="15.5" customHeight="1">
@@ -10247,28 +10262,28 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="258" t="e">
+        <v>39</v>
+      </c>
+      <c r="E29" s="245" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
       <c r="I29" s="101"/>
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
       <c r="L29" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="259" t="e">
+        <v>40</v>
+      </c>
+      <c r="M29" s="285" t="e">
         <f>IF(Hardware_CertificateStart="","",Hardware_CertificateStart)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N29" s="259"/>
-      <c r="O29" s="259"/>
-      <c r="P29" s="260"/>
+      <c r="N29" s="285"/>
+      <c r="O29" s="285"/>
+      <c r="P29" s="286"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="15.5" customHeight="1">
@@ -10278,21 +10293,21 @@
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="261" t="e" cm="1">
+      <c r="E30" s="256" t="e" cm="1">
         <f t="array" ref="E30">Unit_Modulus_Min &amp;" à " &amp; Unit_Modulus_Max &amp; " MPa"</f>
         <v>#NAME?</v>
       </c>
-      <c r="F30" s="261"/>
-      <c r="G30" s="261"/>
-      <c r="H30" s="262"/>
-      <c r="I30" s="262"/>
-      <c r="J30" s="262"/>
-      <c r="K30" s="262"/>
-      <c r="L30" s="262"/>
-      <c r="M30" s="261"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="263"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="266"/>
+      <c r="K30" s="266"/>
+      <c r="L30" s="266"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
+      <c r="P30" s="267"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" ht="23.5" customHeight="1">
@@ -10316,23 +10331,23 @@
     </row>
     <row r="32" spans="1:17" ht="15.5">
       <c r="A32" s="38"/>
-      <c r="B32" s="264" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="265"/>
-      <c r="D32" s="265"/>
-      <c r="E32" s="265"/>
-      <c r="F32" s="265"/>
-      <c r="G32" s="265"/>
-      <c r="H32" s="265"/>
-      <c r="I32" s="265"/>
-      <c r="J32" s="265"/>
-      <c r="K32" s="265"/>
-      <c r="L32" s="265"/>
-      <c r="M32" s="265"/>
-      <c r="N32" s="265"/>
-      <c r="O32" s="265"/>
-      <c r="P32" s="266"/>
+      <c r="B32" s="241" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="242"/>
+      <c r="N32" s="242"/>
+      <c r="O32" s="242"/>
+      <c r="P32" s="243"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="15.5" customHeight="1">
@@ -10353,7 +10368,7 @@
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
       <c r="L33" s="110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="111" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
@@ -10369,7 +10384,7 @@
       <c r="B34" s="114"/>
       <c r="C34" s="106"/>
       <c r="D34" s="110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="75" t="e">
         <f>COUNTIF(Pi_Modulus, "&gt;" &amp; Thresholds_Modulus_Value)</f>
@@ -10382,7 +10397,7 @@
       <c r="J34" s="115"/>
       <c r="K34" s="115"/>
       <c r="L34" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M34" s="75" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
@@ -10406,7 +10421,7 @@
       <c r="J35" s="115"/>
       <c r="K35" s="115"/>
       <c r="L35" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M35" s="75" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
@@ -10430,7 +10445,7 @@
       <c r="J36" s="108"/>
       <c r="K36" s="74"/>
       <c r="L36" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M36" s="75" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
@@ -10583,59 +10598,59 @@
       <c r="D44" s="64"/>
       <c r="E44" s="63"/>
       <c r="F44" s="63"/>
-      <c r="G44" s="248" t="s">
+      <c r="G44" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="248"/>
-      <c r="I44" s="248"/>
-      <c r="J44" s="248"/>
-      <c r="K44" s="248"/>
+      <c r="H44" s="276"/>
+      <c r="I44" s="276"/>
+      <c r="J44" s="276"/>
+      <c r="K44" s="276"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="249" t="s">
+      <c r="M44" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="N44" s="249"/>
-      <c r="O44" s="249"/>
-      <c r="P44" s="250"/>
+      <c r="N44" s="277"/>
+      <c r="O44" s="277"/>
+      <c r="P44" s="278"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="251" t="e">
+      <c r="B45" s="279" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C45" s="252"/>
-      <c r="D45" s="252"/>
-      <c r="E45" s="252"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="255" t="e">
+      <c r="C45" s="280"/>
+      <c r="D45" s="280"/>
+      <c r="E45" s="280"/>
+      <c r="F45" s="280"/>
+      <c r="G45" s="252" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H45" s="255"/>
-      <c r="I45" s="255"/>
-      <c r="J45" s="255"/>
-      <c r="K45" s="255"/>
+      <c r="H45" s="252"/>
+      <c r="I45" s="252"/>
+      <c r="J45" s="252"/>
+      <c r="K45" s="252"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="256"/>
-      <c r="N45" s="256"/>
-      <c r="O45" s="256"/>
-      <c r="P45" s="257"/>
+      <c r="M45" s="283"/>
+      <c r="N45" s="283"/>
+      <c r="O45" s="283"/>
+      <c r="P45" s="284"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2"/>
-      <c r="B46" s="251"/>
-      <c r="C46" s="252"/>
-      <c r="D46" s="252"/>
-      <c r="E46" s="252"/>
-      <c r="F46" s="252"/>
-      <c r="G46" s="255"/>
-      <c r="H46" s="255"/>
-      <c r="I46" s="255"/>
-      <c r="J46" s="255"/>
-      <c r="K46" s="255"/>
+      <c r="B46" s="279"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="280"/>
+      <c r="E46" s="280"/>
+      <c r="F46" s="280"/>
+      <c r="G46" s="252"/>
+      <c r="H46" s="252"/>
+      <c r="I46" s="252"/>
+      <c r="J46" s="252"/>
+      <c r="K46" s="252"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -10645,11 +10660,11 @@
     </row>
     <row r="47" spans="1:17" ht="5.25" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="253"/>
-      <c r="C47" s="254"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="254"/>
-      <c r="F47" s="254"/>
+      <c r="B47" s="281"/>
+      <c r="C47" s="282"/>
+      <c r="D47" s="282"/>
+      <c r="E47" s="282"/>
+      <c r="F47" s="282"/>
       <c r="G47" s="66"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -10686,22 +10701,22 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="240" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="240"/>
-      <c r="G49" s="240"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="240"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="240"/>
-      <c r="L49" s="240"/>
-      <c r="M49" s="240"/>
+      <c r="E49" s="269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="269"/>
+      <c r="G49" s="269"/>
+      <c r="H49" s="269"/>
+      <c r="I49" s="269"/>
+      <c r="J49" s="269"/>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="269"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="241" t="s">
+      <c r="O49" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="241"/>
+      <c r="P49" s="270"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
@@ -10709,56 +10724,24 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="243" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="243"/>
-      <c r="G50" s="243"/>
-      <c r="H50" s="243"/>
-      <c r="I50" s="243"/>
-      <c r="J50" s="243"/>
-      <c r="K50" s="243"/>
-      <c r="L50" s="243"/>
-      <c r="M50" s="243"/>
+      <c r="E50" s="272" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="272"/>
+      <c r="G50" s="272"/>
+      <c r="H50" s="272"/>
+      <c r="I50" s="272"/>
+      <c r="J50" s="272"/>
+      <c r="K50" s="272"/>
+      <c r="L50" s="272"/>
+      <c r="M50" s="272"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="242"/>
-      <c r="P50" s="242"/>
+      <c r="O50" s="271"/>
+      <c r="P50" s="271"/>
       <c r="Q50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="M25:P25"/>
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O49:P50"/>
     <mergeCell ref="E50:M50"/>
@@ -10775,6 +10758,38 @@
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{22BC0ECF-B0DB-407E-A9DE-C799A88CBDD6}"/>
@@ -10792,7 +10807,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -10807,28 +10822,28 @@
       <c r="A1" s="197"/>
       <c r="B1" s="197"/>
       <c r="C1" s="197"/>
-      <c r="D1" s="297" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
+      <c r="D1" s="288" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
       <c r="J1" s="197"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="197"/>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
-      <c r="D2" s="298" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
+      <c r="D2" s="289" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
       <c r="J2" s="197"/>
       <c r="L2" s="238" t="e" cm="1">
         <f t="array" ref="L2">Thresholds_Modulus_Value</f>
@@ -10846,13 +10861,13 @@
       <c r="E3" s="197"/>
       <c r="F3" s="197"/>
       <c r="G3" s="197" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="299">
+        <v>158</v>
+      </c>
+      <c r="H3" s="290">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
-      </c>
-      <c r="I3" s="300"/>
+        <v>44969</v>
+      </c>
+      <c r="I3" s="291"/>
       <c r="J3" s="197"/>
       <c r="L3" s="238" t="e" cm="1">
         <f t="array" ref="L3">Thresholds_Modulus_Value</f>
@@ -10871,13 +10886,13 @@
       <c r="E4" s="197"/>
       <c r="F4" s="197"/>
       <c r="G4" s="197" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="288" t="e">
+        <v>96</v>
+      </c>
+      <c r="H4" s="292" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="197"/>
     </row>
     <row r="5" spans="1:13">
@@ -10892,44 +10907,44 @@
       <c r="I5" s="197"/>
       <c r="J5" s="197"/>
       <c r="L5" s="238" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M5" s="238" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="199" customFormat="1" ht="23">
       <c r="A6" s="198"/>
-      <c r="B6" s="301" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
+      <c r="B6" s="293" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="293"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="293"/>
+      <c r="I6" s="293"/>
       <c r="J6" s="198"/>
       <c r="L6" s="239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="239" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="199" customFormat="1" ht="20">
       <c r="A7" s="198"/>
-      <c r="B7" s="296" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
+      <c r="B7" s="287" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="287"/>
       <c r="J7" s="198"/>
       <c r="L7" s="239"/>
       <c r="M7" s="239"/>
@@ -10949,7 +10964,7 @@
     <row r="9" spans="1:13">
       <c r="A9" s="197"/>
       <c r="B9" s="200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="197"/>
       <c r="D9" s="197"/>
@@ -10966,125 +10981,125 @@
         <v>0</v>
       </c>
       <c r="C10" s="294"/>
-      <c r="D10" s="289" t="e">
+      <c r="D10" s="295" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="289"/>
+      <c r="E10" s="295"/>
       <c r="F10" s="294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="294"/>
-      <c r="H10" s="289" t="e">
+      <c r="H10" s="295" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="289"/>
+      <c r="I10" s="295"/>
       <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="197"/>
       <c r="B11" s="294" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="294"/>
-      <c r="D11" s="289" t="e">
+      <c r="D11" s="295" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="289"/>
+      <c r="E11" s="295"/>
       <c r="F11" s="294" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="294"/>
-      <c r="H11" s="289" t="e">
+      <c r="H11" s="295" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="289"/>
+      <c r="I11" s="295"/>
       <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="197"/>
       <c r="B12" s="294" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="294"/>
-      <c r="D12" s="289" t="e">
+      <c r="D12" s="295" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="289"/>
+      <c r="E12" s="295"/>
       <c r="F12" s="294" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="294"/>
-      <c r="H12" s="289" t="e">
+      <c r="H12" s="295" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="289"/>
+      <c r="I12" s="295"/>
       <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="197"/>
       <c r="B13" s="294" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="294"/>
-      <c r="D13" s="289" t="e">
+      <c r="D13" s="295" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="289"/>
+      <c r="E13" s="295"/>
       <c r="F13" s="294" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="294"/>
-      <c r="H13" s="289" t="e">
+      <c r="H13" s="295" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="289"/>
+      <c r="I13" s="295"/>
       <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="197"/>
       <c r="B14" s="294" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="294"/>
-      <c r="D14" s="289" t="e">
+      <c r="D14" s="295" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="289"/>
+      <c r="E14" s="295"/>
       <c r="F14" s="294" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="294"/>
-      <c r="H14" s="295" t="e">
+      <c r="H14" s="296" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="295"/>
+      <c r="I14" s="296"/>
       <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="197"/>
       <c r="B15" s="294"/>
       <c r="C15" s="294"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
       <c r="F15" s="294" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="294"/>
-      <c r="H15" s="289" t="e">
+      <c r="H15" s="295" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="289"/>
+      <c r="I15" s="295"/>
       <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:13">
@@ -11102,7 +11117,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="197"/>
       <c r="B17" s="200" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="197"/>
       <c r="D17" s="197"/>
@@ -11356,7 +11371,7 @@
     <row r="38" spans="1:10">
       <c r="A38" s="197"/>
       <c r="B38" s="200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="197"/>
       <c r="D38" s="197"/>
@@ -11369,85 +11384,85 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="197"/>
-      <c r="B39" s="288" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="288"/>
-      <c r="D39" s="289" t="e">
+      <c r="B39" s="292" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="292"/>
+      <c r="D39" s="295" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E39" s="289"/>
-      <c r="F39" s="288" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="288"/>
-      <c r="H39" s="289" t="e">
+      <c r="E39" s="295"/>
+      <c r="F39" s="292" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="292"/>
+      <c r="H39" s="470" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I39" s="289"/>
+      <c r="I39" s="470"/>
       <c r="J39" s="197"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="197"/>
-      <c r="B40" s="288" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="288"/>
-      <c r="D40" s="289" t="e">
+      <c r="B40" s="292" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="292"/>
+      <c r="D40" s="295" t="e">
         <f>IF(Thresholds_Modulus_Name="","",Thresholds_Modulus_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E40" s="289"/>
-      <c r="F40" s="288" t="s">
+      <c r="E40" s="295"/>
+      <c r="F40" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="288"/>
-      <c r="H40" s="289" t="e">
+      <c r="G40" s="292"/>
+      <c r="H40" s="295" t="e">
         <f>MAX(Pi_Number)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I40" s="289"/>
+      <c r="I40" s="295"/>
       <c r="J40" s="197"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="197"/>
-      <c r="B41" s="288" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="288"/>
-      <c r="D41" s="289" t="e">
+      <c r="B41" s="292" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="292"/>
+      <c r="D41" s="295" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E41" s="289"/>
-      <c r="F41" s="288" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="288"/>
-      <c r="H41" s="289" t="e" cm="1">
+      <c r="E41" s="295"/>
+      <c r="F41" s="292" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="292"/>
+      <c r="H41" s="295" t="e" cm="1">
         <f t="array" ref="H41">COUNTIF(Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I41" s="289"/>
+      <c r="I41" s="295"/>
       <c r="J41" s="197"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="197"/>
-      <c r="B42" s="288"/>
-      <c r="C42" s="288"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="289"/>
-      <c r="F42" s="288" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="288"/>
-      <c r="H42" s="290" t="e">
+      <c r="B42" s="292"/>
+      <c r="C42" s="292"/>
+      <c r="D42" s="295"/>
+      <c r="E42" s="295"/>
+      <c r="F42" s="292" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="292"/>
+      <c r="H42" s="298" t="e">
         <f>H41/H40</f>
         <v>#NAME?</v>
       </c>
-      <c r="I42" s="290"/>
+      <c r="I42" s="298"/>
       <c r="J42" s="197"/>
     </row>
     <row r="43" spans="1:10">
@@ -11477,13 +11492,13 @@
     <row r="45" spans="1:10" ht="15.5">
       <c r="A45" s="197"/>
       <c r="B45" s="200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="197"/>
       <c r="D45" s="197"/>
       <c r="E45" s="197"/>
       <c r="F45" s="201" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="197"/>
       <c r="H45" s="197"/>
@@ -11492,48 +11507,48 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="197"/>
-      <c r="B46" s="291" t="e">
+      <c r="B46" s="299" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="299"/>
       <c r="E46" s="197"/>
-      <c r="F46" s="292" t="s">
+      <c r="F46" s="300" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="300"/>
+      <c r="H46" s="300" t="s">
         <v>118</v>
       </c>
-      <c r="G46" s="292"/>
-      <c r="H46" s="292" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="292"/>
+      <c r="I46" s="300"/>
       <c r="J46" s="197"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="197"/>
-      <c r="B47" s="291"/>
-      <c r="C47" s="291"/>
-      <c r="D47" s="291"/>
+      <c r="B47" s="299"/>
+      <c r="C47" s="299"/>
+      <c r="D47" s="299"/>
       <c r="E47" s="197"/>
-      <c r="F47" s="293" t="e">
+      <c r="F47" s="301" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G47" s="293"/>
-      <c r="H47" s="292"/>
-      <c r="I47" s="292"/>
+      <c r="G47" s="301"/>
+      <c r="H47" s="300"/>
+      <c r="I47" s="300"/>
       <c r="J47" s="197"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="197"/>
-      <c r="B48" s="291"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="291"/>
+      <c r="B48" s="299"/>
+      <c r="C48" s="299"/>
+      <c r="D48" s="299"/>
       <c r="E48" s="197"/>
-      <c r="F48" s="293"/>
-      <c r="G48" s="293"/>
-      <c r="H48" s="292"/>
-      <c r="I48" s="292"/>
+      <c r="F48" s="301"/>
+      <c r="G48" s="301"/>
+      <c r="H48" s="300"/>
+      <c r="I48" s="300"/>
       <c r="J48" s="197"/>
     </row>
     <row r="49" spans="1:10">
@@ -11563,23 +11578,23 @@
     <row r="51" spans="1:10">
       <c r="A51" s="197"/>
       <c r="B51" s="202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="197"/>
       <c r="D51" s="197"/>
       <c r="E51" s="197"/>
       <c r="F51" s="197"/>
       <c r="G51" s="197"/>
-      <c r="H51" s="287" t="s">
+      <c r="H51" s="297" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="287"/>
+      <c r="I51" s="297"/>
       <c r="J51" s="197"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="197"/>
       <c r="B52" s="203" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="197"/>
       <c r="D52" s="197"/>
@@ -11604,44 +11619,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
@@ -11656,6 +11633,44 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="F47:G48"/>
     <mergeCell ref="H47:I48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11672,7 +11687,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -11703,12 +11718,12 @@
       <c r="A2" s="2"/>
       <c r="B2" s="205"/>
       <c r="C2" s="206"/>
-      <c r="D2" s="369" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
+      <c r="D2" s="305" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
       <c r="H2" s="206"/>
       <c r="I2" s="207"/>
       <c r="J2" s="2"/>
@@ -11717,12 +11732,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="208"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="370" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
+      <c r="D3" s="306" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
       <c r="H3" s="2"/>
       <c r="I3" s="209"/>
       <c r="J3" s="2"/>
@@ -11731,12 +11746,12 @@
       <c r="A4" s="2"/>
       <c r="B4" s="208"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="370" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
+      <c r="D4" s="306" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
       <c r="H4" s="2"/>
       <c r="I4" s="209"/>
       <c r="J4" s="2"/>
@@ -11745,12 +11760,12 @@
       <c r="A5" s="2"/>
       <c r="B5" s="208"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="370" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
+      <c r="D5" s="306" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
       <c r="H5" s="2"/>
       <c r="I5" s="209"/>
       <c r="J5" s="2"/>
@@ -11769,44 +11784,44 @@
     </row>
     <row r="7" spans="1:16" ht="52" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="371" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="372"/>
-      <c r="I7" s="373"/>
+      <c r="B7" s="307" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="308"/>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="29.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="366" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
-      <c r="G8" s="367"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="368"/>
+      <c r="B8" s="302" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="304"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1" thickBot="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="351" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="352"/>
-      <c r="D9" s="352"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="352"/>
-      <c r="G9" s="352"/>
-      <c r="H9" s="352"/>
-      <c r="I9" s="353"/>
+      <c r="B9" s="326" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="327"/>
+      <c r="D9" s="327"/>
+      <c r="E9" s="327"/>
+      <c r="F9" s="327"/>
+      <c r="G9" s="327"/>
+      <c r="H9" s="327"/>
+      <c r="I9" s="328"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
@@ -11825,11 +11840,11 @@
     <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="302" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
+      <c r="C11" s="329" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -11840,9 +11855,9 @@
     <row r="12" spans="1:16" ht="14.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="205"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
       <c r="F12" s="211"/>
       <c r="G12" s="212"/>
       <c r="H12" s="206"/>
@@ -11852,70 +11867,70 @@
     </row>
     <row r="13" spans="1:16" ht="25" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="354" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="355"/>
-      <c r="D13" s="356" t="e">
+      <c r="B13" s="330" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="331"/>
+      <c r="D13" s="332" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="357"/>
-      <c r="F13" s="326" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="327"/>
-      <c r="H13" s="324" t="e">
+      <c r="E13" s="333"/>
+      <c r="F13" s="334" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="335"/>
+      <c r="H13" s="336" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="350"/>
+      <c r="I13" s="337"/>
       <c r="J13" s="2"/>
       <c r="M13" s="210"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="358" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="359"/>
-      <c r="D14" s="360" t="e">
+      <c r="B14" s="310" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="311"/>
+      <c r="D14" s="312" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="361"/>
-      <c r="F14" s="334" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="335"/>
-      <c r="H14" s="332" t="e">
+      <c r="E14" s="313"/>
+      <c r="F14" s="314" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="315"/>
+      <c r="H14" s="316" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="349"/>
+      <c r="I14" s="317"/>
       <c r="J14" s="2"/>
       <c r="M14" s="210"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="362" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="363"/>
-      <c r="D15" s="364" t="e">
+      <c r="B15" s="318" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="319"/>
+      <c r="D15" s="320" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E15" s="365"/>
-      <c r="F15" s="342" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="343"/>
-      <c r="H15" s="346" t="e">
+      <c r="E15" s="321"/>
+      <c r="F15" s="322" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="323"/>
+      <c r="H15" s="324" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="348"/>
+      <c r="I15" s="325"/>
       <c r="J15" s="2"/>
       <c r="M15" s="210"/>
     </row>
@@ -11937,11 +11952,11 @@
     <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="302" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
+      <c r="C17" s="329" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="329"/>
+      <c r="E17" s="329"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -11954,9 +11969,9 @@
     <row r="18" spans="1:16" ht="14.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="205"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
+      <c r="C18" s="329"/>
+      <c r="D18" s="329"/>
+      <c r="E18" s="329"/>
       <c r="F18" s="211"/>
       <c r="G18" s="212"/>
       <c r="H18" s="206"/>
@@ -11968,63 +11983,63 @@
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="322" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="323"/>
-      <c r="D19" s="324" t="e">
+      <c r="B19" s="344" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="345"/>
+      <c r="D19" s="336" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="325"/>
-      <c r="F19" s="326" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="327"/>
-      <c r="H19" s="324" t="e">
+      <c r="E19" s="346"/>
+      <c r="F19" s="334" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="335"/>
+      <c r="H19" s="336" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="350"/>
+      <c r="I19" s="337"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="330" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="331"/>
-      <c r="D20" s="332" t="e">
+      <c r="B20" s="341" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="342"/>
+      <c r="D20" s="316" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E20" s="333"/>
-      <c r="F20" s="334" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="335"/>
-      <c r="H20" s="332" t="e">
+      <c r="E20" s="343"/>
+      <c r="F20" s="314" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="315"/>
+      <c r="H20" s="316" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="349"/>
+      <c r="I20" s="317"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="338" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="339"/>
-      <c r="D21" s="346" t="e">
+      <c r="D21" s="324" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="347"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="346"/>
-      <c r="I21" s="348"/>
+      <c r="E21" s="340"/>
+      <c r="F21" s="322"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="324"/>
+      <c r="I21" s="325"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="30.5" customHeight="1">
@@ -12042,11 +12057,11 @@
     <row r="23" spans="1:16" ht="15.65" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="302" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="302"/>
-      <c r="E23" s="302"/>
+      <c r="C23" s="329" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="329"/>
+      <c r="E23" s="329"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -12056,9 +12071,9 @@
     <row r="24" spans="1:16" ht="15.65" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="205"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="302"/>
-      <c r="E24" s="302"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="329"/>
       <c r="F24" s="211"/>
       <c r="G24" s="212"/>
       <c r="H24" s="206"/>
@@ -12067,24 +12082,24 @@
     </row>
     <row r="25" spans="1:16" ht="25" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="322" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="323"/>
-      <c r="D25" s="324" t="e">
+      <c r="B25" s="344" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="345"/>
+      <c r="D25" s="336" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="325"/>
-      <c r="F25" s="326" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="327"/>
-      <c r="H25" s="328" t="e">
+      <c r="E25" s="346"/>
+      <c r="F25" s="334" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="335"/>
+      <c r="H25" s="353" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I25" s="329" t="e">
+      <c r="I25" s="354" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12092,24 +12107,24 @@
     </row>
     <row r="26" spans="1:16" ht="25" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="330" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="331"/>
-      <c r="D26" s="332" t="e">
+      <c r="B26" s="341" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="342"/>
+      <c r="D26" s="316" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="333"/>
-      <c r="F26" s="334" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="335"/>
-      <c r="H26" s="336" t="e">
+      <c r="E26" s="343"/>
+      <c r="F26" s="314" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="315"/>
+      <c r="H26" s="347" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I26" s="337" t="e">
+      <c r="I26" s="348" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12119,17 +12134,17 @@
       <c r="A27" s="2"/>
       <c r="B27" s="338"/>
       <c r="C27" s="339"/>
-      <c r="D27" s="340"/>
-      <c r="E27" s="341"/>
-      <c r="F27" s="342" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="343"/>
-      <c r="H27" s="344" t="e">
+      <c r="D27" s="349"/>
+      <c r="E27" s="350"/>
+      <c r="F27" s="322" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="323"/>
+      <c r="H27" s="351" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I27" s="345" t="e">
+      <c r="I27" s="352" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12150,11 +12165,11 @@
     <row r="29" spans="1:16" ht="14.5" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="302" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="302"/>
-      <c r="E29" s="302"/>
+      <c r="C29" s="329" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="329"/>
+      <c r="E29" s="329"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -12164,9 +12179,9 @@
     <row r="30" spans="1:16">
       <c r="A30" s="2"/>
       <c r="B30" s="205"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="302"/>
-      <c r="E30" s="302"/>
+      <c r="C30" s="329"/>
+      <c r="D30" s="329"/>
+      <c r="E30" s="329"/>
       <c r="F30" s="206"/>
       <c r="G30" s="206"/>
       <c r="H30" s="206"/>
@@ -12175,53 +12190,53 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="317" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="318"/>
-      <c r="D31" s="318"/>
-      <c r="E31" s="318"/>
-      <c r="F31" s="319" t="s">
+      <c r="B31" s="369" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="370"/>
+      <c r="D31" s="370"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="371"/>
+      <c r="H31" s="372" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="319"/>
-      <c r="H31" s="320" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="321"/>
+      <c r="I31" s="373"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="35.5" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="303" t="e">
+      <c r="B32" s="355" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C32" s="304"/>
-      <c r="D32" s="304"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="309" t="e">
+      <c r="C32" s="356"/>
+      <c r="D32" s="356"/>
+      <c r="E32" s="357"/>
+      <c r="F32" s="361" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G32" s="310"/>
-      <c r="H32" s="311" t="e">
+      <c r="G32" s="362"/>
+      <c r="H32" s="363" t="e">
         <f>IF(Project_Comment="","",Project_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I32" s="312"/>
+      <c r="I32" s="364"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="306"/>
-      <c r="C33" s="307"/>
-      <c r="D33" s="307"/>
-      <c r="E33" s="308"/>
-      <c r="F33" s="313"/>
-      <c r="G33" s="314"/>
-      <c r="H33" s="315"/>
-      <c r="I33" s="316"/>
+      <c r="B33" s="358"/>
+      <c r="C33" s="359"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="366"/>
+      <c r="H33" s="367"/>
+      <c r="I33" s="368"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
@@ -12271,31 +12286,33 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -12309,28 +12326,26 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12379,13 +12394,13 @@
       <c r="D2" s="217"/>
       <c r="E2" s="217"/>
       <c r="F2" s="218"/>
-      <c r="G2" s="388" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="389"/>
-      <c r="I2" s="389"/>
-      <c r="J2" s="389"/>
-      <c r="K2" s="390"/>
+      <c r="G2" s="382" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="383"/>
+      <c r="I2" s="383"/>
+      <c r="J2" s="383"/>
+      <c r="K2" s="384"/>
       <c r="L2" s="216"/>
       <c r="M2" s="217"/>
       <c r="N2" s="217"/>
@@ -12400,19 +12415,19 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="220"/>
-      <c r="G3" s="391" t="e">
+      <c r="G3" s="385" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H3" s="392"/>
-      <c r="I3" s="392"/>
-      <c r="J3" s="392"/>
-      <c r="K3" s="393"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="380"/>
-      <c r="N3" s="380"/>
-      <c r="O3" s="380"/>
-      <c r="P3" s="395"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="386"/>
+      <c r="K3" s="387"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="390"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1">
@@ -12422,19 +12437,19 @@
       <c r="D4" s="222"/>
       <c r="E4" s="222"/>
       <c r="F4" s="223"/>
-      <c r="G4" s="396" t="e">
+      <c r="G4" s="391" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H4" s="397"/>
-      <c r="I4" s="397"/>
-      <c r="J4" s="397"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="400"/>
-      <c r="N4" s="400"/>
-      <c r="O4" s="400"/>
-      <c r="P4" s="401"/>
+      <c r="H4" s="392"/>
+      <c r="I4" s="392"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="393"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="395"/>
+      <c r="N4" s="395"/>
+      <c r="O4" s="395"/>
+      <c r="P4" s="396"/>
       <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickTop="1">
@@ -12459,7 +12474,7 @@
     <row r="6" spans="1:17" ht="15">
       <c r="A6" s="11"/>
       <c r="B6" s="224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -12468,24 +12483,24 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="387" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="387"/>
-      <c r="L6" s="374" t="e">
+      <c r="J6" s="380" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="380"/>
+      <c r="L6" s="381" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M6" s="374"/>
-      <c r="N6" s="374"/>
-      <c r="O6" s="374"/>
-      <c r="P6" s="374"/>
+      <c r="M6" s="381"/>
+      <c r="N6" s="381"/>
+      <c r="O6" s="381"/>
+      <c r="P6" s="381"/>
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="11"/>
       <c r="B7" s="224" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -12494,24 +12509,24 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="402" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="402"/>
-      <c r="L7" s="374" t="e">
+      <c r="J7" s="397" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="397"/>
+      <c r="L7" s="381" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="374"/>
-      <c r="N7" s="374"/>
-      <c r="O7" s="374"/>
-      <c r="P7" s="374"/>
+      <c r="M7" s="381"/>
+      <c r="N7" s="381"/>
+      <c r="O7" s="381"/>
+      <c r="P7" s="381"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="11"/>
       <c r="B8" s="225" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -12520,24 +12535,24 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="402" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="402"/>
-      <c r="L8" s="374" t="e">
+      <c r="J8" s="397" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="397"/>
+      <c r="L8" s="381" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="374"/>
-      <c r="N8" s="374"/>
-      <c r="O8" s="374"/>
-      <c r="P8" s="374"/>
+      <c r="M8" s="381"/>
+      <c r="N8" s="381"/>
+      <c r="O8" s="381"/>
+      <c r="P8" s="381"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="11"/>
       <c r="B9" s="225" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -12546,19 +12561,19 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="374"/>
-      <c r="L9" s="374"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
-      <c r="O9" s="374"/>
-      <c r="P9" s="374"/>
+      <c r="J9" s="381"/>
+      <c r="K9" s="381"/>
+      <c r="L9" s="381"/>
+      <c r="M9" s="381"/>
+      <c r="N9" s="381"/>
+      <c r="O9" s="381"/>
+      <c r="P9" s="381"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="11"/>
       <c r="B10" s="225" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -12567,15 +12582,15 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="402" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="402"/>
-      <c r="L10" s="374"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="374"/>
-      <c r="P10" s="374"/>
+      <c r="J10" s="397" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="397"/>
+      <c r="L10" s="381"/>
+      <c r="M10" s="381"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="381"/>
+      <c r="P10" s="381"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17">
@@ -12588,19 +12603,19 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="374"/>
-      <c r="L11" s="374"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="374"/>
+      <c r="J11" s="381"/>
+      <c r="K11" s="381"/>
+      <c r="L11" s="381"/>
+      <c r="M11" s="381"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="381"/>
+      <c r="P11" s="381"/>
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="11"/>
       <c r="B12" s="224" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -12609,19 +12624,19 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="374"/>
-      <c r="L12" s="374"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
-      <c r="O12" s="374"/>
-      <c r="P12" s="374"/>
+      <c r="J12" s="381"/>
+      <c r="K12" s="381"/>
+      <c r="L12" s="381"/>
+      <c r="M12" s="381"/>
+      <c r="N12" s="381"/>
+      <c r="O12" s="381"/>
+      <c r="P12" s="381"/>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="11"/>
       <c r="B13" s="224" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -12630,13 +12645,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="374"/>
-      <c r="L13" s="374"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
-      <c r="O13" s="374"/>
-      <c r="P13" s="374"/>
+      <c r="J13" s="381"/>
+      <c r="K13" s="381"/>
+      <c r="L13" s="381"/>
+      <c r="M13" s="381"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="381"/>
+      <c r="P13" s="381"/>
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17">
@@ -12668,40 +12683,40 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="374" t="str">
+      <c r="J15" s="381" t="str">
         <f ca="1">"Le "&amp;TEXT(TODAY(),"JJ MMMM AAAA")</f>
-        <v>Le 12 janvier 2023</v>
-      </c>
-      <c r="K15" s="374"/>
-      <c r="L15" s="374"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
+        <v>Le 12 février 2023</v>
+      </c>
+      <c r="K15" s="381"/>
+      <c r="L15" s="381"/>
+      <c r="M15" s="381"/>
+      <c r="N15" s="381"/>
+      <c r="O15" s="381"/>
+      <c r="P15" s="381"/>
       <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" thickTop="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="378" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="379" t="e" cm="1">
+      <c r="B16" s="401" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="401"/>
+      <c r="D16" s="401"/>
+      <c r="E16" s="401"/>
+      <c r="F16" s="402" t="e" cm="1">
         <f t="array" ref="F16">IF(_xlfn.SINGLE(Project_Name)="","",_xlfn.SINGLE(Project_Name) &amp; " - " &amp;Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="379"/>
-      <c r="J16" s="379"/>
-      <c r="K16" s="379"/>
-      <c r="L16" s="379"/>
-      <c r="M16" s="379"/>
-      <c r="N16" s="379"/>
-      <c r="O16" s="379"/>
-      <c r="P16" s="379"/>
+      <c r="G16" s="402"/>
+      <c r="H16" s="402"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="402"/>
+      <c r="M16" s="402"/>
+      <c r="N16" s="402"/>
+      <c r="O16" s="402"/>
+      <c r="P16" s="402"/>
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" s="229" customFormat="1" ht="19.5" customHeight="1">
@@ -12709,7 +12724,7 @@
       <c r="B17" s="227"/>
       <c r="C17" s="227"/>
       <c r="D17" s="228" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="226"/>
       <c r="F17" s="226"/>
@@ -12747,22 +12762,22 @@
     <row r="19" spans="1:17" ht="33" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="231" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="231"/>
       <c r="D19" s="231"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="380"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="380"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="380"/>
-      <c r="N19" s="380"/>
-      <c r="O19" s="380"/>
-      <c r="P19" s="380"/>
+      <c r="F19" s="389"/>
+      <c r="G19" s="389"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="389"/>
+      <c r="L19" s="389"/>
+      <c r="M19" s="389"/>
+      <c r="N19" s="389"/>
+      <c r="O19" s="389"/>
+      <c r="P19" s="389"/>
       <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17">
@@ -12786,45 +12801,45 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="11"/>
-      <c r="B21" s="374" t="e" cm="1">
+      <c r="B21" s="381" t="e" cm="1">
         <f t="array" ref="B21">"Suite à votre demande, nous sommes intervenus le " &amp; IF(LEN(DAY(_xlfn.SINGLE(Report_Date))) = 1, "0" &amp; DAY(Report_Date),DAY(Report_Date)) &amp; "/" &amp; IF(LEN(MONTH(Report_Date)) = 1, "0" &amp; MONTH(Report_Date),MONTH(Report_Date))  &amp; "/" &amp; YEAR(Report_Date)&amp;" sur le chantier cité en objet."</f>
         <v>#NAME?</v>
       </c>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="374"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="374"/>
-      <c r="M21" s="374"/>
-      <c r="N21" s="374"/>
-      <c r="O21" s="374"/>
-      <c r="P21" s="374"/>
+      <c r="C21" s="381"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="381"/>
+      <c r="I21" s="381"/>
+      <c r="J21" s="381"/>
+      <c r="K21" s="381"/>
+      <c r="L21" s="381"/>
+      <c r="M21" s="381"/>
+      <c r="N21" s="381"/>
+      <c r="O21" s="381"/>
+      <c r="P21" s="381"/>
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="11"/>
-      <c r="B22" s="374" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="374"/>
-      <c r="K22" s="374"/>
-      <c r="L22" s="374"/>
-      <c r="M22" s="374"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
+      <c r="B22" s="381" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="381"/>
+      <c r="D22" s="381"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="381"/>
+      <c r="G22" s="381"/>
+      <c r="H22" s="381"/>
+      <c r="I22" s="381"/>
+      <c r="J22" s="381"/>
+      <c r="K22" s="381"/>
+      <c r="L22" s="381"/>
+      <c r="M22" s="381"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="381"/>
+      <c r="P22" s="381"/>
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="15" thickBot="1">
@@ -12848,102 +12863,102 @@
     </row>
     <row r="24" spans="1:17" ht="33" customHeight="1" thickTop="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="375" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="376"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="376"/>
-      <c r="I24" s="376"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="376"/>
-      <c r="L24" s="376"/>
-      <c r="M24" s="376"/>
-      <c r="N24" s="376"/>
-      <c r="O24" s="376"/>
-      <c r="P24" s="377"/>
+      <c r="B24" s="398" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="399"/>
+      <c r="D24" s="399"/>
+      <c r="E24" s="399"/>
+      <c r="F24" s="399"/>
+      <c r="G24" s="399"/>
+      <c r="H24" s="399"/>
+      <c r="I24" s="399"/>
+      <c r="J24" s="399"/>
+      <c r="K24" s="399"/>
+      <c r="L24" s="399"/>
+      <c r="M24" s="399"/>
+      <c r="N24" s="399"/>
+      <c r="O24" s="399"/>
+      <c r="P24" s="400"/>
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="11"/>
-      <c r="B25" s="381" t="e">
+      <c r="B25" s="374" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C25" s="382"/>
-      <c r="D25" s="382"/>
-      <c r="E25" s="382"/>
-      <c r="F25" s="382"/>
-      <c r="G25" s="382"/>
-      <c r="H25" s="382"/>
-      <c r="I25" s="382"/>
-      <c r="J25" s="382"/>
-      <c r="K25" s="382"/>
-      <c r="L25" s="382"/>
-      <c r="M25" s="382"/>
-      <c r="N25" s="382"/>
-      <c r="O25" s="382"/>
-      <c r="P25" s="383"/>
+      <c r="C25" s="375"/>
+      <c r="D25" s="375"/>
+      <c r="E25" s="375"/>
+      <c r="F25" s="375"/>
+      <c r="G25" s="375"/>
+      <c r="H25" s="375"/>
+      <c r="I25" s="375"/>
+      <c r="J25" s="375"/>
+      <c r="K25" s="375"/>
+      <c r="L25" s="375"/>
+      <c r="M25" s="375"/>
+      <c r="N25" s="375"/>
+      <c r="O25" s="375"/>
+      <c r="P25" s="376"/>
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="11"/>
-      <c r="B26" s="384"/>
-      <c r="C26" s="385"/>
-      <c r="D26" s="385"/>
-      <c r="E26" s="385"/>
-      <c r="F26" s="385"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="385"/>
-      <c r="I26" s="385"/>
-      <c r="J26" s="385"/>
-      <c r="K26" s="385"/>
-      <c r="L26" s="385"/>
-      <c r="M26" s="385"/>
-      <c r="N26" s="385"/>
-      <c r="O26" s="385"/>
-      <c r="P26" s="386"/>
+      <c r="B26" s="377"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="378"/>
+      <c r="F26" s="378"/>
+      <c r="G26" s="378"/>
+      <c r="H26" s="378"/>
+      <c r="I26" s="378"/>
+      <c r="J26" s="378"/>
+      <c r="K26" s="378"/>
+      <c r="L26" s="378"/>
+      <c r="M26" s="378"/>
+      <c r="N26" s="378"/>
+      <c r="O26" s="378"/>
+      <c r="P26" s="379"/>
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="11"/>
-      <c r="B27" s="384"/>
-      <c r="C27" s="385"/>
-      <c r="D27" s="385"/>
-      <c r="E27" s="385"/>
-      <c r="F27" s="385"/>
-      <c r="G27" s="385"/>
-      <c r="H27" s="385"/>
-      <c r="I27" s="385"/>
-      <c r="J27" s="385"/>
-      <c r="K27" s="385"/>
-      <c r="L27" s="385"/>
-      <c r="M27" s="385"/>
-      <c r="N27" s="385"/>
-      <c r="O27" s="385"/>
-      <c r="P27" s="386"/>
+      <c r="B27" s="377"/>
+      <c r="C27" s="378"/>
+      <c r="D27" s="378"/>
+      <c r="E27" s="378"/>
+      <c r="F27" s="378"/>
+      <c r="G27" s="378"/>
+      <c r="H27" s="378"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="378"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="379"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="11"/>
-      <c r="B28" s="384"/>
-      <c r="C28" s="385"/>
-      <c r="D28" s="385"/>
-      <c r="E28" s="385"/>
-      <c r="F28" s="385"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="385"/>
-      <c r="J28" s="385"/>
-      <c r="K28" s="385"/>
-      <c r="L28" s="385"/>
-      <c r="M28" s="385"/>
-      <c r="N28" s="385"/>
-      <c r="O28" s="385"/>
-      <c r="P28" s="386"/>
+      <c r="B28" s="377"/>
+      <c r="C28" s="378"/>
+      <c r="D28" s="378"/>
+      <c r="E28" s="378"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="378"/>
+      <c r="I28" s="378"/>
+      <c r="J28" s="378"/>
+      <c r="K28" s="378"/>
+      <c r="L28" s="378"/>
+      <c r="M28" s="378"/>
+      <c r="N28" s="378"/>
+      <c r="O28" s="378"/>
+      <c r="P28" s="379"/>
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17">
@@ -13234,7 +13249,7 @@
     <row r="44" spans="1:17">
       <c r="A44" s="11"/>
       <c r="B44" s="237" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -13330,6 +13345,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:P16"/>
+    <mergeCell ref="F19:P19"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="B21:P21"/>
     <mergeCell ref="B25:P28"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:P6"/>
@@ -13346,19 +13374,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:P10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:P16"/>
-    <mergeCell ref="F19:P19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -13373,7 +13388,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -13406,15 +13421,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
+      <c r="D2" s="247" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -13447,51 +13462,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="245" t="s">
+      <c r="A6" s="409"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="245" t="s">
+      <c r="A7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="409"/>
+      <c r="B8" s="409"/>
+      <c r="C8" s="409"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13502,9 +13517,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="409"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13516,39 +13531,39 @@
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="411"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="412"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="272" t="e">
+        <v>27</v>
+      </c>
+      <c r="D11" s="244" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44969</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -13556,15 +13571,15 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="261" t="e">
+        <v>29</v>
+      </c>
+      <c r="D12" s="256" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="261"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
         <v>1</v>
@@ -13581,16 +13596,16 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="268" t="e">
+      <c r="D13" s="259" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="118" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -13613,17 +13628,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="412"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -13657,42 +13672,42 @@
         <v>8</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="407" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="408"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="413" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="414"/>
+      <c r="J17" s="415"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="89" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="91" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="410"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="412"/>
+      <c r="H18" s="416"/>
+      <c r="I18" s="417"/>
+      <c r="J18" s="418"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -13706,9 +13721,9 @@
         <f t="array" ref="G19">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H19" s="404"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="404"/>
+      <c r="J19" s="405"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -13722,9 +13737,9 @@
         <f t="array" ref="G20">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H20" s="404"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="404"/>
+      <c r="J20" s="405"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -13738,9 +13753,9 @@
         <f t="array" ref="G21">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H21" s="404"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -13754,9 +13769,9 @@
         <f t="array" ref="G22">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H22" s="404"/>
-      <c r="I22" s="405"/>
-      <c r="J22" s="406"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="404"/>
+      <c r="J22" s="405"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -13770,9 +13785,9 @@
         <f t="array" ref="G23">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H23" s="404"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="406"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="404"/>
+      <c r="J23" s="405"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -13786,9 +13801,9 @@
         <f t="array" ref="G24">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H24" s="404"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="406"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="404"/>
+      <c r="J24" s="405"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -13802,9 +13817,9 @@
         <f t="array" ref="G25">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H25" s="404"/>
-      <c r="I25" s="405"/>
-      <c r="J25" s="406"/>
+      <c r="H25" s="403"/>
+      <c r="I25" s="404"/>
+      <c r="J25" s="405"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -13818,9 +13833,9 @@
         <f t="array" ref="G26">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H26" s="404"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="406"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="404"/>
+      <c r="J26" s="405"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -13834,9 +13849,9 @@
         <f t="array" ref="G27">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H27" s="404"/>
-      <c r="I27" s="405"/>
-      <c r="J27" s="406"/>
+      <c r="H27" s="403"/>
+      <c r="I27" s="404"/>
+      <c r="J27" s="405"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -13850,9 +13865,9 @@
         <f t="array" ref="G28">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H28" s="404"/>
-      <c r="I28" s="405"/>
-      <c r="J28" s="406"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="404"/>
+      <c r="J28" s="405"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -13866,9 +13881,9 @@
         <f t="array" ref="G29">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H29" s="404"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="406"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="404"/>
+      <c r="J29" s="405"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -13882,9 +13897,9 @@
         <f t="array" ref="G30">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H30" s="404"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
+      <c r="H30" s="403"/>
+      <c r="I30" s="404"/>
+      <c r="J30" s="405"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -13898,9 +13913,9 @@
         <f t="array" ref="G31">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H31" s="404"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="406"/>
+      <c r="H31" s="403"/>
+      <c r="I31" s="404"/>
+      <c r="J31" s="405"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -13914,9 +13929,9 @@
         <f t="array" ref="G32">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H32" s="404"/>
-      <c r="I32" s="405"/>
-      <c r="J32" s="406"/>
+      <c r="H32" s="403"/>
+      <c r="I32" s="404"/>
+      <c r="J32" s="405"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -13930,9 +13945,9 @@
         <f t="array" ref="G33">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H33" s="404"/>
-      <c r="I33" s="405"/>
-      <c r="J33" s="406"/>
+      <c r="H33" s="403"/>
+      <c r="I33" s="404"/>
+      <c r="J33" s="405"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -13946,9 +13961,9 @@
         <f t="array" ref="G34">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H34" s="404"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="406"/>
+      <c r="H34" s="403"/>
+      <c r="I34" s="404"/>
+      <c r="J34" s="405"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -13962,9 +13977,9 @@
         <f t="array" ref="G35">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H35" s="404"/>
-      <c r="I35" s="405"/>
-      <c r="J35" s="406"/>
+      <c r="H35" s="403"/>
+      <c r="I35" s="404"/>
+      <c r="J35" s="405"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -13994,9 +14009,9 @@
         <f t="array" ref="G37">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H37" s="404"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="406"/>
+      <c r="H37" s="403"/>
+      <c r="I37" s="404"/>
+      <c r="J37" s="405"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -14010,9 +14025,9 @@
         <f t="array" ref="G38">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H38" s="404"/>
-      <c r="I38" s="405"/>
-      <c r="J38" s="406"/>
+      <c r="H38" s="403"/>
+      <c r="I38" s="404"/>
+      <c r="J38" s="405"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -14026,9 +14041,9 @@
         <f t="array" ref="G39">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H39" s="404"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="406"/>
+      <c r="H39" s="403"/>
+      <c r="I39" s="404"/>
+      <c r="J39" s="405"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -14042,9 +14057,9 @@
         <f t="array" ref="G40">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="406"/>
+      <c r="H40" s="403"/>
+      <c r="I40" s="404"/>
+      <c r="J40" s="405"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -14058,9 +14073,9 @@
         <f t="array" ref="G41">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="406"/>
+      <c r="H41" s="403"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="405"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -14074,9 +14089,9 @@
         <f t="array" ref="G42">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="406"/>
+      <c r="H42" s="403"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -14090,9 +14105,9 @@
         <f t="array" ref="G43">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H43" s="404"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="406"/>
+      <c r="H43" s="403"/>
+      <c r="I43" s="404"/>
+      <c r="J43" s="405"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -14106,9 +14121,9 @@
         <f t="array" ref="G44">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H44" s="404"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="406"/>
+      <c r="H44" s="403"/>
+      <c r="I44" s="404"/>
+      <c r="J44" s="405"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -14122,9 +14137,9 @@
         <f t="array" ref="G45">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H45" s="404"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="406"/>
+      <c r="H45" s="403"/>
+      <c r="I45" s="404"/>
+      <c r="J45" s="405"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -14138,9 +14153,9 @@
         <f t="array" ref="G46">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H46" s="404"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="406"/>
+      <c r="H46" s="403"/>
+      <c r="I46" s="404"/>
+      <c r="J46" s="405"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -14154,9 +14169,9 @@
         <f t="array" ref="G47">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H47" s="404"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="406"/>
+      <c r="H47" s="403"/>
+      <c r="I47" s="404"/>
+      <c r="J47" s="405"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -14170,9 +14185,9 @@
         <f t="array" ref="G48">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H48" s="416"/>
-      <c r="I48" s="417"/>
-      <c r="J48" s="418"/>
+      <c r="H48" s="406"/>
+      <c r="I48" s="407"/>
+      <c r="J48" s="408"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -14208,19 +14223,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -14237,21 +14254,19 @@
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14267,7 +14282,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -14300,15 +14315,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
+      <c r="D2" s="247" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -14341,51 +14356,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="245" t="s">
+      <c r="A6" s="409"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="245" t="s">
+      <c r="A7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="409"/>
+      <c r="B8" s="409"/>
+      <c r="C8" s="409"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -14396,9 +14411,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="409"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -14410,24 +14425,24 @@
     </row>
     <row r="10" spans="1:14" ht="15.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="411"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="412"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="72" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -14438,11 +14453,11 @@
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
       <c r="I11" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44969</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -14450,7 +14465,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="140" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -14484,7 +14499,7 @@
       <c r="G13" s="141"/>
       <c r="H13" s="141"/>
       <c r="I13" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="118" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -14507,17 +14522,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="412"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -14542,51 +14557,51 @@
         <v>6</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="408" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="408"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="414" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="414"/>
+      <c r="J17" s="415"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="89" t="s">
+      <c r="E18" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="89" t="s">
-        <v>65</v>
-      </c>
       <c r="F18" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="91" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(IF(ArrayResult3[[#This Row],[ModuleRaw]]="","",IF(ArrayResult3[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="H18" s="142"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="412"/>
+      <c r="I18" s="417"/>
+      <c r="J18" s="418"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -14601,8 +14616,8 @@
         <v/>
       </c>
       <c r="H19" s="142"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
+      <c r="I19" s="404"/>
+      <c r="J19" s="405"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -14617,8 +14632,8 @@
         <v/>
       </c>
       <c r="H20" s="142"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
+      <c r="I20" s="404"/>
+      <c r="J20" s="405"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -14633,8 +14648,8 @@
         <v/>
       </c>
       <c r="H21" s="142"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -14649,8 +14664,8 @@
         <v/>
       </c>
       <c r="H22" s="142"/>
-      <c r="I22" s="405"/>
-      <c r="J22" s="406"/>
+      <c r="I22" s="404"/>
+      <c r="J22" s="405"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -14665,8 +14680,8 @@
         <v/>
       </c>
       <c r="H23" s="142"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="406"/>
+      <c r="I23" s="404"/>
+      <c r="J23" s="405"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -14681,8 +14696,8 @@
         <v/>
       </c>
       <c r="H24" s="142"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="406"/>
+      <c r="I24" s="404"/>
+      <c r="J24" s="405"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -14697,8 +14712,8 @@
         <v/>
       </c>
       <c r="H25" s="142"/>
-      <c r="I25" s="405"/>
-      <c r="J25" s="406"/>
+      <c r="I25" s="404"/>
+      <c r="J25" s="405"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -14713,8 +14728,8 @@
         <v/>
       </c>
       <c r="H26" s="142"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="406"/>
+      <c r="I26" s="404"/>
+      <c r="J26" s="405"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -14729,8 +14744,8 @@
         <v/>
       </c>
       <c r="H27" s="142"/>
-      <c r="I27" s="405"/>
-      <c r="J27" s="406"/>
+      <c r="I27" s="404"/>
+      <c r="J27" s="405"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -14745,8 +14760,8 @@
         <v/>
       </c>
       <c r="H28" s="142"/>
-      <c r="I28" s="405"/>
-      <c r="J28" s="406"/>
+      <c r="I28" s="404"/>
+      <c r="J28" s="405"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -14761,8 +14776,8 @@
         <v/>
       </c>
       <c r="H29" s="142"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="406"/>
+      <c r="I29" s="404"/>
+      <c r="J29" s="405"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -14777,8 +14792,8 @@
         <v/>
       </c>
       <c r="H30" s="142"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
+      <c r="I30" s="404"/>
+      <c r="J30" s="405"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -14793,8 +14808,8 @@
         <v/>
       </c>
       <c r="H31" s="142"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="406"/>
+      <c r="I31" s="404"/>
+      <c r="J31" s="405"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -14809,8 +14824,8 @@
         <v/>
       </c>
       <c r="H32" s="142"/>
-      <c r="I32" s="405"/>
-      <c r="J32" s="406"/>
+      <c r="I32" s="404"/>
+      <c r="J32" s="405"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -14825,8 +14840,8 @@
         <v/>
       </c>
       <c r="H33" s="142"/>
-      <c r="I33" s="405"/>
-      <c r="J33" s="406"/>
+      <c r="I33" s="404"/>
+      <c r="J33" s="405"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -14841,8 +14856,8 @@
         <v/>
       </c>
       <c r="H34" s="142"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="406"/>
+      <c r="I34" s="404"/>
+      <c r="J34" s="405"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -14857,8 +14872,8 @@
         <v/>
       </c>
       <c r="H35" s="142"/>
-      <c r="I35" s="405"/>
-      <c r="J35" s="406"/>
+      <c r="I35" s="404"/>
+      <c r="J35" s="405"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -14873,8 +14888,8 @@
         <v/>
       </c>
       <c r="H36" s="142"/>
-      <c r="I36" s="405"/>
-      <c r="J36" s="406"/>
+      <c r="I36" s="404"/>
+      <c r="J36" s="405"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -14889,8 +14904,8 @@
         <v/>
       </c>
       <c r="H37" s="142"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="406"/>
+      <c r="I37" s="404"/>
+      <c r="J37" s="405"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -14905,8 +14920,8 @@
         <v/>
       </c>
       <c r="H38" s="142"/>
-      <c r="I38" s="405"/>
-      <c r="J38" s="406"/>
+      <c r="I38" s="404"/>
+      <c r="J38" s="405"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -14921,8 +14936,8 @@
         <v/>
       </c>
       <c r="H39" s="142"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="406"/>
+      <c r="I39" s="404"/>
+      <c r="J39" s="405"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -14937,8 +14952,8 @@
         <v/>
       </c>
       <c r="H40" s="142"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="406"/>
+      <c r="I40" s="404"/>
+      <c r="J40" s="405"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -14953,8 +14968,8 @@
         <v/>
       </c>
       <c r="H41" s="142"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="406"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="405"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -14969,8 +14984,8 @@
         <v/>
       </c>
       <c r="H42" s="142"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="406"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -14985,8 +15000,8 @@
         <v/>
       </c>
       <c r="H43" s="142"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="406"/>
+      <c r="I43" s="404"/>
+      <c r="J43" s="405"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -15001,8 +15016,8 @@
         <v/>
       </c>
       <c r="H44" s="142"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="406"/>
+      <c r="I44" s="404"/>
+      <c r="J44" s="405"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -15017,8 +15032,8 @@
         <v/>
       </c>
       <c r="H45" s="142"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="406"/>
+      <c r="I45" s="404"/>
+      <c r="J45" s="405"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -15033,8 +15048,8 @@
         <v/>
       </c>
       <c r="H46" s="142"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="406"/>
+      <c r="I46" s="404"/>
+      <c r="J46" s="405"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -15049,8 +15064,8 @@
         <v/>
       </c>
       <c r="H47" s="142"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="406"/>
+      <c r="I47" s="404"/>
+      <c r="J47" s="405"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -15065,8 +15080,8 @@
         <v/>
       </c>
       <c r="H48" s="150"/>
-      <c r="I48" s="417"/>
-      <c r="J48" s="418"/>
+      <c r="I48" s="407"/>
+      <c r="J48" s="408"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -15102,15 +15117,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
@@ -15123,27 +15150,15 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15159,7 +15174,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -15192,15 +15207,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="280" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
+      <c r="D2" s="247" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -15233,51 +15248,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="245" t="s">
+      <c r="A6" s="409"/>
+      <c r="B6" s="409"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="245" t="s">
+      <c r="A7" s="409"/>
+      <c r="B7" s="409"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="409"/>
+      <c r="B8" s="409"/>
+      <c r="C8" s="409"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15288,9 +15303,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="409"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -15302,39 +15317,39 @@
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="411"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="411"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="412"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="272" t="e">
+        <v>27</v>
+      </c>
+      <c r="D11" s="244" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
       <c r="G11" s="105"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44969</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -15342,14 +15357,14 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="261" t="e">
+        <v>29</v>
+      </c>
+      <c r="D12" s="256" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
       <c r="G12" s="103"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
@@ -15367,16 +15382,16 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="268" t="e">
+      <c r="D13" s="259" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
       <c r="G13" s="109"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="118" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -15399,17 +15414,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="411"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="412"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -15440,13 +15455,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="420" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="420"/>
       <c r="I17" s="421"/>
@@ -15456,16 +15471,16 @@
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="89" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="91" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
@@ -16009,6 +16024,39 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D5:K5"/>
@@ -16021,39 +16069,6 @@
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16068,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCDCA2B-9C8E-4A39-9C53-A3F169F7F211}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -16105,17 +16120,17 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="425" t="s">
+      <c r="F2" s="463" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="464"/>
+      <c r="H2" s="464"/>
+      <c r="I2" s="465"/>
+      <c r="J2" s="466" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="428" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="429"/>
-      <c r="L2" s="430"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="468"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1">
@@ -16124,18 +16139,18 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="431" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="431" t="e">
+      <c r="F3" s="455" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="456"/>
+      <c r="J3" s="455" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K3" s="242"/>
-      <c r="L3" s="432"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="456"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="7.5" customHeight="1">
@@ -16144,13 +16159,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="432"/>
-      <c r="J4" s="431"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="432"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="456"/>
+      <c r="J4" s="455"/>
+      <c r="K4" s="271"/>
+      <c r="L4" s="456"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
@@ -16162,16 +16177,16 @@
       <c r="F5" s="162"/>
       <c r="G5" s="163"/>
       <c r="H5" s="163" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="164" t="s">
+      <c r="J5" s="460" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="422" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="423"/>
-      <c r="L5" s="424"/>
+      <c r="K5" s="461"/>
+      <c r="L5" s="462"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="11.5" customHeight="1">
@@ -16180,22 +16195,22 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="433"/>
+      <c r="F6" s="449"/>
       <c r="G6" s="165"/>
-      <c r="H6" s="435" t="e">
+      <c r="H6" s="451" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I6" s="437">
+      <c r="I6" s="453">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
-      </c>
-      <c r="J6" s="431" t="e">
+        <v>44969</v>
+      </c>
+      <c r="J6" s="455" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K6" s="242"/>
-      <c r="L6" s="432"/>
+      <c r="K6" s="271"/>
+      <c r="L6" s="456"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="11.5" customHeight="1">
@@ -16204,13 +16219,13 @@
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
       <c r="E7" s="167"/>
-      <c r="F7" s="434"/>
+      <c r="F7" s="450"/>
       <c r="G7" s="168"/>
-      <c r="H7" s="436"/>
-      <c r="I7" s="438"/>
-      <c r="J7" s="439"/>
-      <c r="K7" s="440"/>
-      <c r="L7" s="441"/>
+      <c r="H7" s="452"/>
+      <c r="I7" s="454"/>
+      <c r="J7" s="457"/>
+      <c r="K7" s="458"/>
+      <c r="L7" s="459"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="23" customHeight="1">
@@ -16231,10 +16246,10 @@
     <row r="9" spans="1:13">
       <c r="A9" s="2"/>
       <c r="B9" s="169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="170" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="170" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -16265,75 +16280,75 @@
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="161"/>
-      <c r="C11" s="442" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="442"/>
-      <c r="E11" s="442"/>
-      <c r="F11" s="442" t="e">
+      <c r="C11" s="448" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="448"/>
+      <c r="E11" s="448"/>
+      <c r="F11" s="448" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G11" s="442"/>
-      <c r="H11" s="442"/>
+      <c r="G11" s="448"/>
+      <c r="H11" s="448"/>
       <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="442" t="e">
+        <v>39</v>
+      </c>
+      <c r="J11" s="448" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="442"/>
+      <c r="K11" s="448"/>
       <c r="L11" s="172"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="161"/>
-      <c r="C12" s="442" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="442"/>
-      <c r="E12" s="442"/>
-      <c r="F12" s="442" t="e">
+      <c r="C12" s="448" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="448"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="448" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="442"/>
-      <c r="H12" s="442"/>
+      <c r="G12" s="448"/>
+      <c r="H12" s="448"/>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="442" t="e">
+      <c r="J12" s="448" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="442"/>
+      <c r="K12" s="448"/>
       <c r="L12" s="172"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="161"/>
-      <c r="C13" s="442" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="442"/>
-      <c r="E13" s="442"/>
-      <c r="F13" s="442" t="e">
+      <c r="C13" s="448" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="448" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="442"/>
-      <c r="H13" s="442"/>
+      <c r="G13" s="448"/>
+      <c r="H13" s="448"/>
       <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="442" t="e">
+        <v>32</v>
+      </c>
+      <c r="J13" s="448" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="442"/>
+      <c r="K13" s="448"/>
       <c r="L13" s="172"/>
       <c r="M13" s="2"/>
     </row>
@@ -16370,10 +16385,10 @@
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="B16" s="169" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -16405,16 +16420,16 @@
       <c r="A18" s="2"/>
       <c r="B18" s="161"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="463" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="463"/>
-      <c r="F18" s="463"/>
+      <c r="D18" s="441" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="441"/>
+      <c r="F18" s="441"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="461" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="462"/>
+      <c r="H18" s="439" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="440"/>
       <c r="J18" s="194" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
@@ -16426,21 +16441,21 @@
     <row r="19" spans="1:13" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="161"/>
-      <c r="C19" s="442" t="s">
+      <c r="C19" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="442"/>
-      <c r="E19" s="442"/>
+      <c r="D19" s="448"/>
+      <c r="E19" s="448"/>
       <c r="F19" s="84" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="443" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="443"/>
+      <c r="I19" s="422" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="422"/>
       <c r="K19" s="84" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
@@ -16451,16 +16466,16 @@
     <row r="20" spans="1:13" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="442"/>
-      <c r="D20" s="442"/>
-      <c r="E20" s="442"/>
+      <c r="C20" s="448"/>
+      <c r="D20" s="448"/>
+      <c r="E20" s="448"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="443" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="443"/>
+      <c r="I20" s="422" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="422"/>
       <c r="K20" s="84" t="e" cm="1">
         <f t="array" ref="K20">COUNTIF(Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
@@ -16501,10 +16516,10 @@
     <row r="23" spans="1:13" ht="16.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="175" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="175" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -16544,16 +16559,16 @@
         <v>5</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G25" s="178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="446"/>
       <c r="K25" s="447"/>
@@ -16564,29 +16579,29 @@
       <c r="A26" s="2"/>
       <c r="B26" s="161"/>
       <c r="C26" s="181" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="E26" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="182" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="183" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G26" s="183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="183" t="str" cm="1">
         <f t="array" ref="H26">IFERROR(IF(ArrayDResult[[#This Row],[ModuleRaw]]="","",IF(ArrayDResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayDResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayDResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I26" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="444"/>
-      <c r="K26" s="445"/>
+        <v>90</v>
+      </c>
+      <c r="J26" s="442"/>
+      <c r="K26" s="443"/>
       <c r="L26" s="172"/>
       <c r="M26" s="2"/>
     </row>
@@ -16603,8 +16618,8 @@
         <v/>
       </c>
       <c r="I27" s="184"/>
-      <c r="J27" s="444"/>
-      <c r="K27" s="445"/>
+      <c r="J27" s="442"/>
+      <c r="K27" s="443"/>
       <c r="L27" s="172"/>
       <c r="M27" s="2"/>
     </row>
@@ -16621,8 +16636,8 @@
         <v/>
       </c>
       <c r="I28" s="184"/>
-      <c r="J28" s="444"/>
-      <c r="K28" s="445"/>
+      <c r="J28" s="442"/>
+      <c r="K28" s="443"/>
       <c r="L28" s="172"/>
       <c r="M28" s="2"/>
     </row>
@@ -16639,8 +16654,8 @@
         <v/>
       </c>
       <c r="I29" s="184"/>
-      <c r="J29" s="444"/>
-      <c r="K29" s="445"/>
+      <c r="J29" s="442"/>
+      <c r="K29" s="443"/>
       <c r="L29" s="172"/>
       <c r="M29" s="2"/>
     </row>
@@ -16657,8 +16672,8 @@
         <v/>
       </c>
       <c r="I30" s="184"/>
-      <c r="J30" s="444"/>
-      <c r="K30" s="445"/>
+      <c r="J30" s="442"/>
+      <c r="K30" s="443"/>
       <c r="L30" s="172"/>
       <c r="M30" s="2"/>
     </row>
@@ -16675,8 +16690,8 @@
         <v/>
       </c>
       <c r="I31" s="184"/>
-      <c r="J31" s="444"/>
-      <c r="K31" s="445"/>
+      <c r="J31" s="442"/>
+      <c r="K31" s="443"/>
       <c r="L31" s="172"/>
       <c r="M31" s="2"/>
     </row>
@@ -16693,8 +16708,8 @@
         <v/>
       </c>
       <c r="I32" s="184"/>
-      <c r="J32" s="444"/>
-      <c r="K32" s="445"/>
+      <c r="J32" s="442"/>
+      <c r="K32" s="443"/>
       <c r="L32" s="172"/>
       <c r="M32" s="2"/>
     </row>
@@ -16711,8 +16726,8 @@
         <v/>
       </c>
       <c r="I33" s="184"/>
-      <c r="J33" s="444"/>
-      <c r="K33" s="445"/>
+      <c r="J33" s="442"/>
+      <c r="K33" s="443"/>
       <c r="L33" s="172"/>
       <c r="M33" s="2"/>
     </row>
@@ -16729,8 +16744,8 @@
         <v/>
       </c>
       <c r="I34" s="184"/>
-      <c r="J34" s="444"/>
-      <c r="K34" s="445"/>
+      <c r="J34" s="442"/>
+      <c r="K34" s="443"/>
       <c r="L34" s="172"/>
       <c r="M34" s="2"/>
     </row>
@@ -16747,8 +16762,8 @@
         <v/>
       </c>
       <c r="I35" s="184"/>
-      <c r="J35" s="444"/>
-      <c r="K35" s="445"/>
+      <c r="J35" s="442"/>
+      <c r="K35" s="443"/>
       <c r="L35" s="172"/>
       <c r="M35" s="2"/>
     </row>
@@ -16801,8 +16816,8 @@
         <v/>
       </c>
       <c r="I38" s="184"/>
-      <c r="J38" s="444"/>
-      <c r="K38" s="445"/>
+      <c r="J38" s="442"/>
+      <c r="K38" s="443"/>
       <c r="L38" s="172"/>
       <c r="M38" s="2"/>
     </row>
@@ -16819,8 +16834,8 @@
         <v/>
       </c>
       <c r="I39" s="184"/>
-      <c r="J39" s="444"/>
-      <c r="K39" s="445"/>
+      <c r="J39" s="442"/>
+      <c r="K39" s="443"/>
       <c r="L39" s="172"/>
       <c r="M39" s="2"/>
     </row>
@@ -16837,8 +16852,8 @@
         <v/>
       </c>
       <c r="I40" s="184"/>
-      <c r="J40" s="444"/>
-      <c r="K40" s="445"/>
+      <c r="J40" s="442"/>
+      <c r="K40" s="443"/>
       <c r="L40" s="172"/>
       <c r="M40" s="2"/>
     </row>
@@ -16855,8 +16870,8 @@
         <v/>
       </c>
       <c r="I41" s="184"/>
-      <c r="J41" s="444"/>
-      <c r="K41" s="445"/>
+      <c r="J41" s="442"/>
+      <c r="K41" s="443"/>
       <c r="L41" s="172"/>
       <c r="M41" s="2"/>
     </row>
@@ -16873,8 +16888,8 @@
         <v/>
       </c>
       <c r="I42" s="184"/>
-      <c r="J42" s="444"/>
-      <c r="K42" s="445"/>
+      <c r="J42" s="442"/>
+      <c r="K42" s="443"/>
       <c r="L42" s="172"/>
       <c r="M42" s="2"/>
     </row>
@@ -16891,8 +16906,8 @@
         <v/>
       </c>
       <c r="I43" s="184"/>
-      <c r="J43" s="464"/>
-      <c r="K43" s="465"/>
+      <c r="J43" s="444"/>
+      <c r="K43" s="445"/>
       <c r="L43" s="172"/>
       <c r="M43" s="2"/>
     </row>
@@ -16909,8 +16924,8 @@
         <v/>
       </c>
       <c r="I44" s="184"/>
-      <c r="J44" s="444"/>
-      <c r="K44" s="445"/>
+      <c r="J44" s="442"/>
+      <c r="K44" s="443"/>
       <c r="L44" s="172"/>
       <c r="M44" s="2"/>
     </row>
@@ -16927,8 +16942,8 @@
         <v/>
       </c>
       <c r="I45" s="184"/>
-      <c r="J45" s="444"/>
-      <c r="K45" s="445"/>
+      <c r="J45" s="442"/>
+      <c r="K45" s="443"/>
       <c r="L45" s="172"/>
       <c r="M45" s="2"/>
     </row>
@@ -16945,8 +16960,8 @@
         <v/>
       </c>
       <c r="I46" s="184"/>
-      <c r="J46" s="444"/>
-      <c r="K46" s="445"/>
+      <c r="J46" s="442"/>
+      <c r="K46" s="443"/>
       <c r="L46" s="172"/>
       <c r="M46" s="2"/>
     </row>
@@ -16983,10 +16998,10 @@
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="170" t="s">
         <v>86</v>
-      </c>
-      <c r="C49" s="170" t="s">
-        <v>87</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -17017,98 +17032,98 @@
     <row r="51" spans="1:13" ht="16.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="161"/>
-      <c r="C51" s="467" t="e">
+      <c r="C51" s="424" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",IF(_xlfn.SINGLE(Thresholds_Modulus_Value)&lt;_xlfn.SINGLE(AVERAGE(Pi_Modulus)),"RÉSULTAT CONFORME","RÉSULTAT INSUFFISANT"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D51" s="467"/>
-      <c r="E51" s="466"/>
-      <c r="F51" s="466"/>
+      <c r="D51" s="424"/>
+      <c r="E51" s="423"/>
+      <c r="F51" s="423"/>
       <c r="G51" s="192"/>
       <c r="H51" s="2"/>
       <c r="I51" s="195" t="s">
-        <v>96</v>
-      </c>
-      <c r="J51" s="443" t="e">
+        <v>95</v>
+      </c>
+      <c r="J51" s="422" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K51" s="443"/>
+      <c r="K51" s="422"/>
       <c r="L51" s="172"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="161"/>
-      <c r="C52" s="467"/>
-      <c r="D52" s="467"/>
-      <c r="E52" s="467"/>
+      <c r="C52" s="424"/>
+      <c r="D52" s="424"/>
+      <c r="E52" s="424"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="196" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="468" t="e">
+        <v>94</v>
+      </c>
+      <c r="J52" s="425" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K52" s="468"/>
+      <c r="K52" s="425"/>
       <c r="L52" s="173"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="170" t="s">
         <v>88</v>
-      </c>
-      <c r="C53" s="170" t="s">
-        <v>89</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="171"/>
-      <c r="I53" s="448" t="s">
-        <v>90</v>
-      </c>
-      <c r="J53" s="449"/>
-      <c r="K53" s="450"/>
-      <c r="L53" s="451"/>
+      <c r="I53" s="426" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="427"/>
+      <c r="K53" s="428"/>
+      <c r="L53" s="429"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="161"/>
-      <c r="C54" s="457" t="e">
+      <c r="C54" s="435" t="e">
         <f>IF(Report_Comments="","",Report_Comments)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D54" s="457"/>
-      <c r="E54" s="457"/>
-      <c r="F54" s="457"/>
-      <c r="G54" s="457"/>
-      <c r="H54" s="458"/>
-      <c r="I54" s="448"/>
-      <c r="J54" s="452"/>
-      <c r="K54" s="255"/>
-      <c r="L54" s="453"/>
+      <c r="D54" s="435"/>
+      <c r="E54" s="435"/>
+      <c r="F54" s="435"/>
+      <c r="G54" s="435"/>
+      <c r="H54" s="436"/>
+      <c r="I54" s="426"/>
+      <c r="J54" s="430"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="431"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="166"/>
-      <c r="C55" s="459"/>
-      <c r="D55" s="459"/>
-      <c r="E55" s="459"/>
-      <c r="F55" s="459"/>
-      <c r="G55" s="459"/>
-      <c r="H55" s="460"/>
-      <c r="I55" s="448"/>
-      <c r="J55" s="454"/>
-      <c r="K55" s="455"/>
-      <c r="L55" s="456"/>
+      <c r="C55" s="437"/>
+      <c r="D55" s="437"/>
+      <c r="E55" s="437"/>
+      <c r="F55" s="437"/>
+      <c r="G55" s="437"/>
+      <c r="H55" s="438"/>
+      <c r="I55" s="426"/>
+      <c r="J55" s="432"/>
+      <c r="K55" s="433"/>
+      <c r="L55" s="434"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13">
@@ -17130,11 +17145,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="I53:I55"/>
     <mergeCell ref="J53:L55"/>
     <mergeCell ref="C54:H55"/>
@@ -17151,38 +17193,11 @@
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="J52:K52"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/assets/templates/maxidyn/PV Maxidyn Demo FR.xlsx
+++ b/src/assets/templates/maxidyn/PV Maxidyn Demo FR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b21a0883c8b69009/Documents/Git/rapportxls/Template Mapview 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spellevrault\Documents\Git\rapportxls\Template Mapview 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{455CFE87-D67D-493F-800B-0562AB01F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9953A6-E422-4DC6-964B-1B58B760F11C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1FECDD-6CE1-48E8-869C-E1ED1B79069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14230" yWindow="2700" windowWidth="21650" windowHeight="16620" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2521,24 +2521,123 @@
     <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2548,18 +2647,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2569,98 +2662,35 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2673,35 +2703,200 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,197 +2922,26 @@
     <xf numFmtId="0" fontId="46" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2940,9 +2964,6 @@
     <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2964,9 +2985,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2991,20 +3009,8 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3015,6 +3021,33 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3024,36 +3057,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3063,7 +3066,132 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3073,136 +3201,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7530,7 +7530,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rapport"/>
@@ -8048,15 +8048,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="280" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -8089,51 +8089,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="248" t="s">
+      <c r="D5" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="409"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="409"/>
-      <c r="D6" s="249" t="s">
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="409"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="249" t="s">
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="409"/>
-      <c r="B8" s="409"/>
-      <c r="C8" s="409"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -8144,9 +8144,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="409"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="409"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -8158,17 +8158,17 @@
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="410" t="s">
+      <c r="B10" s="414" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="411"/>
-      <c r="J10" s="412"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="16" customHeight="1">
@@ -8177,13 +8177,13 @@
       <c r="C11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="244" t="e">
+      <c r="D11" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
         <v>70</v>
@@ -8200,13 +8200,13 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="256" t="e">
+      <c r="D12" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="261"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
         <v>69</v>
@@ -8223,13 +8223,13 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="259" t="e">
+      <c r="D13" s="268" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
         <v>44</v>
@@ -8255,17 +8255,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="410" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="411"/>
-      <c r="D15" s="411"/>
-      <c r="E15" s="411"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="411"/>
-      <c r="J15" s="412"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -8304,11 +8304,11 @@
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="413" t="s">
+      <c r="H17" s="408" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="414"/>
-      <c r="J17" s="415"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="410"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -8332,9 +8332,9 @@
         <f t="array" ref="G18">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="416"/>
-      <c r="I18" s="417"/>
-      <c r="J18" s="418"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -8348,9 +8348,9 @@
         <f t="array" ref="G19">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="404"/>
-      <c r="J19" s="405"/>
+      <c r="H19" s="405"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -8364,9 +8364,9 @@
         <f t="array" ref="G20">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H20" s="403"/>
-      <c r="I20" s="404"/>
-      <c r="J20" s="405"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -8380,9 +8380,9 @@
         <f t="array" ref="G21">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H21" s="403"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -8396,9 +8396,9 @@
         <f t="array" ref="G22">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H22" s="403"/>
-      <c r="I22" s="404"/>
-      <c r="J22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -8412,9 +8412,9 @@
         <f t="array" ref="G23">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H23" s="403"/>
-      <c r="I23" s="404"/>
-      <c r="J23" s="405"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -8428,9 +8428,9 @@
         <f t="array" ref="G24">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H24" s="403"/>
-      <c r="I24" s="404"/>
-      <c r="J24" s="405"/>
+      <c r="H24" s="405"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -8444,9 +8444,9 @@
         <f t="array" ref="G25">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H25" s="403"/>
-      <c r="I25" s="404"/>
-      <c r="J25" s="405"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -8460,9 +8460,9 @@
         <f t="array" ref="G26">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H26" s="403"/>
-      <c r="I26" s="404"/>
-      <c r="J26" s="405"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -8508,9 +8508,9 @@
         <f t="array" ref="G29">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H29" s="403"/>
-      <c r="I29" s="404"/>
-      <c r="J29" s="405"/>
+      <c r="H29" s="405"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -8524,9 +8524,9 @@
         <f t="array" ref="G30">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H30" s="403"/>
-      <c r="I30" s="404"/>
-      <c r="J30" s="405"/>
+      <c r="H30" s="405"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -8540,9 +8540,9 @@
         <f t="array" ref="G31">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H31" s="403"/>
-      <c r="I31" s="404"/>
-      <c r="J31" s="405"/>
+      <c r="H31" s="405"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -8556,9 +8556,9 @@
         <f t="array" ref="G32">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H32" s="403"/>
-      <c r="I32" s="404"/>
-      <c r="J32" s="405"/>
+      <c r="H32" s="405"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -8572,9 +8572,9 @@
         <f t="array" ref="G33">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H33" s="403"/>
-      <c r="I33" s="404"/>
-      <c r="J33" s="405"/>
+      <c r="H33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -8588,9 +8588,9 @@
         <f t="array" ref="G34">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H34" s="403"/>
-      <c r="I34" s="404"/>
-      <c r="J34" s="405"/>
+      <c r="H34" s="405"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -8604,9 +8604,9 @@
         <f t="array" ref="G35">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H35" s="403"/>
-      <c r="I35" s="404"/>
-      <c r="J35" s="405"/>
+      <c r="H35" s="405"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -8620,9 +8620,9 @@
         <f t="array" ref="G36">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H36" s="403"/>
-      <c r="I36" s="404"/>
-      <c r="J36" s="405"/>
+      <c r="H36" s="405"/>
+      <c r="I36" s="406"/>
+      <c r="J36" s="407"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -8636,9 +8636,9 @@
         <f t="array" ref="G37">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H37" s="403"/>
-      <c r="I37" s="404"/>
-      <c r="J37" s="405"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -8652,9 +8652,9 @@
         <f t="array" ref="G38">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H38" s="403"/>
-      <c r="I38" s="404"/>
-      <c r="J38" s="405"/>
+      <c r="H38" s="405"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="407"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -8668,9 +8668,9 @@
         <f t="array" ref="G39">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H39" s="403"/>
-      <c r="I39" s="404"/>
-      <c r="J39" s="405"/>
+      <c r="H39" s="405"/>
+      <c r="I39" s="406"/>
+      <c r="J39" s="407"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -8684,9 +8684,9 @@
         <f t="array" ref="G40">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H40" s="403"/>
-      <c r="I40" s="404"/>
-      <c r="J40" s="405"/>
+      <c r="H40" s="405"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="407"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -8700,9 +8700,9 @@
         <f t="array" ref="G41">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H41" s="403"/>
-      <c r="I41" s="404"/>
-      <c r="J41" s="405"/>
+      <c r="H41" s="405"/>
+      <c r="I41" s="406"/>
+      <c r="J41" s="407"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -8716,9 +8716,9 @@
         <f t="array" ref="G42">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H42" s="403"/>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="H42" s="405"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -8732,9 +8732,9 @@
         <f t="array" ref="G43">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H43" s="403"/>
-      <c r="I43" s="404"/>
-      <c r="J43" s="405"/>
+      <c r="H43" s="405"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -8748,9 +8748,9 @@
         <f t="array" ref="G44">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H44" s="403"/>
-      <c r="I44" s="404"/>
-      <c r="J44" s="405"/>
+      <c r="H44" s="405"/>
+      <c r="I44" s="406"/>
+      <c r="J44" s="407"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -8764,9 +8764,9 @@
         <f t="array" ref="G45">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H45" s="403"/>
-      <c r="I45" s="404"/>
-      <c r="J45" s="405"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="407"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -8780,9 +8780,9 @@
         <f t="array" ref="G46">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H46" s="403"/>
-      <c r="I46" s="404"/>
-      <c r="J46" s="405"/>
+      <c r="H46" s="405"/>
+      <c r="I46" s="406"/>
+      <c r="J46" s="407"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -8796,9 +8796,9 @@
         <f t="array" ref="G47">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H47" s="403"/>
-      <c r="I47" s="404"/>
-      <c r="J47" s="405"/>
+      <c r="H47" s="405"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="407"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -8812,9 +8812,9 @@
         <f t="array" ref="G48">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H48" s="406"/>
-      <c r="I48" s="407"/>
-      <c r="J48" s="408"/>
+      <c r="H48" s="417"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="419"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -8850,25 +8850,18 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="H17:J17"/>
@@ -8881,18 +8874,25 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8938,14 +8938,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="469" t="s">
+      <c r="D2" s="470" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="14.15" customHeight="1">
@@ -8976,48 +8976,48 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="248" t="s">
+      <c r="D5" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="409"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="409"/>
-      <c r="D6" s="249" t="s">
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A7" s="409"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="249" t="s">
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A8" s="409"/>
-      <c r="B8" s="409"/>
-      <c r="C8" s="409"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -9027,9 +9027,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A9" s="409"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="409"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -9040,16 +9040,16 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="410" t="s">
+      <c r="B10" s="414" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="412"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="416"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="I11" s="22">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
+        <v>44991</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -9132,16 +9132,16 @@
     </row>
     <row r="15" spans="1:16" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="410" t="s">
+      <c r="B15" s="414" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="411"/>
-      <c r="D15" s="411"/>
-      <c r="E15" s="411"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="412"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="416"/>
       <c r="J15" s="15"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -9651,20 +9651,20 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="247" t="s">
+      <c r="E2" s="280" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
@@ -9674,15 +9674,15 @@
       <c r="D3" s="2"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -9707,9 +9707,9 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -9726,11 +9726,11 @@
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -9746,12 +9746,12 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="253"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -9765,20 +9765,20 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.65" customHeight="1">
-      <c r="A8" s="254"/>
-      <c r="B8" s="254"/>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="286"/>
+      <c r="N8" s="286"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -9786,104 +9786,104 @@
     <row r="9" spans="1:17" ht="21" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="273" t="s">
+      <c r="C9" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="273"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="273"/>
-      <c r="L9" s="273"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="273"/>
-      <c r="O9" s="273"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="249"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="249"/>
-      <c r="M10" s="249"/>
-      <c r="N10" s="249"/>
-      <c r="O10" s="249"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="245"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="245"/>
+      <c r="N10" s="245"/>
+      <c r="O10" s="245"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="245" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="249"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="249"/>
-      <c r="M11" s="249"/>
-      <c r="N11" s="249"/>
-      <c r="O11" s="249"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="245"/>
+      <c r="N11" s="245"/>
+      <c r="O11" s="245"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="23.5" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="240"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="240"/>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="240"/>
-      <c r="N12" s="240"/>
-      <c r="O12" s="240"/>
-      <c r="P12" s="240"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="278"/>
+      <c r="H12" s="278"/>
+      <c r="I12" s="278"/>
+      <c r="J12" s="278"/>
+      <c r="K12" s="278"/>
+      <c r="L12" s="278"/>
+      <c r="M12" s="278"/>
+      <c r="N12" s="278"/>
+      <c r="O12" s="278"/>
+      <c r="P12" s="278"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1">
       <c r="A13" s="31"/>
-      <c r="B13" s="241" t="s">
+      <c r="B13" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
-      <c r="M13" s="242"/>
-      <c r="N13" s="242"/>
-      <c r="O13" s="242"/>
-      <c r="P13" s="243"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="265"/>
+      <c r="H13" s="265"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="265"/>
+      <c r="L13" s="265"/>
+      <c r="M13" s="265"/>
+      <c r="N13" s="265"/>
+      <c r="O13" s="265"/>
+      <c r="P13" s="266"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" customHeight="1">
@@ -9893,26 +9893,26 @@
       <c r="D14" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="244" t="e">
+      <c r="E14" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="272"/>
+      <c r="H14" s="272"/>
       <c r="I14" s="105"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
       <c r="L14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="245">
+      <c r="M14" s="258">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
-      </c>
-      <c r="N14" s="245"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="246"/>
+        <v>44991</v>
+      </c>
+      <c r="N14" s="258"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="279"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="15.5" customHeight="1">
@@ -9922,26 +9922,26 @@
       <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="256" t="e">
+      <c r="E15" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="261"/>
       <c r="I15" s="103"/>
       <c r="J15" s="103"/>
       <c r="K15" s="73"/>
       <c r="L15" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="257" t="e">
+      <c r="M15" s="273" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N15" s="257"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="258"/>
+      <c r="N15" s="273"/>
+      <c r="O15" s="273"/>
+      <c r="P15" s="274"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="15.5" customHeight="1">
@@ -9951,26 +9951,26 @@
       <c r="D16" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="259" t="e">
+      <c r="E16" s="268" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="259"/>
-      <c r="G16" s="259"/>
-      <c r="H16" s="259"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="109"/>
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
       <c r="L16" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="260" t="e">
+      <c r="M16" s="270" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N16" s="260"/>
-      <c r="O16" s="260"/>
-      <c r="P16" s="261"/>
+      <c r="N16" s="270"/>
+      <c r="O16" s="270"/>
+      <c r="P16" s="271"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="23.5" customHeight="1">
@@ -9994,23 +9994,23 @@
     </row>
     <row r="18" spans="1:17" ht="15.5">
       <c r="A18" s="36"/>
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="242"/>
-      <c r="N18" s="242"/>
-      <c r="O18" s="242"/>
-      <c r="P18" s="243"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="265"/>
+      <c r="H18" s="265"/>
+      <c r="I18" s="265"/>
+      <c r="J18" s="265"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="265"/>
+      <c r="M18" s="265"/>
+      <c r="N18" s="265"/>
+      <c r="O18" s="265"/>
+      <c r="P18" s="266"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="15.5" customHeight="1">
@@ -10020,21 +10020,21 @@
       <c r="D19" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="244" t="e">
+      <c r="E19" s="272" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
       <c r="I19" s="105"/>
       <c r="J19" s="105"/>
       <c r="K19" s="105"/>
       <c r="L19" s="69"/>
-      <c r="M19" s="245"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="244"/>
-      <c r="P19" s="262"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="272"/>
+      <c r="P19" s="275"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="15.5" customHeight="1">
@@ -10044,12 +10044,12 @@
       <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="256" t="e">
+      <c r="E20" s="261" t="e">
         <f>IF(Report_Lane="","",Report_Lane)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
+      <c r="F20" s="261"/>
+      <c r="G20" s="261"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -10057,13 +10057,13 @@
       <c r="L20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="263" t="e" cm="1">
+      <c r="M20" s="276" t="e" cm="1">
         <f t="array" ref="M20">IF(Report_Part="","",Report_Part)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N20" s="264"/>
-      <c r="O20" s="264"/>
-      <c r="P20" s="265"/>
+      <c r="N20" s="267"/>
+      <c r="O20" s="267"/>
+      <c r="P20" s="277"/>
       <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" customHeight="1">
@@ -10073,21 +10073,21 @@
       <c r="D21" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="259" t="e">
+      <c r="E21" s="268" t="e">
         <f>IF(Report_Direction="","",Report_Direction)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F21" s="259"/>
-      <c r="G21" s="259"/>
-      <c r="H21" s="259"/>
+      <c r="F21" s="268"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="268"/>
       <c r="I21" s="109"/>
       <c r="J21" s="109"/>
       <c r="K21" s="109"/>
       <c r="L21" s="70"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="260"/>
-      <c r="P21" s="261"/>
+      <c r="M21" s="270"/>
+      <c r="N21" s="270"/>
+      <c r="O21" s="270"/>
+      <c r="P21" s="271"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="23.5" customHeight="1">
@@ -10111,23 +10111,23 @@
     </row>
     <row r="23" spans="1:17" ht="15.5">
       <c r="A23" s="36"/>
-      <c r="B23" s="241" t="s">
+      <c r="B23" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="243"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="265"/>
+      <c r="K23" s="265"/>
+      <c r="L23" s="265"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="265"/>
+      <c r="O23" s="265"/>
+      <c r="P23" s="266"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="15.5" customHeight="1">
@@ -10137,26 +10137,26 @@
       <c r="D24" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="244" t="e">
+      <c r="E24" s="272" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
+      <c r="F24" s="272"/>
+      <c r="G24" s="272"/>
+      <c r="H24" s="272"/>
       <c r="I24" s="105"/>
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
       <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="274" t="e">
+      <c r="M24" s="246" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N24" s="274"/>
-      <c r="O24" s="274"/>
-      <c r="P24" s="275"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="247"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="15.5" customHeight="1">
@@ -10166,26 +10166,26 @@
       <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="264" t="e">
+      <c r="E25" s="267" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F25" s="264"/>
-      <c r="G25" s="264"/>
-      <c r="H25" s="264"/>
+      <c r="F25" s="267"/>
+      <c r="G25" s="267"/>
+      <c r="H25" s="267"/>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
       <c r="K25" s="106"/>
       <c r="L25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="256" t="e">
+      <c r="M25" s="261" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="267"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="263"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" customHeight="1">
@@ -10195,26 +10195,26 @@
       <c r="D26" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="259" t="e">
+      <c r="E26" s="268" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F26" s="268"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="268"/>
+      <c r="F26" s="269"/>
+      <c r="G26" s="269"/>
+      <c r="H26" s="269"/>
       <c r="I26" s="109"/>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
       <c r="L26" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="260" t="e">
+      <c r="M26" s="270" t="e">
         <f>IF(Report_Temperature="","",Report_Temperature)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N26" s="260"/>
-      <c r="O26" s="260"/>
-      <c r="P26" s="261"/>
+      <c r="N26" s="270"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="271"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="23.5" customHeight="1">
@@ -10238,23 +10238,23 @@
     </row>
     <row r="28" spans="1:17" ht="15.5" customHeight="1">
       <c r="A28" s="36"/>
-      <c r="B28" s="241" t="s">
+      <c r="B28" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="242"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="242"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="242"/>
-      <c r="J28" s="242"/>
-      <c r="K28" s="242"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="242"/>
-      <c r="N28" s="242"/>
-      <c r="O28" s="242"/>
-      <c r="P28" s="243"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265"/>
+      <c r="J28" s="265"/>
+      <c r="K28" s="265"/>
+      <c r="L28" s="265"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="265"/>
+      <c r="O28" s="265"/>
+      <c r="P28" s="266"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="15.5" customHeight="1">
@@ -10264,26 +10264,26 @@
       <c r="D29" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="245" t="e">
+      <c r="E29" s="258" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F29" s="245"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="258"/>
       <c r="I29" s="101"/>
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
       <c r="L29" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="285" t="e">
+      <c r="M29" s="259" t="e">
         <f>IF(Hardware_CertificateStart="","",Hardware_CertificateStart)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N29" s="285"/>
-      <c r="O29" s="285"/>
-      <c r="P29" s="286"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="259"/>
+      <c r="P29" s="260"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="15.5" customHeight="1">
@@ -10293,21 +10293,21 @@
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="256" t="e" cm="1">
+      <c r="E30" s="261" t="e" cm="1">
         <f t="array" ref="E30">Unit_Modulus_Min &amp;" à " &amp; Unit_Modulus_Max &amp; " MPa"</f>
         <v>#NAME?</v>
       </c>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="266"/>
-      <c r="K30" s="266"/>
-      <c r="L30" s="266"/>
-      <c r="M30" s="256"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
-      <c r="P30" s="267"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="261"/>
+      <c r="H30" s="262"/>
+      <c r="I30" s="262"/>
+      <c r="J30" s="262"/>
+      <c r="K30" s="262"/>
+      <c r="L30" s="262"/>
+      <c r="M30" s="261"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="263"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" ht="23.5" customHeight="1">
@@ -10331,23 +10331,23 @@
     </row>
     <row r="32" spans="1:17" ht="15.5">
       <c r="A32" s="38"/>
-      <c r="B32" s="241" t="s">
+      <c r="B32" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="242"/>
-      <c r="K32" s="242"/>
-      <c r="L32" s="242"/>
-      <c r="M32" s="242"/>
-      <c r="N32" s="242"/>
-      <c r="O32" s="242"/>
-      <c r="P32" s="243"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="265"/>
+      <c r="H32" s="265"/>
+      <c r="I32" s="265"/>
+      <c r="J32" s="265"/>
+      <c r="K32" s="265"/>
+      <c r="L32" s="265"/>
+      <c r="M32" s="265"/>
+      <c r="N32" s="265"/>
+      <c r="O32" s="265"/>
+      <c r="P32" s="266"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="15.5" customHeight="1">
@@ -10598,59 +10598,59 @@
       <c r="D44" s="64"/>
       <c r="E44" s="63"/>
       <c r="F44" s="63"/>
-      <c r="G44" s="276" t="s">
+      <c r="G44" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="276"/>
-      <c r="I44" s="276"/>
-      <c r="J44" s="276"/>
-      <c r="K44" s="276"/>
+      <c r="H44" s="248"/>
+      <c r="I44" s="248"/>
+      <c r="J44" s="248"/>
+      <c r="K44" s="248"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="277" t="s">
+      <c r="M44" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="N44" s="277"/>
-      <c r="O44" s="277"/>
-      <c r="P44" s="278"/>
+      <c r="N44" s="249"/>
+      <c r="O44" s="249"/>
+      <c r="P44" s="250"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="279" t="e">
+      <c r="B45" s="251" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C45" s="280"/>
-      <c r="D45" s="280"/>
-      <c r="E45" s="280"/>
-      <c r="F45" s="280"/>
-      <c r="G45" s="252" t="e">
+      <c r="C45" s="252"/>
+      <c r="D45" s="252"/>
+      <c r="E45" s="252"/>
+      <c r="F45" s="252"/>
+      <c r="G45" s="255" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H45" s="252"/>
-      <c r="I45" s="252"/>
-      <c r="J45" s="252"/>
-      <c r="K45" s="252"/>
+      <c r="H45" s="255"/>
+      <c r="I45" s="255"/>
+      <c r="J45" s="255"/>
+      <c r="K45" s="255"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="283"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="284"/>
+      <c r="M45" s="256"/>
+      <c r="N45" s="256"/>
+      <c r="O45" s="256"/>
+      <c r="P45" s="257"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2"/>
-      <c r="B46" s="279"/>
-      <c r="C46" s="280"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="280"/>
-      <c r="F46" s="280"/>
-      <c r="G46" s="252"/>
-      <c r="H46" s="252"/>
-      <c r="I46" s="252"/>
-      <c r="J46" s="252"/>
-      <c r="K46" s="252"/>
+      <c r="B46" s="251"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="252"/>
+      <c r="E46" s="252"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="255"/>
+      <c r="H46" s="255"/>
+      <c r="I46" s="255"/>
+      <c r="J46" s="255"/>
+      <c r="K46" s="255"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -10660,11 +10660,11 @@
     </row>
     <row r="47" spans="1:17" ht="5.25" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="281"/>
-      <c r="C47" s="282"/>
-      <c r="D47" s="282"/>
-      <c r="E47" s="282"/>
-      <c r="F47" s="282"/>
+      <c r="B47" s="253"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="254"/>
+      <c r="E47" s="254"/>
+      <c r="F47" s="254"/>
       <c r="G47" s="66"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -10701,22 +10701,22 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="269" t="s">
+      <c r="E49" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="269"/>
-      <c r="G49" s="269"/>
-      <c r="H49" s="269"/>
-      <c r="I49" s="269"/>
-      <c r="J49" s="269"/>
-      <c r="K49" s="269"/>
-      <c r="L49" s="269"/>
-      <c r="M49" s="269"/>
+      <c r="F49" s="240"/>
+      <c r="G49" s="240"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="240"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="240"/>
+      <c r="L49" s="240"/>
+      <c r="M49" s="240"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="270" t="s">
+      <c r="O49" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="270"/>
+      <c r="P49" s="241"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
@@ -10724,24 +10724,56 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="272" t="s">
+      <c r="E50" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="272"/>
-      <c r="G50" s="272"/>
-      <c r="H50" s="272"/>
-      <c r="I50" s="272"/>
-      <c r="J50" s="272"/>
-      <c r="K50" s="272"/>
-      <c r="L50" s="272"/>
-      <c r="M50" s="272"/>
+      <c r="F50" s="243"/>
+      <c r="G50" s="243"/>
+      <c r="H50" s="243"/>
+      <c r="I50" s="243"/>
+      <c r="J50" s="243"/>
+      <c r="K50" s="243"/>
+      <c r="L50" s="243"/>
+      <c r="M50" s="243"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="271"/>
-      <c r="P50" s="271"/>
+      <c r="O50" s="242"/>
+      <c r="P50" s="242"/>
       <c r="Q50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O49:P50"/>
     <mergeCell ref="E50:M50"/>
@@ -10758,38 +10790,6 @@
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{22BC0ECF-B0DB-407E-A9DE-C799A88CBDD6}"/>
@@ -10822,28 +10822,28 @@
       <c r="A1" s="197"/>
       <c r="B1" s="197"/>
       <c r="C1" s="197"/>
-      <c r="D1" s="288" t="s">
+      <c r="D1" s="298" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
       <c r="J1" s="197"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="197"/>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
-      <c r="D2" s="289" t="s">
+      <c r="D2" s="299" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
       <c r="J2" s="197"/>
       <c r="L2" s="238" t="e" cm="1">
         <f t="array" ref="L2">Thresholds_Modulus_Value</f>
@@ -10863,11 +10863,11 @@
       <c r="G3" s="197" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="290">
+      <c r="H3" s="300">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
-      </c>
-      <c r="I3" s="291"/>
+        <v>44991</v>
+      </c>
+      <c r="I3" s="301"/>
       <c r="J3" s="197"/>
       <c r="L3" s="238" t="e" cm="1">
         <f t="array" ref="L3">Thresholds_Modulus_Value</f>
@@ -10888,11 +10888,11 @@
       <c r="G4" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="292" t="e">
+      <c r="H4" s="288" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I4" s="292"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="197"/>
     </row>
     <row r="5" spans="1:13">
@@ -10915,16 +10915,16 @@
     </row>
     <row r="6" spans="1:13" s="199" customFormat="1" ht="23">
       <c r="A6" s="198"/>
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
       <c r="J6" s="198"/>
       <c r="L6" s="239" t="s">
         <v>50</v>
@@ -10935,16 +10935,16 @@
     </row>
     <row r="7" spans="1:13" s="199" customFormat="1" ht="20">
       <c r="A7" s="198"/>
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="287"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="297"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="198"/>
       <c r="L7" s="239"/>
       <c r="M7" s="239"/>
@@ -10977,107 +10977,107 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="197"/>
-      <c r="B10" s="294" t="s">
+      <c r="B10" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="294"/>
-      <c r="D10" s="295" t="e">
+      <c r="C10" s="295"/>
+      <c r="D10" s="289" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="295"/>
-      <c r="F10" s="294" t="s">
+      <c r="E10" s="289"/>
+      <c r="F10" s="295" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="294"/>
-      <c r="H10" s="295" t="e">
+      <c r="G10" s="295"/>
+      <c r="H10" s="289" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="295"/>
+      <c r="I10" s="289"/>
       <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="197"/>
-      <c r="B11" s="294" t="s">
+      <c r="B11" s="295" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="294"/>
-      <c r="D11" s="295" t="e">
+      <c r="C11" s="295"/>
+      <c r="D11" s="289" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="295"/>
-      <c r="F11" s="294" t="s">
+      <c r="E11" s="289"/>
+      <c r="F11" s="295" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="294"/>
-      <c r="H11" s="295" t="e">
+      <c r="G11" s="295"/>
+      <c r="H11" s="289" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="295"/>
+      <c r="I11" s="289"/>
       <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="197"/>
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="295" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="294"/>
-      <c r="D12" s="295" t="e">
+      <c r="C12" s="295"/>
+      <c r="D12" s="289" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="295"/>
-      <c r="F12" s="294" t="s">
+      <c r="E12" s="289"/>
+      <c r="F12" s="295" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="294"/>
-      <c r="H12" s="295" t="e">
+      <c r="G12" s="295"/>
+      <c r="H12" s="289" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="295"/>
+      <c r="I12" s="289"/>
       <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="197"/>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="295" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="295" t="e">
+      <c r="C13" s="295"/>
+      <c r="D13" s="289" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="295"/>
-      <c r="F13" s="294" t="s">
+      <c r="E13" s="289"/>
+      <c r="F13" s="295" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="294"/>
-      <c r="H13" s="295" t="e">
+      <c r="G13" s="295"/>
+      <c r="H13" s="289" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="295"/>
+      <c r="I13" s="289"/>
       <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="197"/>
-      <c r="B14" s="294" t="s">
+      <c r="B14" s="295" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="294"/>
-      <c r="D14" s="295" t="e">
+      <c r="C14" s="295"/>
+      <c r="D14" s="289" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="295"/>
-      <c r="F14" s="294" t="s">
+      <c r="E14" s="289"/>
+      <c r="F14" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="294"/>
+      <c r="G14" s="295"/>
       <c r="H14" s="296" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
@@ -11087,19 +11087,19 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="197"/>
-      <c r="B15" s="294"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="294" t="s">
+      <c r="B15" s="295"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="295" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="294"/>
-      <c r="H15" s="295" t="e">
+      <c r="G15" s="295"/>
+      <c r="H15" s="289" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="295"/>
+      <c r="I15" s="289"/>
       <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:13">
@@ -11384,85 +11384,85 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="197"/>
-      <c r="B39" s="292" t="s">
+      <c r="B39" s="288" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="292"/>
-      <c r="D39" s="295" t="e">
+      <c r="C39" s="288"/>
+      <c r="D39" s="289" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E39" s="295"/>
-      <c r="F39" s="292" t="s">
+      <c r="E39" s="289"/>
+      <c r="F39" s="288" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="292"/>
-      <c r="H39" s="470" t="e">
+      <c r="G39" s="288"/>
+      <c r="H39" s="294" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I39" s="470"/>
+      <c r="I39" s="294"/>
       <c r="J39" s="197"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="197"/>
-      <c r="B40" s="292" t="s">
+      <c r="B40" s="288" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="292"/>
-      <c r="D40" s="295" t="e">
+      <c r="C40" s="288"/>
+      <c r="D40" s="289" t="e">
         <f>IF(Thresholds_Modulus_Name="","",Thresholds_Modulus_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E40" s="295"/>
-      <c r="F40" s="292" t="s">
+      <c r="E40" s="289"/>
+      <c r="F40" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="292"/>
-      <c r="H40" s="295" t="e">
+      <c r="G40" s="288"/>
+      <c r="H40" s="289" t="e">
         <f>MAX(Pi_Number)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I40" s="295"/>
+      <c r="I40" s="289"/>
       <c r="J40" s="197"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="197"/>
-      <c r="B41" s="292" t="s">
+      <c r="B41" s="288" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="292"/>
-      <c r="D41" s="295" t="e">
+      <c r="C41" s="288"/>
+      <c r="D41" s="289" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E41" s="295"/>
-      <c r="F41" s="292" t="s">
+      <c r="E41" s="289"/>
+      <c r="F41" s="288" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="292"/>
-      <c r="H41" s="295" t="e" cm="1">
+      <c r="G41" s="288"/>
+      <c r="H41" s="289" t="e" cm="1">
         <f t="array" ref="H41">COUNTIF(Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I41" s="295"/>
+      <c r="I41" s="289"/>
       <c r="J41" s="197"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="197"/>
-      <c r="B42" s="292"/>
-      <c r="C42" s="292"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="295"/>
-      <c r="F42" s="292" t="s">
+      <c r="B42" s="288"/>
+      <c r="C42" s="288"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="288" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="292"/>
-      <c r="H42" s="298" t="e">
+      <c r="G42" s="288"/>
+      <c r="H42" s="290" t="e">
         <f>H41/H40</f>
         <v>#NAME?</v>
       </c>
-      <c r="I42" s="298"/>
+      <c r="I42" s="290"/>
       <c r="J42" s="197"/>
     </row>
     <row r="43" spans="1:10">
@@ -11507,48 +11507,48 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="197"/>
-      <c r="B46" s="299" t="e">
+      <c r="B46" s="291" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
+      <c r="C46" s="291"/>
+      <c r="D46" s="291"/>
       <c r="E46" s="197"/>
-      <c r="F46" s="300" t="s">
+      <c r="F46" s="292" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="300"/>
-      <c r="H46" s="300" t="s">
+      <c r="G46" s="292"/>
+      <c r="H46" s="292" t="s">
         <v>118</v>
       </c>
-      <c r="I46" s="300"/>
+      <c r="I46" s="292"/>
       <c r="J46" s="197"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="197"/>
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
+      <c r="B47" s="291"/>
+      <c r="C47" s="291"/>
+      <c r="D47" s="291"/>
       <c r="E47" s="197"/>
-      <c r="F47" s="301" t="e">
+      <c r="F47" s="293" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G47" s="301"/>
-      <c r="H47" s="300"/>
-      <c r="I47" s="300"/>
+      <c r="G47" s="293"/>
+      <c r="H47" s="292"/>
+      <c r="I47" s="292"/>
       <c r="J47" s="197"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="197"/>
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
+      <c r="B48" s="291"/>
+      <c r="C48" s="291"/>
+      <c r="D48" s="291"/>
       <c r="E48" s="197"/>
-      <c r="F48" s="301"/>
-      <c r="G48" s="301"/>
-      <c r="H48" s="300"/>
-      <c r="I48" s="300"/>
+      <c r="F48" s="293"/>
+      <c r="G48" s="293"/>
+      <c r="H48" s="292"/>
+      <c r="I48" s="292"/>
       <c r="J48" s="197"/>
     </row>
     <row r="49" spans="1:10">
@@ -11585,10 +11585,10 @@
       <c r="E51" s="197"/>
       <c r="F51" s="197"/>
       <c r="G51" s="197"/>
-      <c r="H51" s="297" t="s">
+      <c r="H51" s="287" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="297"/>
+      <c r="I51" s="287"/>
       <c r="J51" s="197"/>
     </row>
     <row r="52" spans="1:10">
@@ -11619,6 +11619,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
@@ -11633,44 +11671,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="F47:G48"/>
     <mergeCell ref="H47:I48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11718,12 +11718,12 @@
       <c r="A2" s="2"/>
       <c r="B2" s="205"/>
       <c r="C2" s="206"/>
-      <c r="D2" s="305" t="s">
+      <c r="D2" s="370" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
       <c r="H2" s="206"/>
       <c r="I2" s="207"/>
       <c r="J2" s="2"/>
@@ -11732,12 +11732,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="208"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="306" t="s">
+      <c r="D3" s="371" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="306"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
       <c r="H3" s="2"/>
       <c r="I3" s="209"/>
       <c r="J3" s="2"/>
@@ -11746,12 +11746,12 @@
       <c r="A4" s="2"/>
       <c r="B4" s="208"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="306" t="s">
+      <c r="D4" s="371" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
       <c r="H4" s="2"/>
       <c r="I4" s="209"/>
       <c r="J4" s="2"/>
@@ -11760,12 +11760,12 @@
       <c r="A5" s="2"/>
       <c r="B5" s="208"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="306" t="s">
+      <c r="D5" s="371" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
       <c r="H5" s="2"/>
       <c r="I5" s="209"/>
       <c r="J5" s="2"/>
@@ -11784,44 +11784,44 @@
     </row>
     <row r="7" spans="1:16" ht="52" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="307" t="s">
+      <c r="B7" s="372" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="308"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="309"/>
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="373"/>
+      <c r="H7" s="373"/>
+      <c r="I7" s="374"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="29.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="302" t="s">
+      <c r="B8" s="367" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="304"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
+      <c r="G8" s="368"/>
+      <c r="H8" s="368"/>
+      <c r="I8" s="369"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1" thickBot="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="326" t="s">
+      <c r="B9" s="352" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="327"/>
-      <c r="D9" s="327"/>
-      <c r="E9" s="327"/>
-      <c r="F9" s="327"/>
-      <c r="G9" s="327"/>
-      <c r="H9" s="327"/>
-      <c r="I9" s="328"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="354"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
@@ -11840,11 +11840,11 @@
     <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="329" t="s">
+      <c r="C11" s="303" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="329"/>
-      <c r="E11" s="329"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -11855,9 +11855,9 @@
     <row r="12" spans="1:16" ht="14.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="205"/>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
       <c r="F12" s="211"/>
       <c r="G12" s="212"/>
       <c r="H12" s="206"/>
@@ -11867,70 +11867,70 @@
     </row>
     <row r="13" spans="1:16" ht="25" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="330" t="s">
+      <c r="B13" s="355" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="331"/>
-      <c r="D13" s="332" t="e">
+      <c r="C13" s="356"/>
+      <c r="D13" s="357" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="333"/>
-      <c r="F13" s="334" t="s">
+      <c r="E13" s="358"/>
+      <c r="F13" s="327" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="335"/>
-      <c r="H13" s="336" t="e">
+      <c r="G13" s="328"/>
+      <c r="H13" s="325" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="337"/>
+      <c r="I13" s="351"/>
       <c r="J13" s="2"/>
       <c r="M13" s="210"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="310" t="s">
+      <c r="B14" s="359" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="311"/>
-      <c r="D14" s="312" t="e">
+      <c r="C14" s="360"/>
+      <c r="D14" s="361" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="313"/>
-      <c r="F14" s="314" t="s">
+      <c r="E14" s="362"/>
+      <c r="F14" s="335" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="315"/>
-      <c r="H14" s="316" t="e">
+      <c r="G14" s="336"/>
+      <c r="H14" s="333" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="317"/>
+      <c r="I14" s="350"/>
       <c r="J14" s="2"/>
       <c r="M14" s="210"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="318" t="s">
+      <c r="B15" s="363" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="319"/>
-      <c r="D15" s="320" t="e">
+      <c r="C15" s="364"/>
+      <c r="D15" s="365" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E15" s="321"/>
-      <c r="F15" s="322" t="s">
+      <c r="E15" s="366"/>
+      <c r="F15" s="343" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="323"/>
-      <c r="H15" s="324" t="e">
+      <c r="G15" s="344"/>
+      <c r="H15" s="347" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="325"/>
+      <c r="I15" s="349"/>
       <c r="J15" s="2"/>
       <c r="M15" s="210"/>
     </row>
@@ -11952,11 +11952,11 @@
     <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="329" t="s">
+      <c r="C17" s="303" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="329"/>
-      <c r="E17" s="329"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -11969,9 +11969,9 @@
     <row r="18" spans="1:16" ht="14.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="205"/>
-      <c r="C18" s="329"/>
-      <c r="D18" s="329"/>
-      <c r="E18" s="329"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="303"/>
       <c r="F18" s="211"/>
       <c r="G18" s="212"/>
       <c r="H18" s="206"/>
@@ -11983,63 +11983,63 @@
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="344" t="s">
+      <c r="B19" s="323" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="345"/>
-      <c r="D19" s="336" t="e">
+      <c r="C19" s="324"/>
+      <c r="D19" s="325" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="346"/>
-      <c r="F19" s="334" t="s">
+      <c r="E19" s="326"/>
+      <c r="F19" s="327" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="335"/>
-      <c r="H19" s="336" t="e">
+      <c r="G19" s="328"/>
+      <c r="H19" s="325" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="337"/>
+      <c r="I19" s="351"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="341" t="s">
+      <c r="B20" s="331" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="342"/>
-      <c r="D20" s="316" t="e">
+      <c r="C20" s="332"/>
+      <c r="D20" s="333" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E20" s="343"/>
-      <c r="F20" s="314" t="s">
+      <c r="E20" s="334"/>
+      <c r="F20" s="335" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="315"/>
-      <c r="H20" s="316" t="e">
+      <c r="G20" s="336"/>
+      <c r="H20" s="333" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="317"/>
+      <c r="I20" s="350"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="338" t="s">
+      <c r="B21" s="339" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="339"/>
-      <c r="D21" s="324" t="e">
+      <c r="C21" s="340"/>
+      <c r="D21" s="347" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="340"/>
-      <c r="F21" s="322"/>
-      <c r="G21" s="323"/>
-      <c r="H21" s="324"/>
-      <c r="I21" s="325"/>
+      <c r="E21" s="348"/>
+      <c r="F21" s="343"/>
+      <c r="G21" s="344"/>
+      <c r="H21" s="347"/>
+      <c r="I21" s="349"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="30.5" customHeight="1">
@@ -12057,11 +12057,11 @@
     <row r="23" spans="1:16" ht="15.65" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="329" t="s">
+      <c r="C23" s="303" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="329"/>
-      <c r="E23" s="329"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -12071,9 +12071,9 @@
     <row r="24" spans="1:16" ht="15.65" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="205"/>
-      <c r="C24" s="329"/>
-      <c r="D24" s="329"/>
-      <c r="E24" s="329"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="303"/>
       <c r="F24" s="211"/>
       <c r="G24" s="212"/>
       <c r="H24" s="206"/>
@@ -12082,24 +12082,24 @@
     </row>
     <row r="25" spans="1:16" ht="25" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="344" t="s">
+      <c r="B25" s="323" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="345"/>
-      <c r="D25" s="336" t="e">
+      <c r="C25" s="324"/>
+      <c r="D25" s="325" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="346"/>
-      <c r="F25" s="334" t="s">
+      <c r="E25" s="326"/>
+      <c r="F25" s="327" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="335"/>
-      <c r="H25" s="353" t="e">
+      <c r="G25" s="328"/>
+      <c r="H25" s="329" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I25" s="354" t="e">
+      <c r="I25" s="330" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12107,24 +12107,24 @@
     </row>
     <row r="26" spans="1:16" ht="25" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="341" t="s">
+      <c r="B26" s="331" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="342"/>
-      <c r="D26" s="316" t="e">
+      <c r="C26" s="332"/>
+      <c r="D26" s="333" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="343"/>
-      <c r="F26" s="314" t="s">
+      <c r="E26" s="334"/>
+      <c r="F26" s="335" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="315"/>
-      <c r="H26" s="347" t="e">
+      <c r="G26" s="336"/>
+      <c r="H26" s="337" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I26" s="348" t="e">
+      <c r="I26" s="338" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12132,19 +12132,19 @@
     </row>
     <row r="27" spans="1:16" ht="25" customHeight="1" thickBot="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="338"/>
-      <c r="C27" s="339"/>
-      <c r="D27" s="349"/>
-      <c r="E27" s="350"/>
-      <c r="F27" s="322" t="s">
+      <c r="B27" s="339"/>
+      <c r="C27" s="340"/>
+      <c r="D27" s="341"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="343" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="323"/>
-      <c r="H27" s="351" t="e">
+      <c r="G27" s="344"/>
+      <c r="H27" s="345" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I27" s="352" t="e">
+      <c r="I27" s="346" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12165,11 +12165,11 @@
     <row r="29" spans="1:16" ht="14.5" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="329" t="s">
+      <c r="C29" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="329"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="303"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -12179,9 +12179,9 @@
     <row r="30" spans="1:16">
       <c r="A30" s="2"/>
       <c r="B30" s="205"/>
-      <c r="C30" s="329"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="329"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="303"/>
       <c r="F30" s="206"/>
       <c r="G30" s="206"/>
       <c r="H30" s="206"/>
@@ -12190,53 +12190,53 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="369" t="s">
+      <c r="B31" s="318" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="370"/>
-      <c r="D31" s="370"/>
-      <c r="E31" s="370"/>
-      <c r="F31" s="371" t="s">
+      <c r="C31" s="319"/>
+      <c r="D31" s="319"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="320" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="371"/>
-      <c r="H31" s="372" t="s">
+      <c r="G31" s="320"/>
+      <c r="H31" s="321" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="373"/>
+      <c r="I31" s="322"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="35.5" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="355" t="e">
+      <c r="B32" s="304" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C32" s="356"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="357"/>
-      <c r="F32" s="361" t="e">
+      <c r="C32" s="305"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="306"/>
+      <c r="F32" s="310" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G32" s="362"/>
-      <c r="H32" s="363" t="e">
+      <c r="G32" s="311"/>
+      <c r="H32" s="312" t="e">
         <f>IF(Project_Comment="","",Project_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I32" s="364"/>
+      <c r="I32" s="313"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="358"/>
-      <c r="C33" s="359"/>
-      <c r="D33" s="359"/>
-      <c r="E33" s="360"/>
-      <c r="F33" s="365"/>
-      <c r="G33" s="366"/>
-      <c r="H33" s="367"/>
-      <c r="I33" s="368"/>
+      <c r="B33" s="307"/>
+      <c r="C33" s="308"/>
+      <c r="D33" s="308"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="314"/>
+      <c r="G33" s="315"/>
+      <c r="H33" s="316"/>
+      <c r="I33" s="317"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
@@ -12291,28 +12291,26 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -12326,26 +12324,28 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12394,13 +12394,13 @@
       <c r="D2" s="217"/>
       <c r="E2" s="217"/>
       <c r="F2" s="218"/>
-      <c r="G2" s="382" t="s">
+      <c r="G2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="383"/>
-      <c r="I2" s="383"/>
-      <c r="J2" s="383"/>
-      <c r="K2" s="384"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="391"/>
       <c r="L2" s="216"/>
       <c r="M2" s="217"/>
       <c r="N2" s="217"/>
@@ -12415,19 +12415,19 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="220"/>
-      <c r="G3" s="385" t="e">
+      <c r="G3" s="392" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="387"/>
-      <c r="L3" s="388"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="390"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="381"/>
+      <c r="N3" s="381"/>
+      <c r="O3" s="381"/>
+      <c r="P3" s="396"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1">
@@ -12437,19 +12437,19 @@
       <c r="D4" s="222"/>
       <c r="E4" s="222"/>
       <c r="F4" s="223"/>
-      <c r="G4" s="391" t="e">
+      <c r="G4" s="397" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H4" s="392"/>
-      <c r="I4" s="392"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="393"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="395"/>
-      <c r="N4" s="395"/>
-      <c r="O4" s="395"/>
-      <c r="P4" s="396"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="400"/>
+      <c r="M4" s="401"/>
+      <c r="N4" s="401"/>
+      <c r="O4" s="401"/>
+      <c r="P4" s="402"/>
       <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickTop="1">
@@ -12483,18 +12483,18 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="380" t="s">
+      <c r="J6" s="388" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="380"/>
-      <c r="L6" s="381" t="e">
+      <c r="K6" s="388"/>
+      <c r="L6" s="375" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M6" s="381"/>
-      <c r="N6" s="381"/>
-      <c r="O6" s="381"/>
-      <c r="P6" s="381"/>
+      <c r="M6" s="375"/>
+      <c r="N6" s="375"/>
+      <c r="O6" s="375"/>
+      <c r="P6" s="375"/>
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17">
@@ -12509,18 +12509,18 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="397" t="s">
+      <c r="J7" s="403" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="397"/>
-      <c r="L7" s="381" t="e">
+      <c r="K7" s="403"/>
+      <c r="L7" s="375" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="381"/>
-      <c r="N7" s="381"/>
-      <c r="O7" s="381"/>
-      <c r="P7" s="381"/>
+      <c r="M7" s="375"/>
+      <c r="N7" s="375"/>
+      <c r="O7" s="375"/>
+      <c r="P7" s="375"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17">
@@ -12535,18 +12535,18 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="397" t="s">
+      <c r="J8" s="403" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="397"/>
-      <c r="L8" s="381" t="e">
+      <c r="K8" s="403"/>
+      <c r="L8" s="375" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
+      <c r="M8" s="375"/>
+      <c r="N8" s="375"/>
+      <c r="O8" s="375"/>
+      <c r="P8" s="375"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17">
@@ -12561,13 +12561,13 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="381"/>
-      <c r="M9" s="381"/>
-      <c r="N9" s="381"/>
-      <c r="O9" s="381"/>
-      <c r="P9" s="381"/>
+      <c r="J9" s="375"/>
+      <c r="K9" s="375"/>
+      <c r="L9" s="375"/>
+      <c r="M9" s="375"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="375"/>
+      <c r="P9" s="375"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17">
@@ -12582,15 +12582,15 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="397" t="s">
+      <c r="J10" s="403" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="397"/>
-      <c r="L10" s="381"/>
-      <c r="M10" s="381"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="381"/>
-      <c r="P10" s="381"/>
+      <c r="K10" s="403"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17">
@@ -12603,13 +12603,13 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="381"/>
-      <c r="K11" s="381"/>
-      <c r="L11" s="381"/>
-      <c r="M11" s="381"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="381"/>
-      <c r="P11" s="381"/>
+      <c r="J11" s="375"/>
+      <c r="K11" s="375"/>
+      <c r="L11" s="375"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="375"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17">
@@ -12624,13 +12624,13 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="381"/>
-      <c r="K12" s="381"/>
-      <c r="L12" s="381"/>
-      <c r="M12" s="381"/>
-      <c r="N12" s="381"/>
-      <c r="O12" s="381"/>
-      <c r="P12" s="381"/>
+      <c r="J12" s="375"/>
+      <c r="K12" s="375"/>
+      <c r="L12" s="375"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17">
@@ -12645,13 +12645,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="381"/>
-      <c r="K13" s="381"/>
-      <c r="L13" s="381"/>
-      <c r="M13" s="381"/>
-      <c r="N13" s="381"/>
-      <c r="O13" s="381"/>
-      <c r="P13" s="381"/>
+      <c r="J13" s="375"/>
+      <c r="K13" s="375"/>
+      <c r="L13" s="375"/>
+      <c r="M13" s="375"/>
+      <c r="N13" s="375"/>
+      <c r="O13" s="375"/>
+      <c r="P13" s="375"/>
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17">
@@ -12683,40 +12683,40 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="381" t="str">
+      <c r="J15" s="375" t="str">
         <f ca="1">"Le "&amp;TEXT(TODAY(),"JJ MMMM AAAA")</f>
-        <v>Le 12 février 2023</v>
-      </c>
-      <c r="K15" s="381"/>
-      <c r="L15" s="381"/>
-      <c r="M15" s="381"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="381"/>
-      <c r="P15" s="381"/>
+        <v>Le 06 mars 2023</v>
+      </c>
+      <c r="K15" s="375"/>
+      <c r="L15" s="375"/>
+      <c r="M15" s="375"/>
+      <c r="N15" s="375"/>
+      <c r="O15" s="375"/>
+      <c r="P15" s="375"/>
       <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" thickTop="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="401" t="s">
+      <c r="B16" s="379" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="401"/>
-      <c r="D16" s="401"/>
-      <c r="E16" s="401"/>
-      <c r="F16" s="402" t="e" cm="1">
+      <c r="C16" s="379"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380" t="e" cm="1">
         <f t="array" ref="F16">IF(_xlfn.SINGLE(Project_Name)="","",_xlfn.SINGLE(Project_Name) &amp; " - " &amp;Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="402"/>
-      <c r="H16" s="402"/>
-      <c r="I16" s="402"/>
-      <c r="J16" s="402"/>
-      <c r="K16" s="402"/>
-      <c r="L16" s="402"/>
-      <c r="M16" s="402"/>
-      <c r="N16" s="402"/>
-      <c r="O16" s="402"/>
-      <c r="P16" s="402"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="380"/>
+      <c r="K16" s="380"/>
+      <c r="L16" s="380"/>
+      <c r="M16" s="380"/>
+      <c r="N16" s="380"/>
+      <c r="O16" s="380"/>
+      <c r="P16" s="380"/>
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" s="229" customFormat="1" ht="19.5" customHeight="1">
@@ -12767,17 +12767,17 @@
       <c r="C19" s="231"/>
       <c r="D19" s="231"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="389"/>
-      <c r="G19" s="389"/>
-      <c r="H19" s="389"/>
-      <c r="I19" s="389"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="389"/>
-      <c r="L19" s="389"/>
-      <c r="M19" s="389"/>
-      <c r="N19" s="389"/>
-      <c r="O19" s="389"/>
-      <c r="P19" s="389"/>
+      <c r="F19" s="381"/>
+      <c r="G19" s="381"/>
+      <c r="H19" s="381"/>
+      <c r="I19" s="381"/>
+      <c r="J19" s="381"/>
+      <c r="K19" s="381"/>
+      <c r="L19" s="381"/>
+      <c r="M19" s="381"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="381"/>
+      <c r="P19" s="381"/>
       <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17">
@@ -12801,45 +12801,45 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="11"/>
-      <c r="B21" s="381" t="e" cm="1">
+      <c r="B21" s="375" t="e" cm="1">
         <f t="array" ref="B21">"Suite à votre demande, nous sommes intervenus le " &amp; IF(LEN(DAY(_xlfn.SINGLE(Report_Date))) = 1, "0" &amp; DAY(Report_Date),DAY(Report_Date)) &amp; "/" &amp; IF(LEN(MONTH(Report_Date)) = 1, "0" &amp; MONTH(Report_Date),MONTH(Report_Date))  &amp; "/" &amp; YEAR(Report_Date)&amp;" sur le chantier cité en objet."</f>
         <v>#NAME?</v>
       </c>
-      <c r="C21" s="381"/>
-      <c r="D21" s="381"/>
-      <c r="E21" s="381"/>
-      <c r="F21" s="381"/>
-      <c r="G21" s="381"/>
-      <c r="H21" s="381"/>
-      <c r="I21" s="381"/>
-      <c r="J21" s="381"/>
-      <c r="K21" s="381"/>
-      <c r="L21" s="381"/>
-      <c r="M21" s="381"/>
-      <c r="N21" s="381"/>
-      <c r="O21" s="381"/>
-      <c r="P21" s="381"/>
+      <c r="C21" s="375"/>
+      <c r="D21" s="375"/>
+      <c r="E21" s="375"/>
+      <c r="F21" s="375"/>
+      <c r="G21" s="375"/>
+      <c r="H21" s="375"/>
+      <c r="I21" s="375"/>
+      <c r="J21" s="375"/>
+      <c r="K21" s="375"/>
+      <c r="L21" s="375"/>
+      <c r="M21" s="375"/>
+      <c r="N21" s="375"/>
+      <c r="O21" s="375"/>
+      <c r="P21" s="375"/>
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="11"/>
-      <c r="B22" s="381" t="s">
+      <c r="B22" s="375" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="381"/>
-      <c r="D22" s="381"/>
-      <c r="E22" s="381"/>
-      <c r="F22" s="381"/>
-      <c r="G22" s="381"/>
-      <c r="H22" s="381"/>
-      <c r="I22" s="381"/>
-      <c r="J22" s="381"/>
-      <c r="K22" s="381"/>
-      <c r="L22" s="381"/>
-      <c r="M22" s="381"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="381"/>
-      <c r="P22" s="381"/>
+      <c r="C22" s="375"/>
+      <c r="D22" s="375"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="375"/>
+      <c r="I22" s="375"/>
+      <c r="J22" s="375"/>
+      <c r="K22" s="375"/>
+      <c r="L22" s="375"/>
+      <c r="M22" s="375"/>
+      <c r="N22" s="375"/>
+      <c r="O22" s="375"/>
+      <c r="P22" s="375"/>
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="15" thickBot="1">
@@ -12863,102 +12863,102 @@
     </row>
     <row r="24" spans="1:17" ht="33" customHeight="1" thickTop="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="398" t="s">
+      <c r="B24" s="376" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="399"/>
-      <c r="D24" s="399"/>
-      <c r="E24" s="399"/>
-      <c r="F24" s="399"/>
-      <c r="G24" s="399"/>
-      <c r="H24" s="399"/>
-      <c r="I24" s="399"/>
-      <c r="J24" s="399"/>
-      <c r="K24" s="399"/>
-      <c r="L24" s="399"/>
-      <c r="M24" s="399"/>
-      <c r="N24" s="399"/>
-      <c r="O24" s="399"/>
-      <c r="P24" s="400"/>
+      <c r="C24" s="377"/>
+      <c r="D24" s="377"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="377"/>
+      <c r="G24" s="377"/>
+      <c r="H24" s="377"/>
+      <c r="I24" s="377"/>
+      <c r="J24" s="377"/>
+      <c r="K24" s="377"/>
+      <c r="L24" s="377"/>
+      <c r="M24" s="377"/>
+      <c r="N24" s="377"/>
+      <c r="O24" s="377"/>
+      <c r="P24" s="378"/>
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="11"/>
-      <c r="B25" s="374" t="e">
+      <c r="B25" s="382" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C25" s="375"/>
-      <c r="D25" s="375"/>
-      <c r="E25" s="375"/>
-      <c r="F25" s="375"/>
-      <c r="G25" s="375"/>
-      <c r="H25" s="375"/>
-      <c r="I25" s="375"/>
-      <c r="J25" s="375"/>
-      <c r="K25" s="375"/>
-      <c r="L25" s="375"/>
-      <c r="M25" s="375"/>
-      <c r="N25" s="375"/>
-      <c r="O25" s="375"/>
-      <c r="P25" s="376"/>
+      <c r="C25" s="383"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="383"/>
+      <c r="F25" s="383"/>
+      <c r="G25" s="383"/>
+      <c r="H25" s="383"/>
+      <c r="I25" s="383"/>
+      <c r="J25" s="383"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="383"/>
+      <c r="N25" s="383"/>
+      <c r="O25" s="383"/>
+      <c r="P25" s="384"/>
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="11"/>
-      <c r="B26" s="377"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="378"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="378"/>
-      <c r="H26" s="378"/>
-      <c r="I26" s="378"/>
-      <c r="J26" s="378"/>
-      <c r="K26" s="378"/>
-      <c r="L26" s="378"/>
-      <c r="M26" s="378"/>
-      <c r="N26" s="378"/>
-      <c r="O26" s="378"/>
-      <c r="P26" s="379"/>
+      <c r="B26" s="385"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="386"/>
+      <c r="E26" s="386"/>
+      <c r="F26" s="386"/>
+      <c r="G26" s="386"/>
+      <c r="H26" s="386"/>
+      <c r="I26" s="386"/>
+      <c r="J26" s="386"/>
+      <c r="K26" s="386"/>
+      <c r="L26" s="386"/>
+      <c r="M26" s="386"/>
+      <c r="N26" s="386"/>
+      <c r="O26" s="386"/>
+      <c r="P26" s="387"/>
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="11"/>
-      <c r="B27" s="377"/>
-      <c r="C27" s="378"/>
-      <c r="D27" s="378"/>
-      <c r="E27" s="378"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="378"/>
-      <c r="H27" s="378"/>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="378"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="379"/>
+      <c r="B27" s="385"/>
+      <c r="C27" s="386"/>
+      <c r="D27" s="386"/>
+      <c r="E27" s="386"/>
+      <c r="F27" s="386"/>
+      <c r="G27" s="386"/>
+      <c r="H27" s="386"/>
+      <c r="I27" s="386"/>
+      <c r="J27" s="386"/>
+      <c r="K27" s="386"/>
+      <c r="L27" s="386"/>
+      <c r="M27" s="386"/>
+      <c r="N27" s="386"/>
+      <c r="O27" s="386"/>
+      <c r="P27" s="387"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="11"/>
-      <c r="B28" s="377"/>
-      <c r="C28" s="378"/>
-      <c r="D28" s="378"/>
-      <c r="E28" s="378"/>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="378"/>
-      <c r="I28" s="378"/>
-      <c r="J28" s="378"/>
-      <c r="K28" s="378"/>
-      <c r="L28" s="378"/>
-      <c r="M28" s="378"/>
-      <c r="N28" s="378"/>
-      <c r="O28" s="378"/>
-      <c r="P28" s="379"/>
+      <c r="B28" s="385"/>
+      <c r="C28" s="386"/>
+      <c r="D28" s="386"/>
+      <c r="E28" s="386"/>
+      <c r="F28" s="386"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="386"/>
+      <c r="I28" s="386"/>
+      <c r="J28" s="386"/>
+      <c r="K28" s="386"/>
+      <c r="L28" s="386"/>
+      <c r="M28" s="386"/>
+      <c r="N28" s="386"/>
+      <c r="O28" s="386"/>
+      <c r="P28" s="387"/>
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17">
@@ -13345,19 +13345,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:P16"/>
-    <mergeCell ref="F19:P19"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="B21:P21"/>
     <mergeCell ref="B25:P28"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:P6"/>
@@ -13374,6 +13361,19 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:P10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:P16"/>
+    <mergeCell ref="F19:P19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -13421,15 +13421,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="280" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -13462,51 +13462,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="248" t="s">
+      <c r="D5" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="409"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="409"/>
-      <c r="D6" s="249" t="s">
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="409"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="249" t="s">
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="409"/>
-      <c r="B8" s="409"/>
-      <c r="C8" s="409"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13517,9 +13517,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="409"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="409"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13531,17 +13531,17 @@
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="410" t="s">
+      <c r="B10" s="414" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="411"/>
-      <c r="J10" s="412"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1">
@@ -13550,20 +13550,20 @@
       <c r="C11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="244" t="e">
+      <c r="D11" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
+        <v>44991</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -13573,13 +13573,13 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="256" t="e">
+      <c r="D12" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="261"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
         <v>1</v>
@@ -13596,13 +13596,13 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="259" t="e">
+      <c r="D13" s="268" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
         <v>30</v>
@@ -13628,17 +13628,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="410" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="411"/>
-      <c r="D15" s="411"/>
-      <c r="E15" s="411"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="411"/>
-      <c r="J15" s="412"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -13677,11 +13677,11 @@
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="413" t="s">
+      <c r="H17" s="408" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="414"/>
-      <c r="J17" s="415"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="410"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -13705,9 +13705,9 @@
         <f t="array" ref="G18">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="416"/>
-      <c r="I18" s="417"/>
-      <c r="J18" s="418"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -13721,9 +13721,9 @@
         <f t="array" ref="G19">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="404"/>
-      <c r="J19" s="405"/>
+      <c r="H19" s="405"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -13737,9 +13737,9 @@
         <f t="array" ref="G20">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H20" s="403"/>
-      <c r="I20" s="404"/>
-      <c r="J20" s="405"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -13753,9 +13753,9 @@
         <f t="array" ref="G21">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H21" s="403"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -13769,9 +13769,9 @@
         <f t="array" ref="G22">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H22" s="403"/>
-      <c r="I22" s="404"/>
-      <c r="J22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -13785,9 +13785,9 @@
         <f t="array" ref="G23">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H23" s="403"/>
-      <c r="I23" s="404"/>
-      <c r="J23" s="405"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -13801,9 +13801,9 @@
         <f t="array" ref="G24">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H24" s="403"/>
-      <c r="I24" s="404"/>
-      <c r="J24" s="405"/>
+      <c r="H24" s="405"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -13817,9 +13817,9 @@
         <f t="array" ref="G25">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H25" s="403"/>
-      <c r="I25" s="404"/>
-      <c r="J25" s="405"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -13833,9 +13833,9 @@
         <f t="array" ref="G26">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H26" s="403"/>
-      <c r="I26" s="404"/>
-      <c r="J26" s="405"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -13849,9 +13849,9 @@
         <f t="array" ref="G27">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H27" s="403"/>
-      <c r="I27" s="404"/>
-      <c r="J27" s="405"/>
+      <c r="H27" s="405"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="407"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -13865,9 +13865,9 @@
         <f t="array" ref="G28">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H28" s="403"/>
-      <c r="I28" s="404"/>
-      <c r="J28" s="405"/>
+      <c r="H28" s="405"/>
+      <c r="I28" s="406"/>
+      <c r="J28" s="407"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -13881,9 +13881,9 @@
         <f t="array" ref="G29">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H29" s="403"/>
-      <c r="I29" s="404"/>
-      <c r="J29" s="405"/>
+      <c r="H29" s="405"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -13897,9 +13897,9 @@
         <f t="array" ref="G30">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H30" s="403"/>
-      <c r="I30" s="404"/>
-      <c r="J30" s="405"/>
+      <c r="H30" s="405"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -13913,9 +13913,9 @@
         <f t="array" ref="G31">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H31" s="403"/>
-      <c r="I31" s="404"/>
-      <c r="J31" s="405"/>
+      <c r="H31" s="405"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -13929,9 +13929,9 @@
         <f t="array" ref="G32">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H32" s="403"/>
-      <c r="I32" s="404"/>
-      <c r="J32" s="405"/>
+      <c r="H32" s="405"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -13945,9 +13945,9 @@
         <f t="array" ref="G33">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H33" s="403"/>
-      <c r="I33" s="404"/>
-      <c r="J33" s="405"/>
+      <c r="H33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -13961,9 +13961,9 @@
         <f t="array" ref="G34">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H34" s="403"/>
-      <c r="I34" s="404"/>
-      <c r="J34" s="405"/>
+      <c r="H34" s="405"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -13977,9 +13977,9 @@
         <f t="array" ref="G35">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H35" s="403"/>
-      <c r="I35" s="404"/>
-      <c r="J35" s="405"/>
+      <c r="H35" s="405"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -14009,9 +14009,9 @@
         <f t="array" ref="G37">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H37" s="403"/>
-      <c r="I37" s="404"/>
-      <c r="J37" s="405"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -14025,9 +14025,9 @@
         <f t="array" ref="G38">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H38" s="403"/>
-      <c r="I38" s="404"/>
-      <c r="J38" s="405"/>
+      <c r="H38" s="405"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="407"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -14041,9 +14041,9 @@
         <f t="array" ref="G39">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H39" s="403"/>
-      <c r="I39" s="404"/>
-      <c r="J39" s="405"/>
+      <c r="H39" s="405"/>
+      <c r="I39" s="406"/>
+      <c r="J39" s="407"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -14057,9 +14057,9 @@
         <f t="array" ref="G40">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H40" s="403"/>
-      <c r="I40" s="404"/>
-      <c r="J40" s="405"/>
+      <c r="H40" s="405"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="407"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -14073,9 +14073,9 @@
         <f t="array" ref="G41">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H41" s="403"/>
-      <c r="I41" s="404"/>
-      <c r="J41" s="405"/>
+      <c r="H41" s="405"/>
+      <c r="I41" s="406"/>
+      <c r="J41" s="407"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -14089,9 +14089,9 @@
         <f t="array" ref="G42">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H42" s="403"/>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="H42" s="405"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -14105,9 +14105,9 @@
         <f t="array" ref="G43">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H43" s="403"/>
-      <c r="I43" s="404"/>
-      <c r="J43" s="405"/>
+      <c r="H43" s="405"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -14121,9 +14121,9 @@
         <f t="array" ref="G44">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H44" s="403"/>
-      <c r="I44" s="404"/>
-      <c r="J44" s="405"/>
+      <c r="H44" s="405"/>
+      <c r="I44" s="406"/>
+      <c r="J44" s="407"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -14137,9 +14137,9 @@
         <f t="array" ref="G45">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H45" s="403"/>
-      <c r="I45" s="404"/>
-      <c r="J45" s="405"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="407"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -14153,9 +14153,9 @@
         <f t="array" ref="G46">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H46" s="403"/>
-      <c r="I46" s="404"/>
-      <c r="J46" s="405"/>
+      <c r="H46" s="405"/>
+      <c r="I46" s="406"/>
+      <c r="J46" s="407"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -14169,9 +14169,9 @@
         <f t="array" ref="G47">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H47" s="403"/>
-      <c r="I47" s="404"/>
-      <c r="J47" s="405"/>
+      <c r="H47" s="405"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="407"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -14185,9 +14185,9 @@
         <f t="array" ref="G48">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H48" s="406"/>
-      <c r="I48" s="407"/>
-      <c r="J48" s="408"/>
+      <c r="H48" s="417"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="419"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -14223,21 +14223,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -14254,19 +14252,21 @@
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14315,15 +14315,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="280" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -14356,51 +14356,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="248" t="s">
+      <c r="D5" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="409"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="409"/>
-      <c r="D6" s="249" t="s">
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="409"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="249" t="s">
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="409"/>
-      <c r="B8" s="409"/>
-      <c r="C8" s="409"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -14411,9 +14411,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="409"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="409"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -14425,17 +14425,17 @@
     </row>
     <row r="10" spans="1:14" ht="15.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="410" t="s">
+      <c r="B10" s="414" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="411"/>
-      <c r="J10" s="412"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" customHeight="1">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
+        <v>44991</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -14522,17 +14522,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="410" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="411"/>
-      <c r="D15" s="411"/>
-      <c r="E15" s="411"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="411"/>
-      <c r="J15" s="412"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -14571,11 +14571,11 @@
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="414" t="s">
+      <c r="H17" s="409" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="414"/>
-      <c r="J17" s="415"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="410"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -14600,8 +14600,8 @@
         <v/>
       </c>
       <c r="H18" s="142"/>
-      <c r="I18" s="417"/>
-      <c r="J18" s="418"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -14616,8 +14616,8 @@
         <v/>
       </c>
       <c r="H19" s="142"/>
-      <c r="I19" s="404"/>
-      <c r="J19" s="405"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -14632,8 +14632,8 @@
         <v/>
       </c>
       <c r="H20" s="142"/>
-      <c r="I20" s="404"/>
-      <c r="J20" s="405"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -14648,8 +14648,8 @@
         <v/>
       </c>
       <c r="H21" s="142"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -14664,8 +14664,8 @@
         <v/>
       </c>
       <c r="H22" s="142"/>
-      <c r="I22" s="404"/>
-      <c r="J22" s="405"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -14680,8 +14680,8 @@
         <v/>
       </c>
       <c r="H23" s="142"/>
-      <c r="I23" s="404"/>
-      <c r="J23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -14696,8 +14696,8 @@
         <v/>
       </c>
       <c r="H24" s="142"/>
-      <c r="I24" s="404"/>
-      <c r="J24" s="405"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -14712,8 +14712,8 @@
         <v/>
       </c>
       <c r="H25" s="142"/>
-      <c r="I25" s="404"/>
-      <c r="J25" s="405"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -14728,8 +14728,8 @@
         <v/>
       </c>
       <c r="H26" s="142"/>
-      <c r="I26" s="404"/>
-      <c r="J26" s="405"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -14744,8 +14744,8 @@
         <v/>
       </c>
       <c r="H27" s="142"/>
-      <c r="I27" s="404"/>
-      <c r="J27" s="405"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="407"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -14760,8 +14760,8 @@
         <v/>
       </c>
       <c r="H28" s="142"/>
-      <c r="I28" s="404"/>
-      <c r="J28" s="405"/>
+      <c r="I28" s="406"/>
+      <c r="J28" s="407"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -14776,8 +14776,8 @@
         <v/>
       </c>
       <c r="H29" s="142"/>
-      <c r="I29" s="404"/>
-      <c r="J29" s="405"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -14792,8 +14792,8 @@
         <v/>
       </c>
       <c r="H30" s="142"/>
-      <c r="I30" s="404"/>
-      <c r="J30" s="405"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -14808,8 +14808,8 @@
         <v/>
       </c>
       <c r="H31" s="142"/>
-      <c r="I31" s="404"/>
-      <c r="J31" s="405"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -14824,8 +14824,8 @@
         <v/>
       </c>
       <c r="H32" s="142"/>
-      <c r="I32" s="404"/>
-      <c r="J32" s="405"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -14840,8 +14840,8 @@
         <v/>
       </c>
       <c r="H33" s="142"/>
-      <c r="I33" s="404"/>
-      <c r="J33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -14856,8 +14856,8 @@
         <v/>
       </c>
       <c r="H34" s="142"/>
-      <c r="I34" s="404"/>
-      <c r="J34" s="405"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -14872,8 +14872,8 @@
         <v/>
       </c>
       <c r="H35" s="142"/>
-      <c r="I35" s="404"/>
-      <c r="J35" s="405"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -14888,8 +14888,8 @@
         <v/>
       </c>
       <c r="H36" s="142"/>
-      <c r="I36" s="404"/>
-      <c r="J36" s="405"/>
+      <c r="I36" s="406"/>
+      <c r="J36" s="407"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -14904,8 +14904,8 @@
         <v/>
       </c>
       <c r="H37" s="142"/>
-      <c r="I37" s="404"/>
-      <c r="J37" s="405"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -14920,8 +14920,8 @@
         <v/>
       </c>
       <c r="H38" s="142"/>
-      <c r="I38" s="404"/>
-      <c r="J38" s="405"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="407"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -14936,8 +14936,8 @@
         <v/>
       </c>
       <c r="H39" s="142"/>
-      <c r="I39" s="404"/>
-      <c r="J39" s="405"/>
+      <c r="I39" s="406"/>
+      <c r="J39" s="407"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -14952,8 +14952,8 @@
         <v/>
       </c>
       <c r="H40" s="142"/>
-      <c r="I40" s="404"/>
-      <c r="J40" s="405"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="407"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -14968,8 +14968,8 @@
         <v/>
       </c>
       <c r="H41" s="142"/>
-      <c r="I41" s="404"/>
-      <c r="J41" s="405"/>
+      <c r="I41" s="406"/>
+      <c r="J41" s="407"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -14984,8 +14984,8 @@
         <v/>
       </c>
       <c r="H42" s="142"/>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -15000,8 +15000,8 @@
         <v/>
       </c>
       <c r="H43" s="142"/>
-      <c r="I43" s="404"/>
-      <c r="J43" s="405"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -15016,8 +15016,8 @@
         <v/>
       </c>
       <c r="H44" s="142"/>
-      <c r="I44" s="404"/>
-      <c r="J44" s="405"/>
+      <c r="I44" s="406"/>
+      <c r="J44" s="407"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -15032,8 +15032,8 @@
         <v/>
       </c>
       <c r="H45" s="142"/>
-      <c r="I45" s="404"/>
-      <c r="J45" s="405"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="407"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -15048,8 +15048,8 @@
         <v/>
       </c>
       <c r="H46" s="142"/>
-      <c r="I46" s="404"/>
-      <c r="J46" s="405"/>
+      <c r="I46" s="406"/>
+      <c r="J46" s="407"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -15064,8 +15064,8 @@
         <v/>
       </c>
       <c r="H47" s="142"/>
-      <c r="I47" s="404"/>
-      <c r="J47" s="405"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="407"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -15080,8 +15080,8 @@
         <v/>
       </c>
       <c r="H48" s="150"/>
-      <c r="I48" s="407"/>
-      <c r="J48" s="408"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="419"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -15117,15 +15117,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="I18:J18"/>
@@ -15138,27 +15150,15 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15207,15 +15207,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="280" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
       <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="14.15" customHeight="1">
@@ -15248,51 +15248,51 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="248" t="s">
+      <c r="D5" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="409"/>
-      <c r="B6" s="409"/>
-      <c r="C6" s="409"/>
-      <c r="D6" s="249" t="s">
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
+      <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="409"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="249" t="s">
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="409"/>
-      <c r="B8" s="409"/>
-      <c r="C8" s="409"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15303,9 +15303,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="409"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="409"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -15317,17 +15317,17 @@
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="410" t="s">
+      <c r="B10" s="414" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="411"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="411"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="411"/>
-      <c r="J10" s="412"/>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1">
@@ -15336,12 +15336,12 @@
       <c r="C11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="244" t="e">
+      <c r="D11" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
       <c r="G11" s="105"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
+        <v>44991</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -15359,12 +15359,12 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="256" t="e">
+      <c r="D12" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
       <c r="G12" s="103"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
@@ -15382,12 +15382,12 @@
       <c r="C13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="259" t="e">
+      <c r="D13" s="268" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
       <c r="G13" s="109"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
@@ -15414,17 +15414,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="410" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="411"/>
-      <c r="D15" s="411"/>
-      <c r="E15" s="411"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="411"/>
-      <c r="J15" s="412"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -15460,12 +15460,12 @@
       <c r="F17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="420" t="s">
+      <c r="G17" s="421" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="420"/>
-      <c r="I17" s="421"/>
-      <c r="J17" s="421"/>
+      <c r="H17" s="421"/>
+      <c r="I17" s="422"/>
+      <c r="J17" s="422"/>
       <c r="K17" s="143"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -15486,10 +15486,10 @@
         <f t="array" ref="F18">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G18" s="419"/>
-      <c r="H18" s="419"/>
-      <c r="I18" s="419"/>
-      <c r="J18" s="419"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="420"/>
+      <c r="I18" s="420"/>
+      <c r="J18" s="420"/>
       <c r="K18" s="143" t="e" cm="1">
         <f t="array" ref="K18">Thresholds_Modulus_Value</f>
         <v>#NAME?</v>
@@ -15505,10 +15505,10 @@
         <f t="array" ref="F19">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G19" s="419"/>
-      <c r="H19" s="419"/>
-      <c r="I19" s="419"/>
-      <c r="J19" s="419"/>
+      <c r="G19" s="420"/>
+      <c r="H19" s="420"/>
+      <c r="I19" s="420"/>
+      <c r="J19" s="420"/>
       <c r="K19" s="143" t="e" cm="1">
         <f t="array" ref="K19">Thresholds_Modulus_Value</f>
         <v>#NAME?</v>
@@ -15524,10 +15524,10 @@
         <f t="array" ref="F20">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G20" s="419"/>
-      <c r="H20" s="419"/>
-      <c r="I20" s="419"/>
-      <c r="J20" s="419"/>
+      <c r="G20" s="420"/>
+      <c r="H20" s="420"/>
+      <c r="I20" s="420"/>
+      <c r="J20" s="420"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -15540,10 +15540,10 @@
         <f t="array" ref="F21">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="419"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="420"/>
+      <c r="J21" s="420"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -15556,10 +15556,10 @@
         <f t="array" ref="F22">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G22" s="419"/>
-      <c r="H22" s="419"/>
-      <c r="I22" s="419"/>
-      <c r="J22" s="419"/>
+      <c r="G22" s="420"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="420"/>
+      <c r="J22" s="420"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -15572,10 +15572,10 @@
         <f t="array" ref="F23">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G23" s="419"/>
-      <c r="H23" s="419"/>
-      <c r="I23" s="419"/>
-      <c r="J23" s="419"/>
+      <c r="G23" s="420"/>
+      <c r="H23" s="420"/>
+      <c r="I23" s="420"/>
+      <c r="J23" s="420"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -15588,10 +15588,10 @@
         <f t="array" ref="F24">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G24" s="419"/>
-      <c r="H24" s="419"/>
-      <c r="I24" s="419"/>
-      <c r="J24" s="419"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="420"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="420"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -15604,10 +15604,10 @@
         <f t="array" ref="F25">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G25" s="419"/>
-      <c r="H25" s="419"/>
-      <c r="I25" s="419"/>
-      <c r="J25" s="419"/>
+      <c r="G25" s="420"/>
+      <c r="H25" s="420"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="420"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -15620,10 +15620,10 @@
         <f t="array" ref="F26">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G26" s="419"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="419"/>
-      <c r="J26" s="419"/>
+      <c r="G26" s="420"/>
+      <c r="H26" s="420"/>
+      <c r="I26" s="420"/>
+      <c r="J26" s="420"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -15636,10 +15636,10 @@
         <f t="array" ref="F27">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G27" s="419"/>
-      <c r="H27" s="419"/>
-      <c r="I27" s="419"/>
-      <c r="J27" s="419"/>
+      <c r="G27" s="420"/>
+      <c r="H27" s="420"/>
+      <c r="I27" s="420"/>
+      <c r="J27" s="420"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -15652,10 +15652,10 @@
         <f t="array" ref="F28">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G28" s="419"/>
-      <c r="H28" s="419"/>
-      <c r="I28" s="419"/>
-      <c r="J28" s="419"/>
+      <c r="G28" s="420"/>
+      <c r="H28" s="420"/>
+      <c r="I28" s="420"/>
+      <c r="J28" s="420"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -15668,10 +15668,10 @@
         <f t="array" ref="F29">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G29" s="419"/>
-      <c r="H29" s="419"/>
-      <c r="I29" s="419"/>
-      <c r="J29" s="419"/>
+      <c r="G29" s="420"/>
+      <c r="H29" s="420"/>
+      <c r="I29" s="420"/>
+      <c r="J29" s="420"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -15684,10 +15684,10 @@
         <f t="array" ref="F30">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G30" s="419"/>
-      <c r="H30" s="419"/>
-      <c r="I30" s="419"/>
-      <c r="J30" s="419"/>
+      <c r="G30" s="420"/>
+      <c r="H30" s="420"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="420"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -15700,10 +15700,10 @@
         <f t="array" ref="F31">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G31" s="419"/>
-      <c r="H31" s="419"/>
-      <c r="I31" s="419"/>
-      <c r="J31" s="419"/>
+      <c r="G31" s="420"/>
+      <c r="H31" s="420"/>
+      <c r="I31" s="420"/>
+      <c r="J31" s="420"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -15716,10 +15716,10 @@
         <f t="array" ref="F32">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G32" s="419"/>
-      <c r="H32" s="419"/>
-      <c r="I32" s="419"/>
-      <c r="J32" s="419"/>
+      <c r="G32" s="420"/>
+      <c r="H32" s="420"/>
+      <c r="I32" s="420"/>
+      <c r="J32" s="420"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -15732,10 +15732,10 @@
         <f t="array" ref="F33">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G33" s="419"/>
-      <c r="H33" s="419"/>
-      <c r="I33" s="419"/>
-      <c r="J33" s="419"/>
+      <c r="G33" s="420"/>
+      <c r="H33" s="420"/>
+      <c r="I33" s="420"/>
+      <c r="J33" s="420"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -15748,10 +15748,10 @@
         <f t="array" ref="F34">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G34" s="419"/>
-      <c r="H34" s="419"/>
-      <c r="I34" s="419"/>
-      <c r="J34" s="419"/>
+      <c r="G34" s="420"/>
+      <c r="H34" s="420"/>
+      <c r="I34" s="420"/>
+      <c r="J34" s="420"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -15764,10 +15764,10 @@
         <f t="array" ref="F35">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G35" s="419"/>
-      <c r="H35" s="419"/>
-      <c r="I35" s="419"/>
-      <c r="J35" s="419"/>
+      <c r="G35" s="420"/>
+      <c r="H35" s="420"/>
+      <c r="I35" s="420"/>
+      <c r="J35" s="420"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -15780,10 +15780,10 @@
         <f t="array" ref="F36">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G36" s="419"/>
-      <c r="H36" s="419"/>
-      <c r="I36" s="419"/>
-      <c r="J36" s="419"/>
+      <c r="G36" s="420"/>
+      <c r="H36" s="420"/>
+      <c r="I36" s="420"/>
+      <c r="J36" s="420"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -15796,10 +15796,10 @@
         <f t="array" ref="F37">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G37" s="419"/>
-      <c r="H37" s="419"/>
-      <c r="I37" s="419"/>
-      <c r="J37" s="419"/>
+      <c r="G37" s="420"/>
+      <c r="H37" s="420"/>
+      <c r="I37" s="420"/>
+      <c r="J37" s="420"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -15812,10 +15812,10 @@
         <f t="array" ref="F38">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G38" s="419"/>
-      <c r="H38" s="419"/>
-      <c r="I38" s="419"/>
-      <c r="J38" s="419"/>
+      <c r="G38" s="420"/>
+      <c r="H38" s="420"/>
+      <c r="I38" s="420"/>
+      <c r="J38" s="420"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -15828,10 +15828,10 @@
         <f t="array" ref="F39">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G39" s="419"/>
-      <c r="H39" s="419"/>
-      <c r="I39" s="419"/>
-      <c r="J39" s="419"/>
+      <c r="G39" s="420"/>
+      <c r="H39" s="420"/>
+      <c r="I39" s="420"/>
+      <c r="J39" s="420"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -15844,10 +15844,10 @@
         <f t="array" ref="F40">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G40" s="419"/>
-      <c r="H40" s="419"/>
-      <c r="I40" s="419"/>
-      <c r="J40" s="419"/>
+      <c r="G40" s="420"/>
+      <c r="H40" s="420"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="420"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -15860,10 +15860,10 @@
         <f t="array" ref="F41">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G41" s="419"/>
-      <c r="H41" s="419"/>
-      <c r="I41" s="419"/>
-      <c r="J41" s="419"/>
+      <c r="G41" s="420"/>
+      <c r="H41" s="420"/>
+      <c r="I41" s="420"/>
+      <c r="J41" s="420"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -15876,10 +15876,10 @@
         <f t="array" ref="F42">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G42" s="419"/>
-      <c r="H42" s="419"/>
-      <c r="I42" s="419"/>
-      <c r="J42" s="419"/>
+      <c r="G42" s="420"/>
+      <c r="H42" s="420"/>
+      <c r="I42" s="420"/>
+      <c r="J42" s="420"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -15892,10 +15892,10 @@
         <f t="array" ref="F43">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G43" s="419"/>
-      <c r="H43" s="419"/>
-      <c r="I43" s="419"/>
-      <c r="J43" s="419"/>
+      <c r="G43" s="420"/>
+      <c r="H43" s="420"/>
+      <c r="I43" s="420"/>
+      <c r="J43" s="420"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -15908,10 +15908,10 @@
         <f t="array" ref="F44">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G44" s="419"/>
-      <c r="H44" s="419"/>
-      <c r="I44" s="419"/>
-      <c r="J44" s="419"/>
+      <c r="G44" s="420"/>
+      <c r="H44" s="420"/>
+      <c r="I44" s="420"/>
+      <c r="J44" s="420"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -15924,10 +15924,10 @@
         <f t="array" ref="F45">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G45" s="419"/>
-      <c r="H45" s="419"/>
-      <c r="I45" s="419"/>
-      <c r="J45" s="419"/>
+      <c r="G45" s="420"/>
+      <c r="H45" s="420"/>
+      <c r="I45" s="420"/>
+      <c r="J45" s="420"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -15940,10 +15940,10 @@
         <f t="array" ref="F46">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G46" s="419"/>
-      <c r="H46" s="419"/>
-      <c r="I46" s="419"/>
-      <c r="J46" s="419"/>
+      <c r="G46" s="420"/>
+      <c r="H46" s="420"/>
+      <c r="I46" s="420"/>
+      <c r="J46" s="420"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -15956,10 +15956,10 @@
         <f t="array" ref="F47">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G47" s="419"/>
-      <c r="H47" s="419"/>
-      <c r="I47" s="419"/>
-      <c r="J47" s="419"/>
+      <c r="G47" s="420"/>
+      <c r="H47" s="420"/>
+      <c r="I47" s="420"/>
+      <c r="J47" s="420"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -15972,10 +15972,10 @@
         <f t="array" ref="F48">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G48" s="419"/>
-      <c r="H48" s="419"/>
-      <c r="I48" s="419"/>
-      <c r="J48" s="419"/>
+      <c r="G48" s="420"/>
+      <c r="H48" s="420"/>
+      <c r="I48" s="420"/>
+      <c r="J48" s="420"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -16024,15 +16024,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G29:J29"/>
@@ -16045,30 +16060,15 @@
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.22058823529411764" bottom="0.40441176470588236" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16084,7 +16084,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J38" sqref="J38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -16120,17 +16120,17 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="463" t="s">
+      <c r="F2" s="426" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="464"/>
-      <c r="H2" s="464"/>
-      <c r="I2" s="465"/>
-      <c r="J2" s="466" t="s">
+      <c r="G2" s="427"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="428"/>
+      <c r="J2" s="429" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="467"/>
-      <c r="L2" s="468"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="431"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1">
@@ -16139,18 +16139,18 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="455" t="s">
+      <c r="F3" s="432" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="456"/>
-      <c r="J3" s="455" t="e">
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="433"/>
+      <c r="J3" s="432" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K3" s="271"/>
-      <c r="L3" s="456"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="433"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="7.5" customHeight="1">
@@ -16159,13 +16159,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="455"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="456"/>
-      <c r="J4" s="455"/>
-      <c r="K4" s="271"/>
-      <c r="L4" s="456"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="433"/>
+      <c r="J4" s="432"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="433"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
@@ -16182,11 +16182,11 @@
       <c r="I5" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="460" t="s">
+      <c r="J5" s="423" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="461"/>
-      <c r="L5" s="462"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="425"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="11.5" customHeight="1">
@@ -16195,22 +16195,22 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="449"/>
+      <c r="F6" s="434"/>
       <c r="G6" s="165"/>
-      <c r="H6" s="451" t="e">
+      <c r="H6" s="436" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I6" s="453">
+      <c r="I6" s="438">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
-      </c>
-      <c r="J6" s="455" t="e">
+        <v>44991</v>
+      </c>
+      <c r="J6" s="432" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K6" s="271"/>
-      <c r="L6" s="456"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="433"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="11.5" customHeight="1">
@@ -16219,13 +16219,13 @@
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
       <c r="E7" s="167"/>
-      <c r="F7" s="450"/>
+      <c r="F7" s="435"/>
       <c r="G7" s="168"/>
-      <c r="H7" s="452"/>
-      <c r="I7" s="454"/>
-      <c r="J7" s="457"/>
-      <c r="K7" s="458"/>
-      <c r="L7" s="459"/>
+      <c r="H7" s="437"/>
+      <c r="I7" s="439"/>
+      <c r="J7" s="440"/>
+      <c r="K7" s="441"/>
+      <c r="L7" s="442"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="23" customHeight="1">
@@ -16280,75 +16280,75 @@
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="161"/>
-      <c r="C11" s="448" t="s">
+      <c r="C11" s="443" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="448"/>
-      <c r="E11" s="448"/>
-      <c r="F11" s="448" t="e">
+      <c r="D11" s="443"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="443" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G11" s="448"/>
-      <c r="H11" s="448"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="443"/>
       <c r="I11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="448" t="e">
+      <c r="J11" s="443" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="448"/>
+      <c r="K11" s="443"/>
       <c r="L11" s="172"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="161"/>
-      <c r="C12" s="448" t="s">
+      <c r="C12" s="443" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="448"/>
-      <c r="E12" s="448"/>
-      <c r="F12" s="448" t="e">
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="443" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="448"/>
-      <c r="H12" s="448"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="443"/>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="448" t="e">
+      <c r="J12" s="443" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="448"/>
+      <c r="K12" s="443"/>
       <c r="L12" s="172"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="161"/>
-      <c r="C13" s="448" t="s">
+      <c r="C13" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="448"/>
-      <c r="E13" s="448"/>
-      <c r="F13" s="448" t="e">
+      <c r="D13" s="443"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="443" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="448"/>
-      <c r="H13" s="448"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="443"/>
       <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="448" t="e">
+      <c r="J13" s="443" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="448"/>
+      <c r="K13" s="443"/>
       <c r="L13" s="172"/>
       <c r="M13" s="2"/>
     </row>
@@ -16420,16 +16420,16 @@
       <c r="A18" s="2"/>
       <c r="B18" s="161"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="441" t="s">
+      <c r="D18" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="441"/>
-      <c r="F18" s="441"/>
+      <c r="E18" s="464"/>
+      <c r="F18" s="464"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="439" t="s">
+      <c r="H18" s="462" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="440"/>
+      <c r="I18" s="463"/>
       <c r="J18" s="194" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
@@ -16441,21 +16441,21 @@
     <row r="19" spans="1:13" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="161"/>
-      <c r="C19" s="448" t="s">
+      <c r="C19" s="443" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="448"/>
-      <c r="E19" s="448"/>
+      <c r="D19" s="443"/>
+      <c r="E19" s="443"/>
       <c r="F19" s="84" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="422" t="s">
+      <c r="I19" s="444" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="422"/>
+      <c r="J19" s="444"/>
       <c r="K19" s="84" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
@@ -16466,16 +16466,16 @@
     <row r="20" spans="1:13" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="448"/>
-      <c r="D20" s="448"/>
-      <c r="E20" s="448"/>
+      <c r="C20" s="443"/>
+      <c r="D20" s="443"/>
+      <c r="E20" s="443"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="422" t="s">
+      <c r="I20" s="444" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="422"/>
+      <c r="J20" s="444"/>
       <c r="K20" s="84" t="e" cm="1">
         <f t="array" ref="K20">COUNTIF(Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
@@ -16570,8 +16570,8 @@
       <c r="I25" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="446"/>
-      <c r="K25" s="447"/>
+      <c r="J25" s="447"/>
+      <c r="K25" s="448"/>
       <c r="L25" s="179"/>
       <c r="M25" s="180"/>
     </row>
@@ -16600,8 +16600,8 @@
       <c r="I26" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="442"/>
-      <c r="K26" s="443"/>
+      <c r="J26" s="445"/>
+      <c r="K26" s="446"/>
       <c r="L26" s="172"/>
       <c r="M26" s="2"/>
     </row>
@@ -16618,8 +16618,8 @@
         <v/>
       </c>
       <c r="I27" s="184"/>
-      <c r="J27" s="442"/>
-      <c r="K27" s="443"/>
+      <c r="J27" s="445"/>
+      <c r="K27" s="446"/>
       <c r="L27" s="172"/>
       <c r="M27" s="2"/>
     </row>
@@ -16636,8 +16636,8 @@
         <v/>
       </c>
       <c r="I28" s="184"/>
-      <c r="J28" s="442"/>
-      <c r="K28" s="443"/>
+      <c r="J28" s="445"/>
+      <c r="K28" s="446"/>
       <c r="L28" s="172"/>
       <c r="M28" s="2"/>
     </row>
@@ -16654,8 +16654,8 @@
         <v/>
       </c>
       <c r="I29" s="184"/>
-      <c r="J29" s="442"/>
-      <c r="K29" s="443"/>
+      <c r="J29" s="445"/>
+      <c r="K29" s="446"/>
       <c r="L29" s="172"/>
       <c r="M29" s="2"/>
     </row>
@@ -16672,8 +16672,8 @@
         <v/>
       </c>
       <c r="I30" s="184"/>
-      <c r="J30" s="442"/>
-      <c r="K30" s="443"/>
+      <c r="J30" s="445"/>
+      <c r="K30" s="446"/>
       <c r="L30" s="172"/>
       <c r="M30" s="2"/>
     </row>
@@ -16690,8 +16690,8 @@
         <v/>
       </c>
       <c r="I31" s="184"/>
-      <c r="J31" s="442"/>
-      <c r="K31" s="443"/>
+      <c r="J31" s="445"/>
+      <c r="K31" s="446"/>
       <c r="L31" s="172"/>
       <c r="M31" s="2"/>
     </row>
@@ -16708,8 +16708,8 @@
         <v/>
       </c>
       <c r="I32" s="184"/>
-      <c r="J32" s="442"/>
-      <c r="K32" s="443"/>
+      <c r="J32" s="445"/>
+      <c r="K32" s="446"/>
       <c r="L32" s="172"/>
       <c r="M32" s="2"/>
     </row>
@@ -16726,8 +16726,8 @@
         <v/>
       </c>
       <c r="I33" s="184"/>
-      <c r="J33" s="442"/>
-      <c r="K33" s="443"/>
+      <c r="J33" s="445"/>
+      <c r="K33" s="446"/>
       <c r="L33" s="172"/>
       <c r="M33" s="2"/>
     </row>
@@ -16744,8 +16744,8 @@
         <v/>
       </c>
       <c r="I34" s="184"/>
-      <c r="J34" s="442"/>
-      <c r="K34" s="443"/>
+      <c r="J34" s="445"/>
+      <c r="K34" s="446"/>
       <c r="L34" s="172"/>
       <c r="M34" s="2"/>
     </row>
@@ -16762,8 +16762,8 @@
         <v/>
       </c>
       <c r="I35" s="184"/>
-      <c r="J35" s="442"/>
-      <c r="K35" s="443"/>
+      <c r="J35" s="445"/>
+      <c r="K35" s="446"/>
       <c r="L35" s="172"/>
       <c r="M35" s="2"/>
     </row>
@@ -16816,8 +16816,8 @@
         <v/>
       </c>
       <c r="I38" s="184"/>
-      <c r="J38" s="442"/>
-      <c r="K38" s="443"/>
+      <c r="J38" s="445"/>
+      <c r="K38" s="446"/>
       <c r="L38" s="172"/>
       <c r="M38" s="2"/>
     </row>
@@ -16834,8 +16834,8 @@
         <v/>
       </c>
       <c r="I39" s="184"/>
-      <c r="J39" s="442"/>
-      <c r="K39" s="443"/>
+      <c r="J39" s="445"/>
+      <c r="K39" s="446"/>
       <c r="L39" s="172"/>
       <c r="M39" s="2"/>
     </row>
@@ -16852,8 +16852,8 @@
         <v/>
       </c>
       <c r="I40" s="184"/>
-      <c r="J40" s="442"/>
-      <c r="K40" s="443"/>
+      <c r="J40" s="445"/>
+      <c r="K40" s="446"/>
       <c r="L40" s="172"/>
       <c r="M40" s="2"/>
     </row>
@@ -16870,8 +16870,8 @@
         <v/>
       </c>
       <c r="I41" s="184"/>
-      <c r="J41" s="442"/>
-      <c r="K41" s="443"/>
+      <c r="J41" s="445"/>
+      <c r="K41" s="446"/>
       <c r="L41" s="172"/>
       <c r="M41" s="2"/>
     </row>
@@ -16888,8 +16888,8 @@
         <v/>
       </c>
       <c r="I42" s="184"/>
-      <c r="J42" s="442"/>
-      <c r="K42" s="443"/>
+      <c r="J42" s="445"/>
+      <c r="K42" s="446"/>
       <c r="L42" s="172"/>
       <c r="M42" s="2"/>
     </row>
@@ -16906,8 +16906,8 @@
         <v/>
       </c>
       <c r="I43" s="184"/>
-      <c r="J43" s="444"/>
-      <c r="K43" s="445"/>
+      <c r="J43" s="465"/>
+      <c r="K43" s="466"/>
       <c r="L43" s="172"/>
       <c r="M43" s="2"/>
     </row>
@@ -16924,8 +16924,8 @@
         <v/>
       </c>
       <c r="I44" s="184"/>
-      <c r="J44" s="442"/>
-      <c r="K44" s="443"/>
+      <c r="J44" s="445"/>
+      <c r="K44" s="446"/>
       <c r="L44" s="172"/>
       <c r="M44" s="2"/>
     </row>
@@ -16942,8 +16942,8 @@
         <v/>
       </c>
       <c r="I45" s="184"/>
-      <c r="J45" s="442"/>
-      <c r="K45" s="443"/>
+      <c r="J45" s="445"/>
+      <c r="K45" s="446"/>
       <c r="L45" s="172"/>
       <c r="M45" s="2"/>
     </row>
@@ -16960,8 +16960,8 @@
         <v/>
       </c>
       <c r="I46" s="184"/>
-      <c r="J46" s="442"/>
-      <c r="K46" s="443"/>
+      <c r="J46" s="445"/>
+      <c r="K46" s="446"/>
       <c r="L46" s="172"/>
       <c r="M46" s="2"/>
     </row>
@@ -17032,43 +17032,43 @@
     <row r="51" spans="1:13" ht="16.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="161"/>
-      <c r="C51" s="424" t="e">
+      <c r="C51" s="468" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",IF(_xlfn.SINGLE(Thresholds_Modulus_Value)&lt;_xlfn.SINGLE(AVERAGE(Pi_Modulus)),"RÉSULTAT CONFORME","RÉSULTAT INSUFFISANT"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D51" s="424"/>
-      <c r="E51" s="423"/>
-      <c r="F51" s="423"/>
+      <c r="D51" s="468"/>
+      <c r="E51" s="467"/>
+      <c r="F51" s="467"/>
       <c r="G51" s="192"/>
       <c r="H51" s="2"/>
       <c r="I51" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="J51" s="422" t="e">
+      <c r="J51" s="444" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K51" s="422"/>
+      <c r="K51" s="444"/>
       <c r="L51" s="172"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="161"/>
-      <c r="C52" s="424"/>
-      <c r="D52" s="424"/>
-      <c r="E52" s="424"/>
+      <c r="C52" s="468"/>
+      <c r="D52" s="468"/>
+      <c r="E52" s="468"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="J52" s="425" t="e">
+      <c r="J52" s="469" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K52" s="425"/>
+      <c r="K52" s="469"/>
       <c r="L52" s="173"/>
       <c r="M52" s="2"/>
     </row>
@@ -17085,45 +17085,45 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="171"/>
-      <c r="I53" s="426" t="s">
+      <c r="I53" s="449" t="s">
         <v>89</v>
       </c>
-      <c r="J53" s="427"/>
-      <c r="K53" s="428"/>
-      <c r="L53" s="429"/>
+      <c r="J53" s="450"/>
+      <c r="K53" s="451"/>
+      <c r="L53" s="452"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="161"/>
-      <c r="C54" s="435" t="e">
-        <f>IF(Report_Comments="","",Report_Comments)</f>
+      <c r="C54" s="458" t="e">
+        <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D54" s="435"/>
-      <c r="E54" s="435"/>
-      <c r="F54" s="435"/>
-      <c r="G54" s="435"/>
-      <c r="H54" s="436"/>
-      <c r="I54" s="426"/>
-      <c r="J54" s="430"/>
-      <c r="K54" s="252"/>
-      <c r="L54" s="431"/>
+      <c r="D54" s="458"/>
+      <c r="E54" s="458"/>
+      <c r="F54" s="458"/>
+      <c r="G54" s="458"/>
+      <c r="H54" s="459"/>
+      <c r="I54" s="449"/>
+      <c r="J54" s="453"/>
+      <c r="K54" s="255"/>
+      <c r="L54" s="454"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="166"/>
-      <c r="C55" s="437"/>
-      <c r="D55" s="437"/>
-      <c r="E55" s="437"/>
-      <c r="F55" s="437"/>
-      <c r="G55" s="437"/>
-      <c r="H55" s="438"/>
-      <c r="I55" s="426"/>
-      <c r="J55" s="432"/>
-      <c r="K55" s="433"/>
-      <c r="L55" s="434"/>
+      <c r="C55" s="460"/>
+      <c r="D55" s="460"/>
+      <c r="E55" s="460"/>
+      <c r="F55" s="460"/>
+      <c r="G55" s="460"/>
+      <c r="H55" s="461"/>
+      <c r="I55" s="449"/>
+      <c r="J55" s="455"/>
+      <c r="K55" s="456"/>
+      <c r="L55" s="457"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13">
@@ -17145,38 +17145,11 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="I53:I55"/>
     <mergeCell ref="J53:L55"/>
     <mergeCell ref="C54:H55"/>
@@ -17193,11 +17166,38 @@
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/assets/templates/maxidyn/PV Maxidyn Demo FR.xlsx
+++ b/src/assets/templates/maxidyn/PV Maxidyn Demo FR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b21a0883c8b69009/Documents/Git/rapportxls/Template Mapview 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spellevrault\Documents\Git\rapportxls\Template Mapview 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{455CFE87-D67D-493F-800B-0562AB01F7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1197DC-4B64-464F-B471-3A3E53D41D76}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1FECDD-6CE1-48E8-869C-E1ED1B79069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="550" windowWidth="26320" windowHeight="19760" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" state="hidden" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="179">
   <si>
     <t>Client :</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Module sous chargement dynamique (Dynaplaque 2)</t>
-  </si>
-  <si>
-    <t>Réseau de Laboratoires d'Essais et d'Analyses</t>
   </si>
   <si>
     <t>www.rincent.fr</t>
@@ -529,9 +526,6 @@
     <t>Le Responsable,</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>Rapport de chantier</t>
   </si>
   <si>
@@ -617,6 +611,24 @@
   </si>
   <si>
     <t>Pi_Chainage</t>
+  </si>
+  <si>
+    <t>Agence de Aix</t>
+  </si>
+  <si>
+    <t>Agence de Lille</t>
+  </si>
+  <si>
+    <t>Agence de Dijon</t>
+  </si>
+  <si>
+    <t>Agence de Bordeaux</t>
+  </si>
+  <si>
+    <t>Agence de Strasbourg</t>
+  </si>
+  <si>
+    <t>Agence de Lyon</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1989,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2670,6 +2682,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7515,7 +7530,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rapport"/>
@@ -7967,15 +7982,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -7983,7 +7998,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -8000,7 +8015,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -8034,7 +8049,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="280" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="E2" s="280"/>
       <c r="F2" s="280"/>
@@ -8086,9 +8101,9 @@
       <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
@@ -8101,9 +8116,9 @@
       <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
@@ -8116,9 +8131,9 @@
       <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -8129,9 +8144,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -8143,24 +8158,24 @@
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="16" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -8171,7 +8186,7 @@
       <c r="G11" s="272"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="72" t="e" cm="1">
         <f t="array" ref="J11">Zi_Name</f>
@@ -8183,7 +8198,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -8194,7 +8209,7 @@
       <c r="G12" s="261"/>
       <c r="H12" s="103"/>
       <c r="I12" s="110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="138" t="e">
         <f>IF(AVERAGE(Zi_Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Zi_Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Zi_Pi_Modulus)))</f>
@@ -8217,7 +8232,7 @@
       <c r="G13" s="268"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="139" t="e" cm="1">
         <f t="array" ref="J13">COUNTIF(Zi_Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
@@ -8240,17 +8255,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -8284,42 +8299,42 @@
         <v>8</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="407" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="408"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="408" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="409"/>
+      <c r="J17" s="410"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="E18" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="151" t="s">
+      <c r="F18" s="90" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="91" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="410"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="412"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -8333,9 +8348,9 @@
         <f t="array" ref="G19">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H19" s="404"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
+      <c r="H19" s="405"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -8349,9 +8364,9 @@
         <f t="array" ref="G20">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H20" s="404"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -8365,9 +8380,9 @@
         <f t="array" ref="G21">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H21" s="404"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -8381,9 +8396,9 @@
         <f t="array" ref="G22">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H22" s="404"/>
-      <c r="I22" s="405"/>
-      <c r="J22" s="406"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -8397,9 +8412,9 @@
         <f t="array" ref="G23">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H23" s="404"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="406"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -8413,9 +8428,9 @@
         <f t="array" ref="G24">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H24" s="404"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="406"/>
+      <c r="H24" s="405"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -8429,9 +8444,9 @@
         <f t="array" ref="G25">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H25" s="404"/>
-      <c r="I25" s="405"/>
-      <c r="J25" s="406"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -8445,9 +8460,9 @@
         <f t="array" ref="G26">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H26" s="404"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="406"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -8493,9 +8508,9 @@
         <f t="array" ref="G29">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H29" s="404"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="406"/>
+      <c r="H29" s="405"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -8509,9 +8524,9 @@
         <f t="array" ref="G30">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H30" s="404"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
+      <c r="H30" s="405"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -8525,9 +8540,9 @@
         <f t="array" ref="G31">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H31" s="404"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="406"/>
+      <c r="H31" s="405"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -8541,9 +8556,9 @@
         <f t="array" ref="G32">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H32" s="404"/>
-      <c r="I32" s="405"/>
-      <c r="J32" s="406"/>
+      <c r="H32" s="405"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -8557,9 +8572,9 @@
         <f t="array" ref="G33">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H33" s="404"/>
-      <c r="I33" s="405"/>
-      <c r="J33" s="406"/>
+      <c r="H33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -8573,9 +8588,9 @@
         <f t="array" ref="G34">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H34" s="404"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="406"/>
+      <c r="H34" s="405"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -8589,9 +8604,9 @@
         <f t="array" ref="G35">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H35" s="404"/>
-      <c r="I35" s="405"/>
-      <c r="J35" s="406"/>
+      <c r="H35" s="405"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -8605,9 +8620,9 @@
         <f t="array" ref="G36">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H36" s="404"/>
-      <c r="I36" s="405"/>
-      <c r="J36" s="406"/>
+      <c r="H36" s="405"/>
+      <c r="I36" s="406"/>
+      <c r="J36" s="407"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -8621,9 +8636,9 @@
         <f t="array" ref="G37">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H37" s="404"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="406"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -8637,9 +8652,9 @@
         <f t="array" ref="G38">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H38" s="404"/>
-      <c r="I38" s="405"/>
-      <c r="J38" s="406"/>
+      <c r="H38" s="405"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="407"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -8653,9 +8668,9 @@
         <f t="array" ref="G39">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H39" s="404"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="406"/>
+      <c r="H39" s="405"/>
+      <c r="I39" s="406"/>
+      <c r="J39" s="407"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -8669,9 +8684,9 @@
         <f t="array" ref="G40">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="406"/>
+      <c r="H40" s="405"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="407"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -8685,9 +8700,9 @@
         <f t="array" ref="G41">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="406"/>
+      <c r="H41" s="405"/>
+      <c r="I41" s="406"/>
+      <c r="J41" s="407"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -8701,9 +8716,9 @@
         <f t="array" ref="G42">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="406"/>
+      <c r="H42" s="405"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -8717,9 +8732,9 @@
         <f t="array" ref="G43">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H43" s="404"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="406"/>
+      <c r="H43" s="405"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -8733,9 +8748,9 @@
         <f t="array" ref="G44">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H44" s="404"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="406"/>
+      <c r="H44" s="405"/>
+      <c r="I44" s="406"/>
+      <c r="J44" s="407"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -8749,9 +8764,9 @@
         <f t="array" ref="G45">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H45" s="404"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="406"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="407"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -8765,9 +8780,9 @@
         <f t="array" ref="G46">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H46" s="404"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="406"/>
+      <c r="H46" s="405"/>
+      <c r="I46" s="406"/>
+      <c r="J46" s="407"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -8781,9 +8796,9 @@
         <f t="array" ref="G47">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H47" s="404"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="406"/>
+      <c r="H47" s="405"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="407"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -8797,9 +8812,9 @@
         <f t="array" ref="G48">IFERROR(IF(ArrayResult34[[#This Row],[ModuleRaw]]="","",IF(ArrayResult34[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult34[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult34[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H48" s="416"/>
-      <c r="I48" s="417"/>
-      <c r="J48" s="418"/>
+      <c r="H48" s="417"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="419"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -8894,7 +8909,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -8923,14 +8938,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="469" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
+      <c r="D2" s="470" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="470"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="14.15" customHeight="1">
@@ -8972,9 +8987,9 @@
       <c r="J5" s="281"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
@@ -8986,9 +9001,9 @@
       <c r="J6" s="245"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
@@ -9000,9 +9015,9 @@
       <c r="J7" s="245"/>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -9012,9 +9027,9 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -9025,23 +9040,23 @@
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="415"/>
+      <c r="B10" s="414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="416"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="128"/>
       <c r="C11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="129" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -9051,11 +9066,11 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="22">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44991</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -9063,7 +9078,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="130"/>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="131" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -9095,7 +9110,7 @@
       <c r="F13" s="136"/>
       <c r="G13" s="136"/>
       <c r="H13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="137" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -9117,16 +9132,16 @@
     </row>
     <row r="15" spans="1:16" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="415"/>
+      <c r="B15" s="414" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="416"/>
       <c r="J15" s="15"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
@@ -9596,8 +9611,8 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -9637,7 +9652,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="280" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="F2" s="281"/>
       <c r="G2" s="281"/>
@@ -9712,7 +9727,7 @@
     <row r="6" spans="1:17" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="283" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="255"/>
       <c r="D6" s="255"/>
@@ -9772,7 +9787,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="244"/>
       <c r="E9" s="244"/>
@@ -9814,7 +9829,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="30"/>
       <c r="C11" s="245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="245"/>
       <c r="E11" s="245"/>
@@ -9853,7 +9868,7 @@
     <row r="13" spans="1:17" ht="18" customHeight="1">
       <c r="A13" s="31"/>
       <c r="B13" s="264" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="265"/>
       <c r="D13" s="265"/>
@@ -9876,7 +9891,7 @@
       <c r="B14" s="104"/>
       <c r="C14" s="105"/>
       <c r="D14" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -9889,11 +9904,11 @@
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
       <c r="L14" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="258">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44991</v>
       </c>
       <c r="N14" s="258"/>
       <c r="O14" s="258"/>
@@ -9905,7 +9920,7 @@
       <c r="B15" s="102"/>
       <c r="C15" s="103"/>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -9947,7 +9962,7 @@
       <c r="J16" s="109"/>
       <c r="K16" s="109"/>
       <c r="L16" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="270" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -9980,7 +9995,7 @@
     <row r="18" spans="1:17" ht="15.5">
       <c r="A18" s="36"/>
       <c r="B18" s="264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="265"/>
       <c r="D18" s="265"/>
@@ -10003,7 +10018,7 @@
       <c r="B19" s="121"/>
       <c r="C19" s="105"/>
       <c r="D19" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="272" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
@@ -10027,7 +10042,7 @@
       <c r="B20" s="122"/>
       <c r="C20" s="103"/>
       <c r="D20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="261" t="e">
         <f>IF(Report_Lane="","",Report_Lane)</f>
@@ -10040,7 +10055,7 @@
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
       <c r="L20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" s="276" t="e" cm="1">
         <f t="array" ref="M20">IF(Report_Part="","",Report_Part)</f>
@@ -10056,7 +10071,7 @@
       <c r="B21" s="123"/>
       <c r="C21" s="108"/>
       <c r="D21" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="268" t="e">
         <f>IF(Report_Direction="","",Report_Direction)</f>
@@ -10097,7 +10112,7 @@
     <row r="23" spans="1:17" ht="15.5">
       <c r="A23" s="36"/>
       <c r="B23" s="264" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="265"/>
       <c r="D23" s="265"/>
@@ -10120,7 +10135,7 @@
       <c r="B24" s="104"/>
       <c r="C24" s="105"/>
       <c r="D24" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="272" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
@@ -10133,7 +10148,7 @@
       <c r="J24" s="105"/>
       <c r="K24" s="105"/>
       <c r="L24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24" s="246" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
@@ -10149,7 +10164,7 @@
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
       <c r="D25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="267" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
@@ -10162,7 +10177,7 @@
       <c r="J25" s="106"/>
       <c r="K25" s="106"/>
       <c r="L25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="261" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
@@ -10191,7 +10206,7 @@
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
       <c r="L26" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M26" s="270" t="e">
         <f>IF(Report_Temperature="","",Report_Temperature)</f>
@@ -10224,7 +10239,7 @@
     <row r="28" spans="1:17" ht="15.5" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="264" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="265"/>
       <c r="D28" s="265"/>
@@ -10247,7 +10262,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="258" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
@@ -10260,7 +10275,7 @@
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
       <c r="L29" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M29" s="259" t="e">
         <f>IF(Hardware_CertificateStart="","",Hardware_CertificateStart)</f>
@@ -10317,7 +10332,7 @@
     <row r="32" spans="1:17" ht="15.5">
       <c r="A32" s="38"/>
       <c r="B32" s="264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="265"/>
       <c r="D32" s="265"/>
@@ -10353,7 +10368,7 @@
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
       <c r="L33" s="110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="111" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
@@ -10369,7 +10384,7 @@
       <c r="B34" s="114"/>
       <c r="C34" s="106"/>
       <c r="D34" s="110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="75" t="e">
         <f>COUNTIF(Pi_Modulus, "&gt;" &amp; Thresholds_Modulus_Value)</f>
@@ -10382,7 +10397,7 @@
       <c r="J34" s="115"/>
       <c r="K34" s="115"/>
       <c r="L34" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M34" s="75" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
@@ -10406,7 +10421,7 @@
       <c r="J35" s="115"/>
       <c r="K35" s="115"/>
       <c r="L35" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M35" s="75" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
@@ -10430,7 +10445,7 @@
       <c r="J36" s="108"/>
       <c r="K36" s="74"/>
       <c r="L36" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M36" s="75" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
@@ -10687,7 +10702,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" s="240"/>
       <c r="G49" s="240"/>
@@ -10710,7 +10725,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="243"/>
       <c r="G50" s="243"/>
@@ -10792,7 +10807,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -10807,28 +10822,28 @@
       <c r="A1" s="197"/>
       <c r="B1" s="197"/>
       <c r="C1" s="197"/>
-      <c r="D1" s="297" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
+      <c r="D1" s="298" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
       <c r="J1" s="197"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="197"/>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
-      <c r="D2" s="298" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
+      <c r="D2" s="299" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
       <c r="J2" s="197"/>
       <c r="L2" s="238" t="e" cm="1">
         <f t="array" ref="L2">Thresholds_Modulus_Value</f>
@@ -10846,13 +10861,13 @@
       <c r="E3" s="197"/>
       <c r="F3" s="197"/>
       <c r="G3" s="197" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="299">
+        <v>158</v>
+      </c>
+      <c r="H3" s="300">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
-      </c>
-      <c r="I3" s="300"/>
+        <v>44991</v>
+      </c>
+      <c r="I3" s="301"/>
       <c r="J3" s="197"/>
       <c r="L3" s="238" t="e" cm="1">
         <f t="array" ref="L3">Thresholds_Modulus_Value</f>
@@ -10871,7 +10886,7 @@
       <c r="E4" s="197"/>
       <c r="F4" s="197"/>
       <c r="G4" s="197" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="288" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -10892,44 +10907,44 @@
       <c r="I5" s="197"/>
       <c r="J5" s="197"/>
       <c r="L5" s="238" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M5" s="238" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="199" customFormat="1" ht="23">
       <c r="A6" s="198"/>
-      <c r="B6" s="301" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
+      <c r="B6" s="302" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
       <c r="J6" s="198"/>
       <c r="L6" s="239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="239" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="199" customFormat="1" ht="20">
       <c r="A7" s="198"/>
-      <c r="B7" s="296" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
+      <c r="B7" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="297"/>
+      <c r="I7" s="297"/>
       <c r="J7" s="198"/>
       <c r="L7" s="239"/>
       <c r="M7" s="239"/>
@@ -10949,7 +10964,7 @@
     <row r="9" spans="1:13">
       <c r="A9" s="197"/>
       <c r="B9" s="200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="197"/>
       <c r="D9" s="197"/>
@@ -10962,19 +10977,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="197"/>
-      <c r="B10" s="294" t="s">
+      <c r="B10" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="294"/>
+      <c r="C10" s="295"/>
       <c r="D10" s="289" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
       <c r="E10" s="289"/>
-      <c r="F10" s="294" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="294"/>
+      <c r="F10" s="295" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="295"/>
       <c r="H10" s="289" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
@@ -10984,19 +10999,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="197"/>
-      <c r="B11" s="294" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="294"/>
+      <c r="B11" s="295" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="295"/>
       <c r="D11" s="289" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
       <c r="E11" s="289"/>
-      <c r="F11" s="294" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="294"/>
+      <c r="F11" s="295" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="295"/>
       <c r="H11" s="289" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
@@ -11006,19 +11021,19 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="197"/>
-      <c r="B12" s="294" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="294"/>
+      <c r="B12" s="295" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="295"/>
       <c r="D12" s="289" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
       <c r="E12" s="289"/>
-      <c r="F12" s="294" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="294"/>
+      <c r="F12" s="295" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="295"/>
       <c r="H12" s="289" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
@@ -11028,19 +11043,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="197"/>
-      <c r="B13" s="294" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="294"/>
+      <c r="B13" s="295" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="295"/>
       <c r="D13" s="289" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
       <c r="E13" s="289"/>
-      <c r="F13" s="294" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="294"/>
+      <c r="F13" s="295" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="295"/>
       <c r="H13" s="289" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
@@ -11050,36 +11065,36 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="197"/>
-      <c r="B14" s="294" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="294"/>
+      <c r="B14" s="295" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="295"/>
       <c r="D14" s="289" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
       <c r="E14" s="289"/>
-      <c r="F14" s="294" t="s">
+      <c r="F14" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="294"/>
-      <c r="H14" s="295" t="e">
+      <c r="G14" s="295"/>
+      <c r="H14" s="296" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="295"/>
+      <c r="I14" s="296"/>
       <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="197"/>
-      <c r="B15" s="294"/>
-      <c r="C15" s="294"/>
+      <c r="B15" s="295"/>
+      <c r="C15" s="295"/>
       <c r="D15" s="289"/>
       <c r="E15" s="289"/>
-      <c r="F15" s="294" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="294"/>
+      <c r="F15" s="295" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="295"/>
       <c r="H15" s="289" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
@@ -11102,7 +11117,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="197"/>
       <c r="B17" s="200" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="197"/>
       <c r="D17" s="197"/>
@@ -11356,7 +11371,7 @@
     <row r="38" spans="1:10">
       <c r="A38" s="197"/>
       <c r="B38" s="200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="197"/>
       <c r="D38" s="197"/>
@@ -11370,7 +11385,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="197"/>
       <c r="B39" s="288" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="288"/>
       <c r="D39" s="289" t="e">
@@ -11379,20 +11394,20 @@
       </c>
       <c r="E39" s="289"/>
       <c r="F39" s="288" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="288"/>
-      <c r="H39" s="289" t="e">
+      <c r="H39" s="294" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I39" s="289"/>
+      <c r="I39" s="294"/>
       <c r="J39" s="197"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="197"/>
       <c r="B40" s="288" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="288"/>
       <c r="D40" s="289" t="e">
@@ -11414,7 +11429,7 @@
     <row r="41" spans="1:10">
       <c r="A41" s="197"/>
       <c r="B41" s="288" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="288"/>
       <c r="D41" s="289" t="e">
@@ -11423,7 +11438,7 @@
       </c>
       <c r="E41" s="289"/>
       <c r="F41" s="288" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="288"/>
       <c r="H41" s="289" t="e" cm="1">
@@ -11440,7 +11455,7 @@
       <c r="D42" s="289"/>
       <c r="E42" s="289"/>
       <c r="F42" s="288" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G42" s="288"/>
       <c r="H42" s="290" t="e">
@@ -11477,13 +11492,13 @@
     <row r="45" spans="1:10" ht="15.5">
       <c r="A45" s="197"/>
       <c r="B45" s="200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="197"/>
       <c r="D45" s="197"/>
       <c r="E45" s="197"/>
       <c r="F45" s="201" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="197"/>
       <c r="H45" s="197"/>
@@ -11500,11 +11515,11 @@
       <c r="D46" s="291"/>
       <c r="E46" s="197"/>
       <c r="F46" s="292" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G46" s="292"/>
       <c r="H46" s="292" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I46" s="292"/>
       <c r="J46" s="197"/>
@@ -11563,7 +11578,7 @@
     <row r="51" spans="1:10">
       <c r="A51" s="197"/>
       <c r="B51" s="202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="197"/>
       <c r="D51" s="197"/>
@@ -11579,7 +11594,7 @@
     <row r="52" spans="1:10">
       <c r="A52" s="197"/>
       <c r="B52" s="203" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="197"/>
       <c r="D52" s="197"/>
@@ -11672,7 +11687,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -11703,12 +11718,12 @@
       <c r="A2" s="2"/>
       <c r="B2" s="205"/>
       <c r="C2" s="206"/>
-      <c r="D2" s="369" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
+      <c r="D2" s="370" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
       <c r="H2" s="206"/>
       <c r="I2" s="207"/>
       <c r="J2" s="2"/>
@@ -11717,12 +11732,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="208"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="370" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
+      <c r="D3" s="371" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="371"/>
       <c r="H3" s="2"/>
       <c r="I3" s="209"/>
       <c r="J3" s="2"/>
@@ -11731,12 +11746,12 @@
       <c r="A4" s="2"/>
       <c r="B4" s="208"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="370" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
+      <c r="D4" s="371" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
       <c r="H4" s="2"/>
       <c r="I4" s="209"/>
       <c r="J4" s="2"/>
@@ -11745,12 +11760,12 @@
       <c r="A5" s="2"/>
       <c r="B5" s="208"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="370" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
+      <c r="D5" s="371" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
       <c r="H5" s="2"/>
       <c r="I5" s="209"/>
       <c r="J5" s="2"/>
@@ -11769,44 +11784,44 @@
     </row>
     <row r="7" spans="1:16" ht="52" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="371" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="372"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="372"/>
-      <c r="I7" s="373"/>
+      <c r="B7" s="372" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="373"/>
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="373"/>
+      <c r="H7" s="373"/>
+      <c r="I7" s="374"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="29.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="366" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
-      <c r="G8" s="367"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="368"/>
+      <c r="B8" s="367" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="368"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
+      <c r="G8" s="368"/>
+      <c r="H8" s="368"/>
+      <c r="I8" s="369"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1" thickBot="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="351" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="352"/>
-      <c r="D9" s="352"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="352"/>
-      <c r="G9" s="352"/>
-      <c r="H9" s="352"/>
-      <c r="I9" s="353"/>
+      <c r="B9" s="352" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="354"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
@@ -11825,11 +11840,11 @@
     <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="302" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
+      <c r="C11" s="303" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -11840,9 +11855,9 @@
     <row r="12" spans="1:16" ht="14.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="205"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
       <c r="F12" s="211"/>
       <c r="G12" s="212"/>
       <c r="H12" s="206"/>
@@ -11852,70 +11867,70 @@
     </row>
     <row r="13" spans="1:16" ht="25" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="354" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="355"/>
-      <c r="D13" s="356" t="e">
+      <c r="B13" s="355" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="356"/>
+      <c r="D13" s="357" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="357"/>
-      <c r="F13" s="326" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="327"/>
-      <c r="H13" s="324" t="e">
+      <c r="E13" s="358"/>
+      <c r="F13" s="327" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="328"/>
+      <c r="H13" s="325" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="350"/>
+      <c r="I13" s="351"/>
       <c r="J13" s="2"/>
       <c r="M13" s="210"/>
     </row>
     <row r="14" spans="1:16" ht="25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="358" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="359"/>
-      <c r="D14" s="360" t="e">
+      <c r="B14" s="359" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="360"/>
+      <c r="D14" s="361" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E14" s="361"/>
-      <c r="F14" s="334" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="335"/>
-      <c r="H14" s="332" t="e">
+      <c r="E14" s="362"/>
+      <c r="F14" s="335" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="336"/>
+      <c r="H14" s="333" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I14" s="349"/>
+      <c r="I14" s="350"/>
       <c r="J14" s="2"/>
       <c r="M14" s="210"/>
     </row>
     <row r="15" spans="1:16" ht="25" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="362" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="363"/>
-      <c r="D15" s="364" t="e">
+      <c r="B15" s="363" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="364"/>
+      <c r="D15" s="365" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E15" s="365"/>
-      <c r="F15" s="342" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="343"/>
-      <c r="H15" s="346" t="e">
+      <c r="E15" s="366"/>
+      <c r="F15" s="343" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="344"/>
+      <c r="H15" s="347" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="348"/>
+      <c r="I15" s="349"/>
       <c r="J15" s="2"/>
       <c r="M15" s="210"/>
     </row>
@@ -11937,11 +11952,11 @@
     <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="302" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
+      <c r="C17" s="303" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -11954,9 +11969,9 @@
     <row r="18" spans="1:16" ht="14.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="205"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="303"/>
       <c r="F18" s="211"/>
       <c r="G18" s="212"/>
       <c r="H18" s="206"/>
@@ -11968,63 +11983,63 @@
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="322" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="323"/>
-      <c r="D19" s="324" t="e">
+      <c r="B19" s="323" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="324"/>
+      <c r="D19" s="325" t="e">
         <f>IF(Platform_Type="","",Platform_Type)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="325"/>
-      <c r="F19" s="326" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="327"/>
-      <c r="H19" s="324" t="e">
+      <c r="E19" s="326"/>
+      <c r="F19" s="327" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="328"/>
+      <c r="H19" s="325" t="e">
         <f>IF(Platform_Support="","",Platform_Support)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="350"/>
+      <c r="I19" s="351"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="330" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="331"/>
-      <c r="D20" s="332" t="e">
+      <c r="B20" s="331" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="332"/>
+      <c r="D20" s="333" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E20" s="333"/>
-      <c r="F20" s="334" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="335"/>
-      <c r="H20" s="332" t="e">
+      <c r="E20" s="334"/>
+      <c r="F20" s="335" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="336"/>
+      <c r="H20" s="333" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="349"/>
+      <c r="I20" s="350"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="338" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="339"/>
-      <c r="D21" s="346" t="e">
+      <c r="B21" s="339" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="340"/>
+      <c r="D21" s="347" t="e">
         <f>IF(Platform_Layer="","",Platform_Layer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="347"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="346"/>
-      <c r="I21" s="348"/>
+      <c r="E21" s="348"/>
+      <c r="F21" s="343"/>
+      <c r="G21" s="344"/>
+      <c r="H21" s="347"/>
+      <c r="I21" s="349"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="30.5" customHeight="1">
@@ -12042,11 +12057,11 @@
     <row r="23" spans="1:16" ht="15.65" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="302" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="302"/>
-      <c r="E23" s="302"/>
+      <c r="C23" s="303" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -12056,9 +12071,9 @@
     <row r="24" spans="1:16" ht="15.65" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="205"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="302"/>
-      <c r="E24" s="302"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="303"/>
       <c r="F24" s="211"/>
       <c r="G24" s="212"/>
       <c r="H24" s="206"/>
@@ -12067,24 +12082,24 @@
     </row>
     <row r="25" spans="1:16" ht="25" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="322" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="323"/>
-      <c r="D25" s="324" t="e">
+      <c r="B25" s="323" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="324"/>
+      <c r="D25" s="325" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E25" s="325"/>
-      <c r="F25" s="326" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="327"/>
-      <c r="H25" s="328" t="e">
+      <c r="E25" s="326"/>
+      <c r="F25" s="327" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="328"/>
+      <c r="H25" s="329" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I25" s="329" t="e">
+      <c r="I25" s="330" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12092,24 +12107,24 @@
     </row>
     <row r="26" spans="1:16" ht="25" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="330" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="331"/>
-      <c r="D26" s="332" t="e">
+      <c r="B26" s="331" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="332"/>
+      <c r="D26" s="333" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
-      <c r="E26" s="333"/>
-      <c r="F26" s="334" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="335"/>
-      <c r="H26" s="336" t="e">
+      <c r="E26" s="334"/>
+      <c r="F26" s="335" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="336"/>
+      <c r="H26" s="337" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I26" s="337" t="e">
+      <c r="I26" s="338" t="e">
         <f>IF(MIN(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MIN(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MIN(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12117,19 +12132,19 @@
     </row>
     <row r="27" spans="1:16" ht="25" customHeight="1" thickBot="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="338"/>
-      <c r="C27" s="339"/>
-      <c r="D27" s="340"/>
-      <c r="E27" s="341"/>
-      <c r="F27" s="342" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="343"/>
-      <c r="H27" s="344" t="e">
+      <c r="B27" s="339"/>
+      <c r="C27" s="340"/>
+      <c r="D27" s="341"/>
+      <c r="E27" s="342"/>
+      <c r="F27" s="343" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="344"/>
+      <c r="H27" s="345" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I27" s="345" t="e">
+      <c r="I27" s="346" t="e">
         <f>IF(MAX(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(MAX(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",MAX(Pi_Modulus)))</f>
         <v>#NAME?</v>
       </c>
@@ -12150,11 +12165,11 @@
     <row r="29" spans="1:16" ht="14.5" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="302" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="302"/>
-      <c r="E29" s="302"/>
+      <c r="C29" s="303" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="303"/>
+      <c r="E29" s="303"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -12164,9 +12179,9 @@
     <row r="30" spans="1:16">
       <c r="A30" s="2"/>
       <c r="B30" s="205"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="302"/>
-      <c r="E30" s="302"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="303"/>
       <c r="F30" s="206"/>
       <c r="G30" s="206"/>
       <c r="H30" s="206"/>
@@ -12175,53 +12190,53 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="317" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="318"/>
-      <c r="D31" s="318"/>
-      <c r="E31" s="318"/>
-      <c r="F31" s="319" t="s">
+      <c r="B31" s="318" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="319"/>
+      <c r="D31" s="319"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="320" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="320"/>
+      <c r="H31" s="321" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="319"/>
-      <c r="H31" s="320" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="321"/>
+      <c r="I31" s="322"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="35.5" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="303" t="e">
+      <c r="B32" s="304" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C32" s="304"/>
-      <c r="D32" s="304"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="309" t="e">
+      <c r="C32" s="305"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="306"/>
+      <c r="F32" s="310" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G32" s="310"/>
-      <c r="H32" s="311" t="e">
+      <c r="G32" s="311"/>
+      <c r="H32" s="312" t="e">
         <f>IF(Project_Comment="","",Project_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I32" s="312"/>
+      <c r="I32" s="313"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="306"/>
-      <c r="C33" s="307"/>
-      <c r="D33" s="307"/>
-      <c r="E33" s="308"/>
-      <c r="F33" s="313"/>
-      <c r="G33" s="314"/>
-      <c r="H33" s="315"/>
-      <c r="I33" s="316"/>
+      <c r="B33" s="307"/>
+      <c r="C33" s="308"/>
+      <c r="D33" s="308"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="314"/>
+      <c r="G33" s="315"/>
+      <c r="H33" s="316"/>
+      <c r="I33" s="317"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
@@ -12271,7 +12286,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -12379,13 +12394,13 @@
       <c r="D2" s="217"/>
       <c r="E2" s="217"/>
       <c r="F2" s="218"/>
-      <c r="G2" s="388" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="389"/>
-      <c r="I2" s="389"/>
-      <c r="J2" s="389"/>
-      <c r="K2" s="390"/>
+      <c r="G2" s="389" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="391"/>
       <c r="L2" s="216"/>
       <c r="M2" s="217"/>
       <c r="N2" s="217"/>
@@ -12400,19 +12415,19 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="220"/>
-      <c r="G3" s="391" t="e">
+      <c r="G3" s="392" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H3" s="392"/>
-      <c r="I3" s="392"/>
-      <c r="J3" s="392"/>
-      <c r="K3" s="393"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="380"/>
-      <c r="N3" s="380"/>
-      <c r="O3" s="380"/>
-      <c r="P3" s="395"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="381"/>
+      <c r="N3" s="381"/>
+      <c r="O3" s="381"/>
+      <c r="P3" s="396"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1">
@@ -12422,19 +12437,19 @@
       <c r="D4" s="222"/>
       <c r="E4" s="222"/>
       <c r="F4" s="223"/>
-      <c r="G4" s="396" t="e">
+      <c r="G4" s="397" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H4" s="397"/>
-      <c r="I4" s="397"/>
-      <c r="J4" s="397"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="400"/>
-      <c r="N4" s="400"/>
-      <c r="O4" s="400"/>
-      <c r="P4" s="401"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="400"/>
+      <c r="M4" s="401"/>
+      <c r="N4" s="401"/>
+      <c r="O4" s="401"/>
+      <c r="P4" s="402"/>
       <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickTop="1">
@@ -12459,7 +12474,7 @@
     <row r="6" spans="1:17" ht="15">
       <c r="A6" s="11"/>
       <c r="B6" s="224" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -12468,24 +12483,24 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="387" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="387"/>
-      <c r="L6" s="374" t="e">
+      <c r="J6" s="388" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="388"/>
+      <c r="L6" s="375" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M6" s="374"/>
-      <c r="N6" s="374"/>
-      <c r="O6" s="374"/>
-      <c r="P6" s="374"/>
+      <c r="M6" s="375"/>
+      <c r="N6" s="375"/>
+      <c r="O6" s="375"/>
+      <c r="P6" s="375"/>
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="11"/>
       <c r="B7" s="224" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -12494,24 +12509,24 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="402" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="402"/>
-      <c r="L7" s="374" t="e">
+      <c r="J7" s="403" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="403"/>
+      <c r="L7" s="375" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="374"/>
-      <c r="N7" s="374"/>
-      <c r="O7" s="374"/>
-      <c r="P7" s="374"/>
+      <c r="M7" s="375"/>
+      <c r="N7" s="375"/>
+      <c r="O7" s="375"/>
+      <c r="P7" s="375"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="11"/>
       <c r="B8" s="225" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -12520,24 +12535,24 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="402" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="402"/>
-      <c r="L8" s="374" t="e">
+      <c r="J8" s="403" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="403"/>
+      <c r="L8" s="375" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M8" s="374"/>
-      <c r="N8" s="374"/>
-      <c r="O8" s="374"/>
-      <c r="P8" s="374"/>
+      <c r="M8" s="375"/>
+      <c r="N8" s="375"/>
+      <c r="O8" s="375"/>
+      <c r="P8" s="375"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="11"/>
       <c r="B9" s="225" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -12546,19 +12561,19 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="374"/>
-      <c r="L9" s="374"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
-      <c r="O9" s="374"/>
-      <c r="P9" s="374"/>
+      <c r="J9" s="375"/>
+      <c r="K9" s="375"/>
+      <c r="L9" s="375"/>
+      <c r="M9" s="375"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="375"/>
+      <c r="P9" s="375"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="11"/>
       <c r="B10" s="225" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -12567,15 +12582,15 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="402" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="402"/>
-      <c r="L10" s="374"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="374"/>
-      <c r="P10" s="374"/>
+      <c r="J10" s="403" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="403"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
+      <c r="O10" s="375"/>
+      <c r="P10" s="375"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17">
@@ -12588,19 +12603,19 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="374"/>
-      <c r="L11" s="374"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="374"/>
+      <c r="J11" s="375"/>
+      <c r="K11" s="375"/>
+      <c r="L11" s="375"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="375"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="375"/>
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="11"/>
       <c r="B12" s="224" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -12609,19 +12624,19 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="374"/>
-      <c r="L12" s="374"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
-      <c r="O12" s="374"/>
-      <c r="P12" s="374"/>
+      <c r="J12" s="375"/>
+      <c r="K12" s="375"/>
+      <c r="L12" s="375"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="11"/>
       <c r="B13" s="224" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -12630,13 +12645,13 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="374"/>
-      <c r="L13" s="374"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
-      <c r="O13" s="374"/>
-      <c r="P13" s="374"/>
+      <c r="J13" s="375"/>
+      <c r="K13" s="375"/>
+      <c r="L13" s="375"/>
+      <c r="M13" s="375"/>
+      <c r="N13" s="375"/>
+      <c r="O13" s="375"/>
+      <c r="P13" s="375"/>
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17">
@@ -12668,40 +12683,40 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="374" t="str">
+      <c r="J15" s="375" t="str">
         <f ca="1">"Le "&amp;TEXT(TODAY(),"JJ MMMM AAAA")</f>
-        <v>Le 12 janvier 2023</v>
-      </c>
-      <c r="K15" s="374"/>
-      <c r="L15" s="374"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
+        <v>Le 06 mars 2023</v>
+      </c>
+      <c r="K15" s="375"/>
+      <c r="L15" s="375"/>
+      <c r="M15" s="375"/>
+      <c r="N15" s="375"/>
+      <c r="O15" s="375"/>
+      <c r="P15" s="375"/>
       <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1" thickTop="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="378" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="379" t="e" cm="1">
+      <c r="B16" s="379" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="379"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380" t="e" cm="1">
         <f t="array" ref="F16">IF(_xlfn.SINGLE(Project_Name)="","",_xlfn.SINGLE(Project_Name) &amp; " - " &amp;Project_Town)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
-      <c r="I16" s="379"/>
-      <c r="J16" s="379"/>
-      <c r="K16" s="379"/>
-      <c r="L16" s="379"/>
-      <c r="M16" s="379"/>
-      <c r="N16" s="379"/>
-      <c r="O16" s="379"/>
-      <c r="P16" s="379"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="380"/>
+      <c r="K16" s="380"/>
+      <c r="L16" s="380"/>
+      <c r="M16" s="380"/>
+      <c r="N16" s="380"/>
+      <c r="O16" s="380"/>
+      <c r="P16" s="380"/>
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" s="229" customFormat="1" ht="19.5" customHeight="1">
@@ -12709,7 +12724,7 @@
       <c r="B17" s="227"/>
       <c r="C17" s="227"/>
       <c r="D17" s="228" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="226"/>
       <c r="F17" s="226"/>
@@ -12747,22 +12762,22 @@
     <row r="19" spans="1:17" ht="33" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="231" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="231"/>
       <c r="D19" s="231"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="380"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="380"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="380"/>
-      <c r="N19" s="380"/>
-      <c r="O19" s="380"/>
-      <c r="P19" s="380"/>
+      <c r="F19" s="381"/>
+      <c r="G19" s="381"/>
+      <c r="H19" s="381"/>
+      <c r="I19" s="381"/>
+      <c r="J19" s="381"/>
+      <c r="K19" s="381"/>
+      <c r="L19" s="381"/>
+      <c r="M19" s="381"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="381"/>
+      <c r="P19" s="381"/>
       <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17">
@@ -12786,45 +12801,45 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="11"/>
-      <c r="B21" s="374" t="e" cm="1">
+      <c r="B21" s="375" t="e" cm="1">
         <f t="array" ref="B21">"Suite à votre demande, nous sommes intervenus le " &amp; IF(LEN(DAY(_xlfn.SINGLE(Report_Date))) = 1, "0" &amp; DAY(Report_Date),DAY(Report_Date)) &amp; "/" &amp; IF(LEN(MONTH(Report_Date)) = 1, "0" &amp; MONTH(Report_Date),MONTH(Report_Date))  &amp; "/" &amp; YEAR(Report_Date)&amp;" sur le chantier cité en objet."</f>
         <v>#NAME?</v>
       </c>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="374"/>
-      <c r="K21" s="374"/>
-      <c r="L21" s="374"/>
-      <c r="M21" s="374"/>
-      <c r="N21" s="374"/>
-      <c r="O21" s="374"/>
-      <c r="P21" s="374"/>
+      <c r="C21" s="375"/>
+      <c r="D21" s="375"/>
+      <c r="E21" s="375"/>
+      <c r="F21" s="375"/>
+      <c r="G21" s="375"/>
+      <c r="H21" s="375"/>
+      <c r="I21" s="375"/>
+      <c r="J21" s="375"/>
+      <c r="K21" s="375"/>
+      <c r="L21" s="375"/>
+      <c r="M21" s="375"/>
+      <c r="N21" s="375"/>
+      <c r="O21" s="375"/>
+      <c r="P21" s="375"/>
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="11"/>
-      <c r="B22" s="374" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="374"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="374"/>
-      <c r="K22" s="374"/>
-      <c r="L22" s="374"/>
-      <c r="M22" s="374"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="374"/>
-      <c r="P22" s="374"/>
+      <c r="B22" s="375" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="375"/>
+      <c r="D22" s="375"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="375"/>
+      <c r="I22" s="375"/>
+      <c r="J22" s="375"/>
+      <c r="K22" s="375"/>
+      <c r="L22" s="375"/>
+      <c r="M22" s="375"/>
+      <c r="N22" s="375"/>
+      <c r="O22" s="375"/>
+      <c r="P22" s="375"/>
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:17" ht="15" thickBot="1">
@@ -12848,102 +12863,102 @@
     </row>
     <row r="24" spans="1:17" ht="33" customHeight="1" thickTop="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="375" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="376"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="376"/>
-      <c r="I24" s="376"/>
-      <c r="J24" s="376"/>
-      <c r="K24" s="376"/>
-      <c r="L24" s="376"/>
-      <c r="M24" s="376"/>
-      <c r="N24" s="376"/>
-      <c r="O24" s="376"/>
-      <c r="P24" s="377"/>
+      <c r="B24" s="376" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="377"/>
+      <c r="D24" s="377"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="377"/>
+      <c r="G24" s="377"/>
+      <c r="H24" s="377"/>
+      <c r="I24" s="377"/>
+      <c r="J24" s="377"/>
+      <c r="K24" s="377"/>
+      <c r="L24" s="377"/>
+      <c r="M24" s="377"/>
+      <c r="N24" s="377"/>
+      <c r="O24" s="377"/>
+      <c r="P24" s="378"/>
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="11"/>
-      <c r="B25" s="381" t="e">
+      <c r="B25" s="382" t="e">
         <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C25" s="382"/>
-      <c r="D25" s="382"/>
-      <c r="E25" s="382"/>
-      <c r="F25" s="382"/>
-      <c r="G25" s="382"/>
-      <c r="H25" s="382"/>
-      <c r="I25" s="382"/>
-      <c r="J25" s="382"/>
-      <c r="K25" s="382"/>
-      <c r="L25" s="382"/>
-      <c r="M25" s="382"/>
-      <c r="N25" s="382"/>
-      <c r="O25" s="382"/>
-      <c r="P25" s="383"/>
+      <c r="C25" s="383"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="383"/>
+      <c r="F25" s="383"/>
+      <c r="G25" s="383"/>
+      <c r="H25" s="383"/>
+      <c r="I25" s="383"/>
+      <c r="J25" s="383"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="383"/>
+      <c r="N25" s="383"/>
+      <c r="O25" s="383"/>
+      <c r="P25" s="384"/>
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="11"/>
-      <c r="B26" s="384"/>
-      <c r="C26" s="385"/>
-      <c r="D26" s="385"/>
-      <c r="E26" s="385"/>
-      <c r="F26" s="385"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="385"/>
-      <c r="I26" s="385"/>
-      <c r="J26" s="385"/>
-      <c r="K26" s="385"/>
-      <c r="L26" s="385"/>
-      <c r="M26" s="385"/>
-      <c r="N26" s="385"/>
-      <c r="O26" s="385"/>
-      <c r="P26" s="386"/>
+      <c r="B26" s="385"/>
+      <c r="C26" s="386"/>
+      <c r="D26" s="386"/>
+      <c r="E26" s="386"/>
+      <c r="F26" s="386"/>
+      <c r="G26" s="386"/>
+      <c r="H26" s="386"/>
+      <c r="I26" s="386"/>
+      <c r="J26" s="386"/>
+      <c r="K26" s="386"/>
+      <c r="L26" s="386"/>
+      <c r="M26" s="386"/>
+      <c r="N26" s="386"/>
+      <c r="O26" s="386"/>
+      <c r="P26" s="387"/>
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="11"/>
-      <c r="B27" s="384"/>
-      <c r="C27" s="385"/>
-      <c r="D27" s="385"/>
-      <c r="E27" s="385"/>
-      <c r="F27" s="385"/>
-      <c r="G27" s="385"/>
-      <c r="H27" s="385"/>
-      <c r="I27" s="385"/>
-      <c r="J27" s="385"/>
-      <c r="K27" s="385"/>
-      <c r="L27" s="385"/>
-      <c r="M27" s="385"/>
-      <c r="N27" s="385"/>
-      <c r="O27" s="385"/>
-      <c r="P27" s="386"/>
+      <c r="B27" s="385"/>
+      <c r="C27" s="386"/>
+      <c r="D27" s="386"/>
+      <c r="E27" s="386"/>
+      <c r="F27" s="386"/>
+      <c r="G27" s="386"/>
+      <c r="H27" s="386"/>
+      <c r="I27" s="386"/>
+      <c r="J27" s="386"/>
+      <c r="K27" s="386"/>
+      <c r="L27" s="386"/>
+      <c r="M27" s="386"/>
+      <c r="N27" s="386"/>
+      <c r="O27" s="386"/>
+      <c r="P27" s="387"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="11"/>
-      <c r="B28" s="384"/>
-      <c r="C28" s="385"/>
-      <c r="D28" s="385"/>
-      <c r="E28" s="385"/>
-      <c r="F28" s="385"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="385"/>
-      <c r="J28" s="385"/>
-      <c r="K28" s="385"/>
-      <c r="L28" s="385"/>
-      <c r="M28" s="385"/>
-      <c r="N28" s="385"/>
-      <c r="O28" s="385"/>
-      <c r="P28" s="386"/>
+      <c r="B28" s="385"/>
+      <c r="C28" s="386"/>
+      <c r="D28" s="386"/>
+      <c r="E28" s="386"/>
+      <c r="F28" s="386"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="386"/>
+      <c r="I28" s="386"/>
+      <c r="J28" s="386"/>
+      <c r="K28" s="386"/>
+      <c r="L28" s="386"/>
+      <c r="M28" s="386"/>
+      <c r="N28" s="386"/>
+      <c r="O28" s="386"/>
+      <c r="P28" s="387"/>
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17">
@@ -13234,7 +13249,7 @@
     <row r="44" spans="1:17">
       <c r="A44" s="11"/>
       <c r="B44" s="237" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -13373,7 +13388,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -13407,7 +13422,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="280" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E2" s="280"/>
       <c r="F2" s="280"/>
@@ -13459,9 +13474,9 @@
       <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
@@ -13474,9 +13489,9 @@
       <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
@@ -13489,9 +13504,9 @@
       <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13502,9 +13517,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -13516,24 +13531,24 @@
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -13544,11 +13559,11 @@
       <c r="G11" s="272"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44991</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -13556,7 +13571,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -13590,7 +13605,7 @@
       <c r="G13" s="268"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="118" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -13613,17 +13628,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -13657,42 +13672,42 @@
         <v>8</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="407" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="408"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="408" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="409"/>
+      <c r="J17" s="410"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="89" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="91" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="410"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="412"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -13706,9 +13721,9 @@
         <f t="array" ref="G19">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H19" s="404"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
+      <c r="H19" s="405"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -13722,9 +13737,9 @@
         <f t="array" ref="G20">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H20" s="404"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -13738,9 +13753,9 @@
         <f t="array" ref="G21">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H21" s="404"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -13754,9 +13769,9 @@
         <f t="array" ref="G22">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H22" s="404"/>
-      <c r="I22" s="405"/>
-      <c r="J22" s="406"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -13770,9 +13785,9 @@
         <f t="array" ref="G23">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H23" s="404"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="406"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -13786,9 +13801,9 @@
         <f t="array" ref="G24">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H24" s="404"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="406"/>
+      <c r="H24" s="405"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -13802,9 +13817,9 @@
         <f t="array" ref="G25">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H25" s="404"/>
-      <c r="I25" s="405"/>
-      <c r="J25" s="406"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -13818,9 +13833,9 @@
         <f t="array" ref="G26">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H26" s="404"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="406"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -13834,9 +13849,9 @@
         <f t="array" ref="G27">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H27" s="404"/>
-      <c r="I27" s="405"/>
-      <c r="J27" s="406"/>
+      <c r="H27" s="405"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="407"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -13850,9 +13865,9 @@
         <f t="array" ref="G28">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H28" s="404"/>
-      <c r="I28" s="405"/>
-      <c r="J28" s="406"/>
+      <c r="H28" s="405"/>
+      <c r="I28" s="406"/>
+      <c r="J28" s="407"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -13866,9 +13881,9 @@
         <f t="array" ref="G29">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H29" s="404"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="406"/>
+      <c r="H29" s="405"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -13882,9 +13897,9 @@
         <f t="array" ref="G30">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H30" s="404"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
+      <c r="H30" s="405"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -13898,9 +13913,9 @@
         <f t="array" ref="G31">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H31" s="404"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="406"/>
+      <c r="H31" s="405"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -13914,9 +13929,9 @@
         <f t="array" ref="G32">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H32" s="404"/>
-      <c r="I32" s="405"/>
-      <c r="J32" s="406"/>
+      <c r="H32" s="405"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -13930,9 +13945,9 @@
         <f t="array" ref="G33">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H33" s="404"/>
-      <c r="I33" s="405"/>
-      <c r="J33" s="406"/>
+      <c r="H33" s="405"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -13946,9 +13961,9 @@
         <f t="array" ref="G34">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H34" s="404"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="406"/>
+      <c r="H34" s="405"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -13962,9 +13977,9 @@
         <f t="array" ref="G35">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H35" s="404"/>
-      <c r="I35" s="405"/>
-      <c r="J35" s="406"/>
+      <c r="H35" s="405"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -13994,9 +14009,9 @@
         <f t="array" ref="G37">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H37" s="404"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="406"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -14010,9 +14025,9 @@
         <f t="array" ref="G38">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H38" s="404"/>
-      <c r="I38" s="405"/>
-      <c r="J38" s="406"/>
+      <c r="H38" s="405"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="407"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -14026,9 +14041,9 @@
         <f t="array" ref="G39">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H39" s="404"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="406"/>
+      <c r="H39" s="405"/>
+      <c r="I39" s="406"/>
+      <c r="J39" s="407"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -14042,9 +14057,9 @@
         <f t="array" ref="G40">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="406"/>
+      <c r="H40" s="405"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="407"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -14058,9 +14073,9 @@
         <f t="array" ref="G41">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="406"/>
+      <c r="H41" s="405"/>
+      <c r="I41" s="406"/>
+      <c r="J41" s="407"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -14074,9 +14089,9 @@
         <f t="array" ref="G42">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="406"/>
+      <c r="H42" s="405"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -14090,9 +14105,9 @@
         <f t="array" ref="G43">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H43" s="404"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="406"/>
+      <c r="H43" s="405"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -14106,9 +14121,9 @@
         <f t="array" ref="G44">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H44" s="404"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="406"/>
+      <c r="H44" s="405"/>
+      <c r="I44" s="406"/>
+      <c r="J44" s="407"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -14122,9 +14137,9 @@
         <f t="array" ref="G45">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H45" s="404"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="406"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="407"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -14138,9 +14153,9 @@
         <f t="array" ref="G46">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H46" s="404"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="406"/>
+      <c r="H46" s="405"/>
+      <c r="I46" s="406"/>
+      <c r="J46" s="407"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -14154,9 +14169,9 @@
         <f t="array" ref="G47">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H47" s="404"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="406"/>
+      <c r="H47" s="405"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="407"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -14170,9 +14185,9 @@
         <f t="array" ref="G48">IFERROR(IF(ArrayResult[[#This Row],[ModuleRaw]]="","",IF(ArrayResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="H48" s="416"/>
-      <c r="I48" s="417"/>
-      <c r="J48" s="418"/>
+      <c r="H48" s="417"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="419"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -14267,7 +14282,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -14301,7 +14316,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="280" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="E2" s="280"/>
       <c r="F2" s="280"/>
@@ -14353,9 +14368,9 @@
       <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
@@ -14368,9 +14383,9 @@
       <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
@@ -14383,9 +14398,9 @@
       <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -14396,9 +14411,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -14410,24 +14425,24 @@
     </row>
     <row r="10" spans="1:14" ht="15.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="72" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -14438,11 +14453,11 @@
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
       <c r="I11" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44991</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -14450,7 +14465,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="140" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -14484,7 +14499,7 @@
       <c r="G13" s="141"/>
       <c r="H13" s="141"/>
       <c r="I13" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="118" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -14507,17 +14522,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -14542,51 +14557,51 @@
         <v>6</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="408" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="408"/>
-      <c r="J17" s="409"/>
+      <c r="H17" s="409" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="409"/>
+      <c r="J17" s="410"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="89" t="s">
+      <c r="E18" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="89" t="s">
-        <v>65</v>
-      </c>
       <c r="F18" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="91" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(IF(ArrayResult3[[#This Row],[ModuleRaw]]="","",IF(ArrayResult3[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult3[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult3[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="H18" s="142"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="412"/>
+      <c r="I18" s="412"/>
+      <c r="J18" s="413"/>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
@@ -14601,8 +14616,8 @@
         <v/>
       </c>
       <c r="H19" s="142"/>
-      <c r="I19" s="405"/>
-      <c r="J19" s="406"/>
+      <c r="I19" s="406"/>
+      <c r="J19" s="407"/>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
@@ -14617,8 +14632,8 @@
         <v/>
       </c>
       <c r="H20" s="142"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
+      <c r="I20" s="406"/>
+      <c r="J20" s="407"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -14633,8 +14648,8 @@
         <v/>
       </c>
       <c r="H21" s="142"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -14649,8 +14664,8 @@
         <v/>
       </c>
       <c r="H22" s="142"/>
-      <c r="I22" s="405"/>
-      <c r="J22" s="406"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="407"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -14665,8 +14680,8 @@
         <v/>
       </c>
       <c r="H23" s="142"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="406"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="407"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -14681,8 +14696,8 @@
         <v/>
       </c>
       <c r="H24" s="142"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="406"/>
+      <c r="I24" s="406"/>
+      <c r="J24" s="407"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -14697,8 +14712,8 @@
         <v/>
       </c>
       <c r="H25" s="142"/>
-      <c r="I25" s="405"/>
-      <c r="J25" s="406"/>
+      <c r="I25" s="406"/>
+      <c r="J25" s="407"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -14713,8 +14728,8 @@
         <v/>
       </c>
       <c r="H26" s="142"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="406"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -14729,8 +14744,8 @@
         <v/>
       </c>
       <c r="H27" s="142"/>
-      <c r="I27" s="405"/>
-      <c r="J27" s="406"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="407"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -14745,8 +14760,8 @@
         <v/>
       </c>
       <c r="H28" s="142"/>
-      <c r="I28" s="405"/>
-      <c r="J28" s="406"/>
+      <c r="I28" s="406"/>
+      <c r="J28" s="407"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -14761,8 +14776,8 @@
         <v/>
       </c>
       <c r="H29" s="142"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="406"/>
+      <c r="I29" s="406"/>
+      <c r="J29" s="407"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -14777,8 +14792,8 @@
         <v/>
       </c>
       <c r="H30" s="142"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="406"/>
+      <c r="I30" s="406"/>
+      <c r="J30" s="407"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -14793,8 +14808,8 @@
         <v/>
       </c>
       <c r="H31" s="142"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="406"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -14809,8 +14824,8 @@
         <v/>
       </c>
       <c r="H32" s="142"/>
-      <c r="I32" s="405"/>
-      <c r="J32" s="406"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -14825,8 +14840,8 @@
         <v/>
       </c>
       <c r="H33" s="142"/>
-      <c r="I33" s="405"/>
-      <c r="J33" s="406"/>
+      <c r="I33" s="406"/>
+      <c r="J33" s="407"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -14841,8 +14856,8 @@
         <v/>
       </c>
       <c r="H34" s="142"/>
-      <c r="I34" s="405"/>
-      <c r="J34" s="406"/>
+      <c r="I34" s="406"/>
+      <c r="J34" s="407"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -14857,8 +14872,8 @@
         <v/>
       </c>
       <c r="H35" s="142"/>
-      <c r="I35" s="405"/>
-      <c r="J35" s="406"/>
+      <c r="I35" s="406"/>
+      <c r="J35" s="407"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -14873,8 +14888,8 @@
         <v/>
       </c>
       <c r="H36" s="142"/>
-      <c r="I36" s="405"/>
-      <c r="J36" s="406"/>
+      <c r="I36" s="406"/>
+      <c r="J36" s="407"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -14889,8 +14904,8 @@
         <v/>
       </c>
       <c r="H37" s="142"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="406"/>
+      <c r="I37" s="406"/>
+      <c r="J37" s="407"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -14905,8 +14920,8 @@
         <v/>
       </c>
       <c r="H38" s="142"/>
-      <c r="I38" s="405"/>
-      <c r="J38" s="406"/>
+      <c r="I38" s="406"/>
+      <c r="J38" s="407"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -14921,8 +14936,8 @@
         <v/>
       </c>
       <c r="H39" s="142"/>
-      <c r="I39" s="405"/>
-      <c r="J39" s="406"/>
+      <c r="I39" s="406"/>
+      <c r="J39" s="407"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -14937,8 +14952,8 @@
         <v/>
       </c>
       <c r="H40" s="142"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="406"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="407"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -14953,8 +14968,8 @@
         <v/>
       </c>
       <c r="H41" s="142"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="406"/>
+      <c r="I41" s="406"/>
+      <c r="J41" s="407"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -14969,8 +14984,8 @@
         <v/>
       </c>
       <c r="H42" s="142"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="406"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -14985,8 +15000,8 @@
         <v/>
       </c>
       <c r="H43" s="142"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="406"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -15001,8 +15016,8 @@
         <v/>
       </c>
       <c r="H44" s="142"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="406"/>
+      <c r="I44" s="406"/>
+      <c r="J44" s="407"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -15017,8 +15032,8 @@
         <v/>
       </c>
       <c r="H45" s="142"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="406"/>
+      <c r="I45" s="406"/>
+      <c r="J45" s="407"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -15033,8 +15048,8 @@
         <v/>
       </c>
       <c r="H46" s="142"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="406"/>
+      <c r="I46" s="406"/>
+      <c r="J46" s="407"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -15049,8 +15064,8 @@
         <v/>
       </c>
       <c r="H47" s="142"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="406"/>
+      <c r="I47" s="406"/>
+      <c r="J47" s="407"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -15065,8 +15080,8 @@
         <v/>
       </c>
       <c r="H48" s="150"/>
-      <c r="I48" s="417"/>
-      <c r="J48" s="418"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="419"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -15159,7 +15174,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14"/>
@@ -15193,7 +15208,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="280" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E2" s="280"/>
       <c r="F2" s="280"/>
@@ -15245,9 +15260,9 @@
       <c r="K5" s="281"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="403"/>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
+      <c r="A6" s="404"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="404"/>
       <c r="D6" s="245" t="s">
         <v>17</v>
       </c>
@@ -15260,9 +15275,9 @@
       <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="403"/>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
+      <c r="A7" s="404"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="404"/>
       <c r="D7" s="245" t="s">
         <v>11</v>
       </c>
@@ -15275,9 +15290,9 @@
       <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="403"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="404"/>
+      <c r="C8" s="404"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15288,9 +15303,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="403"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="403"/>
+      <c r="A9" s="404"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="404"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -15302,24 +15317,24 @@
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="413" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="414"/>
-      <c r="D10" s="414"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="415"/>
+      <c r="B10" s="414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="415"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="415"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="415"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="416"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="124"/>
       <c r="C11" s="69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="272" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
@@ -15330,11 +15345,11 @@
       <c r="G11" s="105"/>
       <c r="H11" s="105"/>
       <c r="I11" s="69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="71">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
+        <v>44991</v>
       </c>
       <c r="K11" s="77"/>
     </row>
@@ -15342,7 +15357,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="125"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="261" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
@@ -15376,7 +15391,7 @@
       <c r="G13" s="109"/>
       <c r="H13" s="109"/>
       <c r="I13" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="118" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
@@ -15399,17 +15414,17 @@
     </row>
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="414" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="414"/>
-      <c r="G15" s="414"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="414"/>
-      <c r="J15" s="415"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="416"/>
       <c r="K15" s="15"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
@@ -15440,41 +15455,41 @@
         <v>5</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="420" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="420"/>
-      <c r="I17" s="421"/>
-      <c r="J17" s="421"/>
+      <c r="G17" s="421" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="421"/>
+      <c r="I17" s="422"/>
+      <c r="J17" s="422"/>
       <c r="K17" s="143"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="89" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="91" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G18" s="419"/>
-      <c r="H18" s="419"/>
-      <c r="I18" s="419"/>
-      <c r="J18" s="419"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="420"/>
+      <c r="I18" s="420"/>
+      <c r="J18" s="420"/>
       <c r="K18" s="143" t="e" cm="1">
         <f t="array" ref="K18">Thresholds_Modulus_Value</f>
         <v>#NAME?</v>
@@ -15490,10 +15505,10 @@
         <f t="array" ref="F19">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G19" s="419"/>
-      <c r="H19" s="419"/>
-      <c r="I19" s="419"/>
-      <c r="J19" s="419"/>
+      <c r="G19" s="420"/>
+      <c r="H19" s="420"/>
+      <c r="I19" s="420"/>
+      <c r="J19" s="420"/>
       <c r="K19" s="143" t="e" cm="1">
         <f t="array" ref="K19">Thresholds_Modulus_Value</f>
         <v>#NAME?</v>
@@ -15509,10 +15524,10 @@
         <f t="array" ref="F20">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G20" s="419"/>
-      <c r="H20" s="419"/>
-      <c r="I20" s="419"/>
-      <c r="J20" s="419"/>
+      <c r="G20" s="420"/>
+      <c r="H20" s="420"/>
+      <c r="I20" s="420"/>
+      <c r="J20" s="420"/>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -15525,10 +15540,10 @@
         <f t="array" ref="F21">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="419"/>
+      <c r="G21" s="420"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="420"/>
+      <c r="J21" s="420"/>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
@@ -15541,10 +15556,10 @@
         <f t="array" ref="F22">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G22" s="419"/>
-      <c r="H22" s="419"/>
-      <c r="I22" s="419"/>
-      <c r="J22" s="419"/>
+      <c r="G22" s="420"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="420"/>
+      <c r="J22" s="420"/>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
@@ -15557,10 +15572,10 @@
         <f t="array" ref="F23">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G23" s="419"/>
-      <c r="H23" s="419"/>
-      <c r="I23" s="419"/>
-      <c r="J23" s="419"/>
+      <c r="G23" s="420"/>
+      <c r="H23" s="420"/>
+      <c r="I23" s="420"/>
+      <c r="J23" s="420"/>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
@@ -15573,10 +15588,10 @@
         <f t="array" ref="F24">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G24" s="419"/>
-      <c r="H24" s="419"/>
-      <c r="I24" s="419"/>
-      <c r="J24" s="419"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="420"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="420"/>
       <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
@@ -15589,10 +15604,10 @@
         <f t="array" ref="F25">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G25" s="419"/>
-      <c r="H25" s="419"/>
-      <c r="I25" s="419"/>
-      <c r="J25" s="419"/>
+      <c r="G25" s="420"/>
+      <c r="H25" s="420"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="420"/>
       <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
@@ -15605,10 +15620,10 @@
         <f t="array" ref="F26">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G26" s="419"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="419"/>
-      <c r="J26" s="419"/>
+      <c r="G26" s="420"/>
+      <c r="H26" s="420"/>
+      <c r="I26" s="420"/>
+      <c r="J26" s="420"/>
       <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
@@ -15621,10 +15636,10 @@
         <f t="array" ref="F27">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G27" s="419"/>
-      <c r="H27" s="419"/>
-      <c r="I27" s="419"/>
-      <c r="J27" s="419"/>
+      <c r="G27" s="420"/>
+      <c r="H27" s="420"/>
+      <c r="I27" s="420"/>
+      <c r="J27" s="420"/>
       <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
@@ -15637,10 +15652,10 @@
         <f t="array" ref="F28">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G28" s="419"/>
-      <c r="H28" s="419"/>
-      <c r="I28" s="419"/>
-      <c r="J28" s="419"/>
+      <c r="G28" s="420"/>
+      <c r="H28" s="420"/>
+      <c r="I28" s="420"/>
+      <c r="J28" s="420"/>
       <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
@@ -15653,10 +15668,10 @@
         <f t="array" ref="F29">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G29" s="419"/>
-      <c r="H29" s="419"/>
-      <c r="I29" s="419"/>
-      <c r="J29" s="419"/>
+      <c r="G29" s="420"/>
+      <c r="H29" s="420"/>
+      <c r="I29" s="420"/>
+      <c r="J29" s="420"/>
       <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
@@ -15669,10 +15684,10 @@
         <f t="array" ref="F30">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G30" s="419"/>
-      <c r="H30" s="419"/>
-      <c r="I30" s="419"/>
-      <c r="J30" s="419"/>
+      <c r="G30" s="420"/>
+      <c r="H30" s="420"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="420"/>
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
@@ -15685,10 +15700,10 @@
         <f t="array" ref="F31">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G31" s="419"/>
-      <c r="H31" s="419"/>
-      <c r="I31" s="419"/>
-      <c r="J31" s="419"/>
+      <c r="G31" s="420"/>
+      <c r="H31" s="420"/>
+      <c r="I31" s="420"/>
+      <c r="J31" s="420"/>
       <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
@@ -15701,10 +15716,10 @@
         <f t="array" ref="F32">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G32" s="419"/>
-      <c r="H32" s="419"/>
-      <c r="I32" s="419"/>
-      <c r="J32" s="419"/>
+      <c r="G32" s="420"/>
+      <c r="H32" s="420"/>
+      <c r="I32" s="420"/>
+      <c r="J32" s="420"/>
       <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
@@ -15717,10 +15732,10 @@
         <f t="array" ref="F33">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G33" s="419"/>
-      <c r="H33" s="419"/>
-      <c r="I33" s="419"/>
-      <c r="J33" s="419"/>
+      <c r="G33" s="420"/>
+      <c r="H33" s="420"/>
+      <c r="I33" s="420"/>
+      <c r="J33" s="420"/>
       <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
@@ -15733,10 +15748,10 @@
         <f t="array" ref="F34">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G34" s="419"/>
-      <c r="H34" s="419"/>
-      <c r="I34" s="419"/>
-      <c r="J34" s="419"/>
+      <c r="G34" s="420"/>
+      <c r="H34" s="420"/>
+      <c r="I34" s="420"/>
+      <c r="J34" s="420"/>
       <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
@@ -15749,10 +15764,10 @@
         <f t="array" ref="F35">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G35" s="419"/>
-      <c r="H35" s="419"/>
-      <c r="I35" s="419"/>
-      <c r="J35" s="419"/>
+      <c r="G35" s="420"/>
+      <c r="H35" s="420"/>
+      <c r="I35" s="420"/>
+      <c r="J35" s="420"/>
       <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
@@ -15765,10 +15780,10 @@
         <f t="array" ref="F36">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G36" s="419"/>
-      <c r="H36" s="419"/>
-      <c r="I36" s="419"/>
-      <c r="J36" s="419"/>
+      <c r="G36" s="420"/>
+      <c r="H36" s="420"/>
+      <c r="I36" s="420"/>
+      <c r="J36" s="420"/>
       <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
@@ -15781,10 +15796,10 @@
         <f t="array" ref="F37">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G37" s="419"/>
-      <c r="H37" s="419"/>
-      <c r="I37" s="419"/>
-      <c r="J37" s="419"/>
+      <c r="G37" s="420"/>
+      <c r="H37" s="420"/>
+      <c r="I37" s="420"/>
+      <c r="J37" s="420"/>
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
@@ -15797,10 +15812,10 @@
         <f t="array" ref="F38">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G38" s="419"/>
-      <c r="H38" s="419"/>
-      <c r="I38" s="419"/>
-      <c r="J38" s="419"/>
+      <c r="G38" s="420"/>
+      <c r="H38" s="420"/>
+      <c r="I38" s="420"/>
+      <c r="J38" s="420"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
@@ -15813,10 +15828,10 @@
         <f t="array" ref="F39">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G39" s="419"/>
-      <c r="H39" s="419"/>
-      <c r="I39" s="419"/>
-      <c r="J39" s="419"/>
+      <c r="G39" s="420"/>
+      <c r="H39" s="420"/>
+      <c r="I39" s="420"/>
+      <c r="J39" s="420"/>
       <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
@@ -15829,10 +15844,10 @@
         <f t="array" ref="F40">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G40" s="419"/>
-      <c r="H40" s="419"/>
-      <c r="I40" s="419"/>
-      <c r="J40" s="419"/>
+      <c r="G40" s="420"/>
+      <c r="H40" s="420"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="420"/>
       <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
@@ -15845,10 +15860,10 @@
         <f t="array" ref="F41">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G41" s="419"/>
-      <c r="H41" s="419"/>
-      <c r="I41" s="419"/>
-      <c r="J41" s="419"/>
+      <c r="G41" s="420"/>
+      <c r="H41" s="420"/>
+      <c r="I41" s="420"/>
+      <c r="J41" s="420"/>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
@@ -15861,10 +15876,10 @@
         <f t="array" ref="F42">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G42" s="419"/>
-      <c r="H42" s="419"/>
-      <c r="I42" s="419"/>
-      <c r="J42" s="419"/>
+      <c r="G42" s="420"/>
+      <c r="H42" s="420"/>
+      <c r="I42" s="420"/>
+      <c r="J42" s="420"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
@@ -15877,10 +15892,10 @@
         <f t="array" ref="F43">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G43" s="419"/>
-      <c r="H43" s="419"/>
-      <c r="I43" s="419"/>
-      <c r="J43" s="419"/>
+      <c r="G43" s="420"/>
+      <c r="H43" s="420"/>
+      <c r="I43" s="420"/>
+      <c r="J43" s="420"/>
       <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
@@ -15893,10 +15908,10 @@
         <f t="array" ref="F44">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G44" s="419"/>
-      <c r="H44" s="419"/>
-      <c r="I44" s="419"/>
-      <c r="J44" s="419"/>
+      <c r="G44" s="420"/>
+      <c r="H44" s="420"/>
+      <c r="I44" s="420"/>
+      <c r="J44" s="420"/>
       <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
@@ -15909,10 +15924,10 @@
         <f t="array" ref="F45">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G45" s="419"/>
-      <c r="H45" s="419"/>
-      <c r="I45" s="419"/>
-      <c r="J45" s="419"/>
+      <c r="G45" s="420"/>
+      <c r="H45" s="420"/>
+      <c r="I45" s="420"/>
+      <c r="J45" s="420"/>
       <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
@@ -15925,10 +15940,10 @@
         <f t="array" ref="F46">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G46" s="419"/>
-      <c r="H46" s="419"/>
-      <c r="I46" s="419"/>
-      <c r="J46" s="419"/>
+      <c r="G46" s="420"/>
+      <c r="H46" s="420"/>
+      <c r="I46" s="420"/>
+      <c r="J46" s="420"/>
       <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
@@ -15941,10 +15956,10 @@
         <f t="array" ref="F47">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G47" s="419"/>
-      <c r="H47" s="419"/>
-      <c r="I47" s="419"/>
-      <c r="J47" s="419"/>
+      <c r="G47" s="420"/>
+      <c r="H47" s="420"/>
+      <c r="I47" s="420"/>
+      <c r="J47" s="420"/>
       <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
@@ -15957,10 +15972,10 @@
         <f t="array" ref="F48">IFERROR(IF(ArrayResult5[[#This Row],[ModuleRaw]]="","",IF(ArrayResult5[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayResult5[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayResult5[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
-      <c r="G48" s="419"/>
-      <c r="H48" s="419"/>
-      <c r="I48" s="419"/>
-      <c r="J48" s="419"/>
+      <c r="G48" s="420"/>
+      <c r="H48" s="420"/>
+      <c r="I48" s="420"/>
+      <c r="J48" s="420"/>
       <c r="K48" s="81"/>
     </row>
     <row r="49" spans="1:11">
@@ -16068,8 +16083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCDCA2B-9C8E-4A39-9C53-A3F169F7F211}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -16105,17 +16120,17 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="425" t="s">
+      <c r="F2" s="426" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="427"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="428"/>
+      <c r="J2" s="429" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="428" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="429"/>
-      <c r="L2" s="430"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="431"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1">
@@ -16124,18 +16139,18 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="431" t="s">
-        <v>74</v>
+      <c r="F3" s="432" t="s">
+        <v>73</v>
       </c>
       <c r="G3" s="242"/>
       <c r="H3" s="242"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="431" t="e">
+      <c r="I3" s="433"/>
+      <c r="J3" s="432" t="e">
         <f>IF(Project_Name="","",Project_Name)</f>
         <v>#NAME?</v>
       </c>
       <c r="K3" s="242"/>
-      <c r="L3" s="432"/>
+      <c r="L3" s="433"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="7.5" customHeight="1">
@@ -16144,13 +16159,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="431"/>
+      <c r="F4" s="432"/>
       <c r="G4" s="242"/>
       <c r="H4" s="242"/>
-      <c r="I4" s="432"/>
-      <c r="J4" s="431"/>
+      <c r="I4" s="433"/>
+      <c r="J4" s="432"/>
       <c r="K4" s="242"/>
-      <c r="L4" s="432"/>
+      <c r="L4" s="433"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
@@ -16162,16 +16177,16 @@
       <c r="F5" s="162"/>
       <c r="G5" s="163"/>
       <c r="H5" s="163" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="164" t="s">
+      <c r="J5" s="423" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="422" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="423"/>
-      <c r="L5" s="424"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="425"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="11.5" customHeight="1">
@@ -16180,22 +16195,22 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="433"/>
+      <c r="F6" s="434"/>
       <c r="G6" s="165"/>
-      <c r="H6" s="435" t="e">
+      <c r="H6" s="436" t="e">
         <f>IF(Project_Project="","", Project_Project)</f>
         <v>#NAME?</v>
       </c>
-      <c r="I6" s="437">
+      <c r="I6" s="438">
         <f ca="1">TODAY()</f>
-        <v>44938</v>
-      </c>
-      <c r="J6" s="431" t="e">
+        <v>44991</v>
+      </c>
+      <c r="J6" s="432" t="e">
         <f>IF(Project_Town="","",Project_Town)</f>
         <v>#NAME?</v>
       </c>
       <c r="K6" s="242"/>
-      <c r="L6" s="432"/>
+      <c r="L6" s="433"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="11.5" customHeight="1">
@@ -16204,13 +16219,13 @@
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
       <c r="E7" s="167"/>
-      <c r="F7" s="434"/>
+      <c r="F7" s="435"/>
       <c r="G7" s="168"/>
-      <c r="H7" s="436"/>
-      <c r="I7" s="438"/>
-      <c r="J7" s="439"/>
-      <c r="K7" s="440"/>
-      <c r="L7" s="441"/>
+      <c r="H7" s="437"/>
+      <c r="I7" s="439"/>
+      <c r="J7" s="440"/>
+      <c r="K7" s="441"/>
+      <c r="L7" s="442"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="23" customHeight="1">
@@ -16231,10 +16246,10 @@
     <row r="9" spans="1:13">
       <c r="A9" s="2"/>
       <c r="B9" s="169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="170" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="170" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -16265,75 +16280,75 @@
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="161"/>
-      <c r="C11" s="442" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="442"/>
-      <c r="E11" s="442"/>
-      <c r="F11" s="442" t="e">
+      <c r="C11" s="443" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="443"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="443" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G11" s="442"/>
-      <c r="H11" s="442"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="443"/>
       <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="442" t="e">
+        <v>39</v>
+      </c>
+      <c r="J11" s="443" t="e">
         <f xml:space="preserve"> IF(Hardware_SerialNumber="","","Maxidyn " &amp; Hardware_SerialNumber)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="442"/>
+      <c r="K11" s="443"/>
       <c r="L11" s="172"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="161"/>
-      <c r="C12" s="442" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="442"/>
-      <c r="E12" s="442"/>
-      <c r="F12" s="442" t="e">
+      <c r="C12" s="443" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="443" t="e">
         <f>IF(Report_Weather="","",Report_Weather)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="442"/>
-      <c r="H12" s="442"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="443"/>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="442" t="e">
+      <c r="J12" s="443" t="e">
         <f>IF(Project_Customer="","",Project_Customer)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="442"/>
+      <c r="K12" s="443"/>
       <c r="L12" s="172"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="161"/>
-      <c r="C13" s="442" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="442"/>
-      <c r="E13" s="442"/>
-      <c r="F13" s="442" t="e">
+      <c r="C13" s="443" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="443"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="443" t="e">
         <f>IF(Platform_Material="","",Platform_Material)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="442"/>
-      <c r="H13" s="442"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="443"/>
       <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="442" t="e">
+        <v>32</v>
+      </c>
+      <c r="J13" s="443" t="e">
         <f>IF(Project_Site="","",Project_Site)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="442"/>
+      <c r="K13" s="443"/>
       <c r="L13" s="172"/>
       <c r="M13" s="2"/>
     </row>
@@ -16370,10 +16385,10 @@
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="B16" s="169" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="170" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -16405,16 +16420,16 @@
       <c r="A18" s="2"/>
       <c r="B18" s="161"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="463" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="463"/>
-      <c r="F18" s="463"/>
+      <c r="D18" s="464" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="464"/>
+      <c r="F18" s="464"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="461" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="462"/>
+      <c r="H18" s="462" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="463"/>
       <c r="J18" s="194" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",_xlfn.SINGLE(Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
@@ -16426,21 +16441,21 @@
     <row r="19" spans="1:13" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="161"/>
-      <c r="C19" s="442" t="s">
+      <c r="C19" s="443" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="442"/>
-      <c r="E19" s="442"/>
+      <c r="D19" s="443"/>
+      <c r="E19" s="443"/>
       <c r="F19" s="84" t="e">
         <f>MAX((Pi_Number))</f>
         <v>#NAME?</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="443" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="443"/>
+      <c r="I19" s="444" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="444"/>
       <c r="K19" s="84" t="e">
         <f>IF(AVERAGE(Pi_Modulus)&gt;Unit_Modulus_Max,"&gt;"&amp;Unit_Modulus_Max,IF(AVERAGE(Pi_Modulus)&lt;Unit_Modulus_Min,"&lt;"&amp;"Unit_Modulus_Max",AVERAGE(Pi_Modulus)))</f>
         <v>#NAME?</v>
@@ -16451,16 +16466,16 @@
     <row r="20" spans="1:13" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="442"/>
-      <c r="D20" s="442"/>
-      <c r="E20" s="442"/>
+      <c r="C20" s="443"/>
+      <c r="D20" s="443"/>
+      <c r="E20" s="443"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="443" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="443"/>
+      <c r="I20" s="444" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="444"/>
       <c r="K20" s="84" t="e" cm="1">
         <f t="array" ref="K20">COUNTIF(Pi_Modulus, "&gt;" &amp;_xlfn.SINGLE( Thresholds_Modulus_Value))</f>
         <v>#NAME?</v>
@@ -16501,10 +16516,10 @@
     <row r="23" spans="1:13" ht="16.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="175" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="175" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -16544,19 +16559,19 @@
         <v>5</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G25" s="178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="178" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="446"/>
-      <c r="K25" s="447"/>
+        <v>42</v>
+      </c>
+      <c r="J25" s="447"/>
+      <c r="K25" s="448"/>
       <c r="L25" s="179"/>
       <c r="M25" s="180"/>
     </row>
@@ -16564,29 +16579,29 @@
       <c r="A26" s="2"/>
       <c r="B26" s="161"/>
       <c r="C26" s="181" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="E26" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="182" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="183" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G26" s="183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="183" t="str" cm="1">
         <f t="array" ref="H26">IFERROR(IF(ArrayDResult[[#This Row],[ModuleRaw]]="","",IF(ArrayDResult[[#This Row],[ModuleRaw]]&gt;_xlfn.SINGLE(Unit_Modulus_Max),"&gt;"&amp;_xlfn.SINGLE(Unit_Modulus_Max),IF(ArrayDResult[[#This Row],[ModuleRaw]]&lt;_xlfn.SINGLE(Unit_Modulus_Min),"&lt;"&amp;Unit_Modulus_Min,ArrayDResult[[#This Row],[ModuleRaw]]))),"")</f>
         <v/>
       </c>
       <c r="I26" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="444"/>
-      <c r="K26" s="445"/>
+        <v>90</v>
+      </c>
+      <c r="J26" s="445"/>
+      <c r="K26" s="446"/>
       <c r="L26" s="172"/>
       <c r="M26" s="2"/>
     </row>
@@ -16603,8 +16618,8 @@
         <v/>
       </c>
       <c r="I27" s="184"/>
-      <c r="J27" s="444"/>
-      <c r="K27" s="445"/>
+      <c r="J27" s="445"/>
+      <c r="K27" s="446"/>
       <c r="L27" s="172"/>
       <c r="M27" s="2"/>
     </row>
@@ -16621,8 +16636,8 @@
         <v/>
       </c>
       <c r="I28" s="184"/>
-      <c r="J28" s="444"/>
-      <c r="K28" s="445"/>
+      <c r="J28" s="445"/>
+      <c r="K28" s="446"/>
       <c r="L28" s="172"/>
       <c r="M28" s="2"/>
     </row>
@@ -16639,8 +16654,8 @@
         <v/>
       </c>
       <c r="I29" s="184"/>
-      <c r="J29" s="444"/>
-      <c r="K29" s="445"/>
+      <c r="J29" s="445"/>
+      <c r="K29" s="446"/>
       <c r="L29" s="172"/>
       <c r="M29" s="2"/>
     </row>
@@ -16657,8 +16672,8 @@
         <v/>
       </c>
       <c r="I30" s="184"/>
-      <c r="J30" s="444"/>
-      <c r="K30" s="445"/>
+      <c r="J30" s="445"/>
+      <c r="K30" s="446"/>
       <c r="L30" s="172"/>
       <c r="M30" s="2"/>
     </row>
@@ -16675,8 +16690,8 @@
         <v/>
       </c>
       <c r="I31" s="184"/>
-      <c r="J31" s="444"/>
-      <c r="K31" s="445"/>
+      <c r="J31" s="445"/>
+      <c r="K31" s="446"/>
       <c r="L31" s="172"/>
       <c r="M31" s="2"/>
     </row>
@@ -16693,8 +16708,8 @@
         <v/>
       </c>
       <c r="I32" s="184"/>
-      <c r="J32" s="444"/>
-      <c r="K32" s="445"/>
+      <c r="J32" s="445"/>
+      <c r="K32" s="446"/>
       <c r="L32" s="172"/>
       <c r="M32" s="2"/>
     </row>
@@ -16711,8 +16726,8 @@
         <v/>
       </c>
       <c r="I33" s="184"/>
-      <c r="J33" s="444"/>
-      <c r="K33" s="445"/>
+      <c r="J33" s="445"/>
+      <c r="K33" s="446"/>
       <c r="L33" s="172"/>
       <c r="M33" s="2"/>
     </row>
@@ -16729,8 +16744,8 @@
         <v/>
       </c>
       <c r="I34" s="184"/>
-      <c r="J34" s="444"/>
-      <c r="K34" s="445"/>
+      <c r="J34" s="445"/>
+      <c r="K34" s="446"/>
       <c r="L34" s="172"/>
       <c r="M34" s="2"/>
     </row>
@@ -16747,8 +16762,8 @@
         <v/>
       </c>
       <c r="I35" s="184"/>
-      <c r="J35" s="444"/>
-      <c r="K35" s="445"/>
+      <c r="J35" s="445"/>
+      <c r="K35" s="446"/>
       <c r="L35" s="172"/>
       <c r="M35" s="2"/>
     </row>
@@ -16801,8 +16816,8 @@
         <v/>
       </c>
       <c r="I38" s="184"/>
-      <c r="J38" s="444"/>
-      <c r="K38" s="445"/>
+      <c r="J38" s="445"/>
+      <c r="K38" s="446"/>
       <c r="L38" s="172"/>
       <c r="M38" s="2"/>
     </row>
@@ -16819,8 +16834,8 @@
         <v/>
       </c>
       <c r="I39" s="184"/>
-      <c r="J39" s="444"/>
-      <c r="K39" s="445"/>
+      <c r="J39" s="445"/>
+      <c r="K39" s="446"/>
       <c r="L39" s="172"/>
       <c r="M39" s="2"/>
     </row>
@@ -16837,8 +16852,8 @@
         <v/>
       </c>
       <c r="I40" s="184"/>
-      <c r="J40" s="444"/>
-      <c r="K40" s="445"/>
+      <c r="J40" s="445"/>
+      <c r="K40" s="446"/>
       <c r="L40" s="172"/>
       <c r="M40" s="2"/>
     </row>
@@ -16855,8 +16870,8 @@
         <v/>
       </c>
       <c r="I41" s="184"/>
-      <c r="J41" s="444"/>
-      <c r="K41" s="445"/>
+      <c r="J41" s="445"/>
+      <c r="K41" s="446"/>
       <c r="L41" s="172"/>
       <c r="M41" s="2"/>
     </row>
@@ -16873,8 +16888,8 @@
         <v/>
       </c>
       <c r="I42" s="184"/>
-      <c r="J42" s="444"/>
-      <c r="K42" s="445"/>
+      <c r="J42" s="445"/>
+      <c r="K42" s="446"/>
       <c r="L42" s="172"/>
       <c r="M42" s="2"/>
     </row>
@@ -16891,8 +16906,8 @@
         <v/>
       </c>
       <c r="I43" s="184"/>
-      <c r="J43" s="464"/>
-      <c r="K43" s="465"/>
+      <c r="J43" s="465"/>
+      <c r="K43" s="466"/>
       <c r="L43" s="172"/>
       <c r="M43" s="2"/>
     </row>
@@ -16909,8 +16924,8 @@
         <v/>
       </c>
       <c r="I44" s="184"/>
-      <c r="J44" s="444"/>
-      <c r="K44" s="445"/>
+      <c r="J44" s="445"/>
+      <c r="K44" s="446"/>
       <c r="L44" s="172"/>
       <c r="M44" s="2"/>
     </row>
@@ -16927,8 +16942,8 @@
         <v/>
       </c>
       <c r="I45" s="184"/>
-      <c r="J45" s="444"/>
-      <c r="K45" s="445"/>
+      <c r="J45" s="445"/>
+      <c r="K45" s="446"/>
       <c r="L45" s="172"/>
       <c r="M45" s="2"/>
     </row>
@@ -16945,8 +16960,8 @@
         <v/>
       </c>
       <c r="I46" s="184"/>
-      <c r="J46" s="444"/>
-      <c r="K46" s="445"/>
+      <c r="J46" s="445"/>
+      <c r="K46" s="446"/>
       <c r="L46" s="172"/>
       <c r="M46" s="2"/>
     </row>
@@ -16983,10 +16998,10 @@
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="170" t="s">
         <v>86</v>
-      </c>
-      <c r="C49" s="170" t="s">
-        <v>87</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -17017,98 +17032,98 @@
     <row r="51" spans="1:13" ht="16.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="161"/>
-      <c r="C51" s="467" t="e">
+      <c r="C51" s="468" t="e">
         <f>IF(OR(_xlfn.SINGLE(Thresholds_Modulus_Value)="",_xlfn.SINGLE(Thresholds_Modulus_Value)=0),"N.C.",IF(_xlfn.SINGLE(Thresholds_Modulus_Value)&lt;_xlfn.SINGLE(AVERAGE(Pi_Modulus)),"RÉSULTAT CONFORME","RÉSULTAT INSUFFISANT"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D51" s="467"/>
-      <c r="E51" s="466"/>
-      <c r="F51" s="466"/>
+      <c r="D51" s="468"/>
+      <c r="E51" s="467"/>
+      <c r="F51" s="467"/>
       <c r="G51" s="192"/>
       <c r="H51" s="2"/>
       <c r="I51" s="195" t="s">
-        <v>96</v>
-      </c>
-      <c r="J51" s="443" t="e">
+        <v>95</v>
+      </c>
+      <c r="J51" s="444" t="e">
         <f>IF(Report_Operator="","",Report_Operator)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K51" s="443"/>
+      <c r="K51" s="444"/>
       <c r="L51" s="172"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="161"/>
-      <c r="C52" s="467"/>
-      <c r="D52" s="467"/>
-      <c r="E52" s="467"/>
+      <c r="C52" s="468"/>
+      <c r="D52" s="468"/>
+      <c r="E52" s="468"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="196" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="468" t="e">
+        <v>94</v>
+      </c>
+      <c r="J52" s="469" t="e">
         <f>IF(Report_Date="","",Report_Date)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K52" s="468"/>
+      <c r="K52" s="469"/>
       <c r="L52" s="173"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="170" t="s">
         <v>88</v>
-      </c>
-      <c r="C53" s="170" t="s">
-        <v>89</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="171"/>
-      <c r="I53" s="448" t="s">
-        <v>90</v>
-      </c>
-      <c r="J53" s="449"/>
-      <c r="K53" s="450"/>
-      <c r="L53" s="451"/>
+      <c r="I53" s="449" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="450"/>
+      <c r="K53" s="451"/>
+      <c r="L53" s="452"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="161"/>
-      <c r="C54" s="457" t="e">
-        <f>IF(Report_Comments="","",Report_Comments)</f>
+      <c r="C54" s="458" t="e">
+        <f>IF(Report_Comment="","",Report_Comment)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D54" s="457"/>
-      <c r="E54" s="457"/>
-      <c r="F54" s="457"/>
-      <c r="G54" s="457"/>
-      <c r="H54" s="458"/>
-      <c r="I54" s="448"/>
-      <c r="J54" s="452"/>
+      <c r="D54" s="458"/>
+      <c r="E54" s="458"/>
+      <c r="F54" s="458"/>
+      <c r="G54" s="458"/>
+      <c r="H54" s="459"/>
+      <c r="I54" s="449"/>
+      <c r="J54" s="453"/>
       <c r="K54" s="255"/>
-      <c r="L54" s="453"/>
+      <c r="L54" s="454"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="166"/>
-      <c r="C55" s="459"/>
-      <c r="D55" s="459"/>
-      <c r="E55" s="459"/>
-      <c r="F55" s="459"/>
-      <c r="G55" s="459"/>
-      <c r="H55" s="460"/>
-      <c r="I55" s="448"/>
-      <c r="J55" s="454"/>
-      <c r="K55" s="455"/>
-      <c r="L55" s="456"/>
+      <c r="C55" s="460"/>
+      <c r="D55" s="460"/>
+      <c r="E55" s="460"/>
+      <c r="F55" s="460"/>
+      <c r="G55" s="460"/>
+      <c r="H55" s="461"/>
+      <c r="I55" s="449"/>
+      <c r="J55" s="455"/>
+      <c r="K55" s="456"/>
+      <c r="L55" s="457"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13">
